--- a/data/fonte_analise.xlsx
+++ b/data/fonte_analise.xlsx
@@ -557,7 +557,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -595,7 +595,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -671,7 +671,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>ATENCAO</t>
         </is>
       </c>
     </row>
@@ -709,7 +709,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -747,7 +747,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>ATENCAO</t>
         </is>
       </c>
     </row>
@@ -785,7 +785,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>ATENCAO</t>
         </is>
       </c>
     </row>
@@ -823,7 +823,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -861,7 +861,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -899,7 +899,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>ATENCAO</t>
         </is>
       </c>
     </row>
@@ -937,7 +937,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>ATENCAO</t>
         </is>
       </c>
     </row>
@@ -975,7 +975,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -1013,7 +1013,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>ATENCAO</t>
         </is>
       </c>
     </row>
@@ -1051,7 +1051,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -1089,7 +1089,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>ATENCAO</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>ATENCAO</t>
         </is>
       </c>
     </row>
@@ -1165,7 +1165,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>ATENCAO</t>
         </is>
       </c>
     </row>
@@ -1203,7 +1203,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -1241,7 +1241,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -1279,7 +1279,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>ATENCAO</t>
         </is>
       </c>
     </row>
@@ -1317,7 +1317,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -1355,7 +1355,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -1393,7 +1393,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -1431,7 +1431,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -1469,7 +1469,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -1545,7 +1545,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -1583,7 +1583,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -1621,7 +1621,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -1659,7 +1659,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -1697,7 +1697,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>ATENCAO</t>
         </is>
       </c>
     </row>
@@ -1735,7 +1735,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -1773,7 +1773,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -1811,7 +1811,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -1849,7 +1849,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -1887,7 +1887,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -1925,7 +1925,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>ATENCAO</t>
         </is>
       </c>
     </row>
@@ -2039,7 +2039,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>ATENCAO</t>
         </is>
       </c>
     </row>
@@ -2077,7 +2077,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>ATENCAO</t>
         </is>
       </c>
     </row>
@@ -2115,7 +2115,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>ATENCAO</t>
         </is>
       </c>
     </row>
@@ -2153,7 +2153,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -2191,7 +2191,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>ATENCAO</t>
         </is>
       </c>
     </row>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -2305,7 +2305,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>ATENCAO</t>
         </is>
       </c>
     </row>
@@ -2343,7 +2343,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -2381,7 +2381,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>ATENCAO</t>
         </is>
       </c>
     </row>
@@ -2419,7 +2419,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -2457,7 +2457,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -2495,7 +2495,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -2533,7 +2533,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -2571,7 +2571,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>ATENCAO</t>
         </is>
       </c>
     </row>
@@ -2609,7 +2609,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>ATENCAO</t>
         </is>
       </c>
     </row>
@@ -2647,7 +2647,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -2685,7 +2685,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -2723,7 +2723,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>ATENCAO</t>
         </is>
       </c>
     </row>
@@ -2795,7 +2795,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -2833,7 +2833,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -2871,7 +2871,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -2909,7 +2909,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -2985,7 +2985,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -3023,7 +3023,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -3061,7 +3061,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -3099,7 +3099,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -3137,7 +3137,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>ATENCAO</t>
         </is>
       </c>
     </row>
@@ -3175,7 +3175,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -3213,7 +3213,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -3251,7 +3251,7 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -3289,7 +3289,7 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>ATENCAO</t>
         </is>
       </c>
     </row>
@@ -3327,7 +3327,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>ATENCAO</t>
         </is>
       </c>
     </row>
@@ -3365,7 +3365,7 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -3403,7 +3403,7 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -3479,7 +3479,7 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -3517,7 +3517,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -3593,7 +3593,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -3631,7 +3631,7 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>ATENCAO</t>
         </is>
       </c>
     </row>
@@ -3707,7 +3707,7 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -3745,7 +3745,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -3783,7 +3783,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -3821,7 +3821,7 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>ATENCAO</t>
         </is>
       </c>
     </row>
@@ -3859,7 +3859,7 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>ATENCAO</t>
         </is>
       </c>
     </row>
@@ -3897,7 +3897,7 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -3935,7 +3935,7 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -3973,7 +3973,7 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -4011,7 +4011,7 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -4049,7 +4049,7 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>ATENCAO</t>
         </is>
       </c>
     </row>
@@ -4087,7 +4087,7 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>ATENCAO</t>
         </is>
       </c>
     </row>
@@ -4125,7 +4125,7 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -4163,7 +4163,7 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>ATENCAO</t>
         </is>
       </c>
     </row>
@@ -4201,7 +4201,7 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>ATENCAO</t>
         </is>
       </c>
     </row>
@@ -4239,7 +4239,7 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>ATENCAO</t>
         </is>
       </c>
     </row>
@@ -4277,7 +4277,7 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>ATENCAO</t>
         </is>
       </c>
     </row>
@@ -4315,7 +4315,7 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -4771,7 +4771,7 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -4809,7 +4809,7 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -4847,7 +4847,7 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -4885,7 +4885,7 @@
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -4923,7 +4923,7 @@
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -4961,7 +4961,7 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -5037,7 +5037,7 @@
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>ATENCAO</t>
         </is>
       </c>
     </row>
@@ -5075,7 +5075,7 @@
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -5151,7 +5151,7 @@
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -5189,7 +5189,7 @@
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -5227,7 +5227,7 @@
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -5265,7 +5265,7 @@
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -5303,7 +5303,7 @@
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -5341,7 +5341,7 @@
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -5379,7 +5379,7 @@
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>ATENCAO</t>
         </is>
       </c>
     </row>
@@ -5417,7 +5417,7 @@
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -5455,7 +5455,7 @@
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>ATENCAO</t>
         </is>
       </c>
     </row>
@@ -5493,7 +5493,7 @@
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -5531,7 +5531,7 @@
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>ATENCAO</t>
         </is>
       </c>
     </row>
@@ -5569,7 +5569,7 @@
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -5641,7 +5641,7 @@
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -5679,7 +5679,7 @@
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>ATENCAO</t>
         </is>
       </c>
     </row>
@@ -5717,7 +5717,7 @@
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>ATENCAO</t>
         </is>
       </c>
     </row>
@@ -5755,7 +5755,7 @@
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -5793,7 +5793,7 @@
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -5831,7 +5831,7 @@
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -5869,7 +5869,7 @@
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -5907,7 +5907,7 @@
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -5945,7 +5945,7 @@
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>ATENCAO</t>
         </is>
       </c>
     </row>
@@ -5983,7 +5983,7 @@
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>ATENCAO</t>
         </is>
       </c>
     </row>
@@ -6059,7 +6059,7 @@
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>ATENCAO</t>
         </is>
       </c>
     </row>
@@ -6131,7 +6131,7 @@
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -6169,7 +6169,7 @@
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -6207,7 +6207,7 @@
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -6245,7 +6245,7 @@
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -6283,7 +6283,7 @@
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -6397,7 +6397,7 @@
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -6435,7 +6435,7 @@
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>ATENCAO</t>
         </is>
       </c>
     </row>
@@ -6511,7 +6511,7 @@
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>ATENCAO</t>
         </is>
       </c>
     </row>
@@ -6587,7 +6587,7 @@
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>ATENCAO</t>
         </is>
       </c>
     </row>
@@ -6625,7 +6625,7 @@
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>ATENCAO</t>
         </is>
       </c>
     </row>
@@ -6663,7 +6663,7 @@
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -6701,7 +6701,7 @@
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>ATENCAO</t>
         </is>
       </c>
     </row>
@@ -6815,7 +6815,7 @@
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -6853,7 +6853,7 @@
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -6891,7 +6891,7 @@
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>ATENCAO</t>
         </is>
       </c>
     </row>
@@ -6929,7 +6929,7 @@
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -6967,7 +6967,7 @@
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>ATENCAO</t>
         </is>
       </c>
     </row>
@@ -7005,7 +7005,7 @@
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -7043,7 +7043,7 @@
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -7081,7 +7081,7 @@
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -7119,7 +7119,7 @@
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>ATENCAO</t>
         </is>
       </c>
     </row>
@@ -7157,7 +7157,7 @@
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -7195,7 +7195,7 @@
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>ATENCAO</t>
         </is>
       </c>
     </row>
@@ -7233,7 +7233,7 @@
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -7271,7 +7271,7 @@
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -7309,7 +7309,7 @@
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -7381,7 +7381,7 @@
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -7419,7 +7419,7 @@
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>ATENCAO</t>
         </is>
       </c>
     </row>
@@ -7457,7 +7457,7 @@
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -7495,7 +7495,7 @@
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -7533,7 +7533,7 @@
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -7571,7 +7571,7 @@
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -7609,7 +7609,7 @@
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -7647,7 +7647,7 @@
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>ATENCAO</t>
         </is>
       </c>
     </row>
@@ -7685,7 +7685,7 @@
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>ATENCAO</t>
         </is>
       </c>
     </row>
@@ -7723,7 +7723,7 @@
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -7761,7 +7761,7 @@
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>ATENCAO</t>
         </is>
       </c>
     </row>
@@ -7799,7 +7799,7 @@
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -7837,7 +7837,7 @@
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -7875,7 +7875,7 @@
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -7913,7 +7913,7 @@
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -7951,7 +7951,7 @@
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -7989,7 +7989,7 @@
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -8027,7 +8027,7 @@
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>ATENCAO</t>
         </is>
       </c>
     </row>
@@ -8065,7 +8065,7 @@
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>ATENCAO</t>
         </is>
       </c>
     </row>
@@ -8141,7 +8141,7 @@
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -8179,7 +8179,7 @@
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -8217,7 +8217,7 @@
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -8255,7 +8255,7 @@
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -8293,7 +8293,7 @@
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -8331,7 +8331,7 @@
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -8369,7 +8369,7 @@
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>ATENCAO</t>
         </is>
       </c>
     </row>
@@ -8407,7 +8407,7 @@
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -8445,7 +8445,7 @@
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>ATENCAO</t>
         </is>
       </c>
     </row>
@@ -8521,7 +8521,7 @@
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -8559,7 +8559,7 @@
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -8597,7 +8597,7 @@
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -8635,7 +8635,7 @@
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -8673,7 +8673,7 @@
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>ATENCAO</t>
         </is>
       </c>
     </row>
@@ -8711,7 +8711,7 @@
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -8749,7 +8749,7 @@
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -8787,7 +8787,7 @@
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>ATENCAO</t>
         </is>
       </c>
     </row>
@@ -8825,7 +8825,7 @@
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -8863,7 +8863,7 @@
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>ATENCAO</t>
         </is>
       </c>
     </row>
@@ -8901,7 +8901,7 @@
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -8939,7 +8939,7 @@
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -8977,7 +8977,7 @@
       </c>
       <c r="J225" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>ATENCAO</t>
         </is>
       </c>
     </row>
@@ -9053,7 +9053,7 @@
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -9091,7 +9091,7 @@
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -9129,7 +9129,7 @@
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -9167,7 +9167,7 @@
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>ATENCAO</t>
         </is>
       </c>
     </row>
@@ -9243,7 +9243,7 @@
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -9281,7 +9281,7 @@
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>ATENCAO</t>
         </is>
       </c>
     </row>
@@ -9319,7 +9319,7 @@
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -9357,7 +9357,7 @@
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -9433,7 +9433,7 @@
       </c>
       <c r="J237" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>ATENCAO</t>
         </is>
       </c>
     </row>
@@ -9471,7 +9471,7 @@
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>ATENCAO</t>
         </is>
       </c>
     </row>
@@ -9509,7 +9509,7 @@
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -9585,7 +9585,7 @@
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -9623,7 +9623,7 @@
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -9661,7 +9661,7 @@
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>ATENCAO</t>
         </is>
       </c>
     </row>
@@ -9699,7 +9699,7 @@
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -9737,7 +9737,7 @@
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>ATENCAO</t>
         </is>
       </c>
     </row>
@@ -9775,7 +9775,7 @@
       </c>
       <c r="J246" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>ATENCAO</t>
         </is>
       </c>
     </row>
@@ -9813,7 +9813,7 @@
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>ATENCAO</t>
         </is>
       </c>
     </row>
@@ -9851,7 +9851,7 @@
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -9889,7 +9889,7 @@
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -9927,7 +9927,7 @@
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>ATENCAO</t>
         </is>
       </c>
     </row>
@@ -9965,7 +9965,7 @@
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>ATENCAO</t>
         </is>
       </c>
     </row>
@@ -10003,7 +10003,7 @@
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>ATENCAO</t>
         </is>
       </c>
     </row>
@@ -10041,7 +10041,7 @@
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -10079,7 +10079,7 @@
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -10117,7 +10117,7 @@
       </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -10155,7 +10155,7 @@
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>ATENCAO</t>
         </is>
       </c>
     </row>
@@ -10193,7 +10193,7 @@
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>ATENCAO</t>
         </is>
       </c>
     </row>
@@ -10231,7 +10231,7 @@
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -10269,7 +10269,7 @@
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -10307,7 +10307,7 @@
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -10345,7 +10345,7 @@
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -10383,7 +10383,7 @@
       </c>
       <c r="J262" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -10421,7 +10421,7 @@
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>ATENCAO</t>
         </is>
       </c>
     </row>
@@ -10459,7 +10459,7 @@
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -10497,7 +10497,7 @@
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -10535,7 +10535,7 @@
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -10573,7 +10573,7 @@
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -10611,7 +10611,7 @@
       </c>
       <c r="J268" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -10649,7 +10649,7 @@
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -10725,7 +10725,7 @@
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>ATENCAO</t>
         </is>
       </c>
     </row>
@@ -10763,7 +10763,7 @@
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>ATENCAO</t>
         </is>
       </c>
     </row>
@@ -10801,7 +10801,7 @@
       </c>
       <c r="J273" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -10877,7 +10877,7 @@
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -10915,7 +10915,7 @@
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -10953,7 +10953,7 @@
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -10991,7 +10991,7 @@
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -11029,7 +11029,7 @@
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -11067,7 +11067,7 @@
       </c>
       <c r="J280" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -11105,7 +11105,7 @@
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -11143,7 +11143,7 @@
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -11181,7 +11181,7 @@
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>ATENCAO</t>
         </is>
       </c>
     </row>
@@ -11219,7 +11219,7 @@
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -11257,7 +11257,7 @@
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -11371,7 +11371,7 @@
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -11409,7 +11409,7 @@
       </c>
       <c r="J289" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -11447,7 +11447,7 @@
       </c>
       <c r="J290" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -11485,7 +11485,7 @@
       </c>
       <c r="J291" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -11523,7 +11523,7 @@
       </c>
       <c r="J292" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -11561,7 +11561,7 @@
       </c>
       <c r="J293" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -11599,7 +11599,7 @@
       </c>
       <c r="J294" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>ATENCAO</t>
         </is>
       </c>
     </row>
@@ -11637,7 +11637,7 @@
       </c>
       <c r="J295" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -11675,7 +11675,7 @@
       </c>
       <c r="J296" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>ATENCAO</t>
         </is>
       </c>
     </row>
@@ -11713,7 +11713,7 @@
       </c>
       <c r="J297" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -11751,7 +11751,7 @@
       </c>
       <c r="J298" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -11789,7 +11789,7 @@
       </c>
       <c r="J299" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -11827,7 +11827,7 @@
       </c>
       <c r="J300" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>ATENCAO</t>
         </is>
       </c>
     </row>
@@ -11865,7 +11865,7 @@
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>ATENCAO</t>
         </is>
       </c>
     </row>
@@ -11903,7 +11903,7 @@
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -11941,7 +11941,7 @@
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -11979,7 +11979,7 @@
       </c>
       <c r="J304" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -12017,7 +12017,7 @@
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>ATENCAO</t>
         </is>
       </c>
     </row>
@@ -12055,7 +12055,7 @@
       </c>
       <c r="J306" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>ATENCAO</t>
         </is>
       </c>
     </row>
@@ -12093,7 +12093,7 @@
       </c>
       <c r="J307" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>ATENCAO</t>
         </is>
       </c>
     </row>
@@ -12131,7 +12131,7 @@
       </c>
       <c r="J308" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -12169,7 +12169,7 @@
       </c>
       <c r="J309" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -12245,7 +12245,7 @@
       </c>
       <c r="J311" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -12283,7 +12283,7 @@
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>ATENCAO</t>
         </is>
       </c>
     </row>
@@ -12321,7 +12321,7 @@
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -12359,7 +12359,7 @@
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -12397,7 +12397,7 @@
       </c>
       <c r="J315" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -12435,7 +12435,7 @@
       </c>
       <c r="J316" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -12473,7 +12473,7 @@
       </c>
       <c r="J317" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>ATENCAO</t>
         </is>
       </c>
     </row>
@@ -12511,7 +12511,7 @@
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -12549,7 +12549,7 @@
       </c>
       <c r="J319" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -12587,7 +12587,7 @@
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>ATENCAO</t>
         </is>
       </c>
     </row>
@@ -12951,7 +12951,7 @@
       </c>
       <c r="J330" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -12989,7 +12989,7 @@
       </c>
       <c r="J331" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -13027,7 +13027,7 @@
       </c>
       <c r="J332" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>ATENCAO</t>
         </is>
       </c>
     </row>
@@ -13103,7 +13103,7 @@
       </c>
       <c r="J334" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -13217,7 +13217,7 @@
       </c>
       <c r="J337" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>ATENCAO</t>
         </is>
       </c>
     </row>
@@ -13407,7 +13407,7 @@
       </c>
       <c r="J342" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -13483,7 +13483,7 @@
       </c>
       <c r="J344" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -13521,7 +13521,7 @@
       </c>
       <c r="J345" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -13559,7 +13559,7 @@
       </c>
       <c r="J346" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>ATENCAO</t>
         </is>
       </c>
     </row>
@@ -13597,7 +13597,7 @@
       </c>
       <c r="J347" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -13635,7 +13635,7 @@
       </c>
       <c r="J348" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -13673,7 +13673,7 @@
       </c>
       <c r="J349" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -13787,7 +13787,7 @@
       </c>
       <c r="J352" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>ATENCAO</t>
         </is>
       </c>
     </row>
@@ -13863,7 +13863,7 @@
       </c>
       <c r="J354" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -13939,7 +13939,7 @@
       </c>
       <c r="J356" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -13977,7 +13977,7 @@
       </c>
       <c r="J357" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -14015,7 +14015,7 @@
       </c>
       <c r="J358" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -14053,7 +14053,7 @@
       </c>
       <c r="J359" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>ATENCAO</t>
         </is>
       </c>
     </row>
@@ -14129,7 +14129,7 @@
       </c>
       <c r="J361" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>ATENCAO</t>
         </is>
       </c>
     </row>
@@ -14357,7 +14357,7 @@
       </c>
       <c r="J367" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -14395,7 +14395,7 @@
       </c>
       <c r="J368" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -14509,7 +14509,7 @@
       </c>
       <c r="J371" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>ATENCAO</t>
         </is>
       </c>
     </row>
@@ -14547,7 +14547,7 @@
       </c>
       <c r="J372" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>ATENCAO</t>
         </is>
       </c>
     </row>
@@ -14619,7 +14619,7 @@
       </c>
       <c r="J374" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>ATENCAO</t>
         </is>
       </c>
     </row>
@@ -14657,7 +14657,7 @@
       </c>
       <c r="J375" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -14733,7 +14733,7 @@
       </c>
       <c r="J377" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -14771,7 +14771,7 @@
       </c>
       <c r="J378" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -14809,7 +14809,7 @@
       </c>
       <c r="J379" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>

--- a/data/fonte_analise.xlsx
+++ b/data/fonte_analise.xlsx
@@ -9277,11 +9277,11 @@
         <v>300000</v>
       </c>
       <c r="I233" t="n">
-        <v>0</v>
+        <v>300000</v>
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>ATENCAO</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -9315,11 +9315,11 @@
         <v>20618556</v>
       </c>
       <c r="I234" t="n">
-        <v>0</v>
+        <v>19613469</v>
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -9353,11 +9353,11 @@
         <v>51898802</v>
       </c>
       <c r="I235" t="n">
-        <v>0</v>
+        <v>63127843</v>
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -10493,11 +10493,11 @@
         <v>1100000</v>
       </c>
       <c r="I265" t="n">
-        <v>0</v>
+        <v>1100000</v>
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -10531,11 +10531,11 @@
         <v>110000</v>
       </c>
       <c r="I266" t="n">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>VALOR DISCREPANTE</t>
         </is>
       </c>
     </row>
@@ -11975,11 +11975,11 @@
         <v>10800000</v>
       </c>
       <c r="I304" t="n">
-        <v>0</v>
+        <v>15800000</v>
       </c>
       <c r="J304" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>OK</t>
         </is>
       </c>
     </row>

--- a/data/fonte_analise.xlsx
+++ b/data/fonte_analise.xlsx
@@ -2739,7 +2739,11 @@
       <c r="C61" t="n">
         <v>79</v>
       </c>
-      <c r="D61" t="inlineStr"/>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>CONTRIBUICAO PATRONAL PARA O FUNPREV</t>
+        </is>
+      </c>
       <c r="E61" t="n">
         <v>0</v>
       </c>
@@ -5585,7 +5589,11 @@
       <c r="C136" t="n">
         <v>79</v>
       </c>
-      <c r="D136" t="inlineStr"/>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>CONTRIBUICAO PATRONAL PARA O FUNPREV</t>
+        </is>
+      </c>
       <c r="E136" t="n">
         <v>0</v>
       </c>
@@ -6075,7 +6083,11 @@
       <c r="C149" t="n">
         <v>79</v>
       </c>
-      <c r="D149" t="inlineStr"/>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>CONTRIBUICAO PATRONAL PARA O FUNPREV</t>
+        </is>
+      </c>
       <c r="E149" t="n">
         <v>0</v>
       </c>
@@ -7325,7 +7337,11 @@
       <c r="C182" t="n">
         <v>79</v>
       </c>
-      <c r="D182" t="inlineStr"/>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>CONTRIBUICAO PATRONAL PARA O FUNPREV</t>
+        </is>
+      </c>
       <c r="E182" t="n">
         <v>0</v>
       </c>
@@ -10545,7 +10561,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>FUNDHAB</t>
+          <t>FUNDALEMG</t>
         </is>
       </c>
       <c r="C267" t="n">
@@ -14563,7 +14579,11 @@
       <c r="C373" t="n">
         <v>79</v>
       </c>
-      <c r="D373" t="inlineStr"/>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>CONTRIBUICAO PATRONAL PARA O FUNPREV</t>
+        </is>
+      </c>
       <c r="E373" t="n">
         <v>0</v>
       </c>

--- a/data/fonte_analise.xlsx
+++ b/data/fonte_analise.xlsx
@@ -2947,11 +2947,11 @@
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>VALOR DISCREPANTE</t>
         </is>
       </c>
     </row>
@@ -2985,11 +2985,11 @@
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>2094122</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -3213,11 +3213,11 @@
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>12754323</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -7013,11 +7013,11 @@
         <v>1057792</v>
       </c>
       <c r="I173" t="n">
-        <v>0</v>
+        <v>423706</v>
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>VALOR DISCREPANTE</t>
         </is>
       </c>
     </row>
@@ -7051,11 +7051,11 @@
         <v>10680</v>
       </c>
       <c r="I174" t="n">
-        <v>0</v>
+        <v>4735</v>
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>VALOR DISCREPANTE</t>
         </is>
       </c>
     </row>
@@ -12667,7 +12667,7 @@
         <v>0</v>
       </c>
       <c r="I322" t="n">
-        <v>0</v>
+        <v>25000000</v>
       </c>
       <c r="J322" t="inlineStr">
         <is>
@@ -12701,7 +12701,7 @@
         <v>0</v>
       </c>
       <c r="I323" t="n">
-        <v>0</v>
+        <v>15000000</v>
       </c>
       <c r="J323" t="inlineStr">
         <is>

--- a/data/fonte_analise.xlsx
+++ b/data/fonte_analise.xlsx
@@ -1465,11 +1465,11 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>145685</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -1503,11 +1503,11 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>2239331</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>VALOR DISCREPANTE</t>
         </is>
       </c>
     </row>
@@ -8609,11 +8609,11 @@
         <v>12493615</v>
       </c>
       <c r="I215" t="n">
-        <v>0</v>
+        <v>113148</v>
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>VALOR DISCREPANTE</t>
         </is>
       </c>
     </row>

--- a/data/fonte_analise.xlsx
+++ b/data/fonte_analise.xlsx
@@ -1465,7 +1465,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>145685</v>
+        <v>300408</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -1503,7 +1503,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>2239331</v>
+        <v>2239831</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>

--- a/data/fonte_analise.xlsx
+++ b/data/fonte_analise.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J383"/>
+  <dimension ref="A1:J384"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1237,11 +1237,11 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>11126454</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -7491,11 +7491,11 @@
         <v>86379763</v>
       </c>
       <c r="I186" t="n">
-        <v>0</v>
+        <v>96604015</v>
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -7643,11 +7643,11 @@
         <v>572166857</v>
       </c>
       <c r="I190" t="n">
-        <v>0</v>
+        <v>1069492699</v>
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>VALOR DISCREPANTE</t>
         </is>
       </c>
     </row>
@@ -8117,11 +8117,11 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>CONVENIOS COM A UNIAO E SUAS ENTIDADES - EXCETO EMENDAS INDIVIDUAIS E DE BANCADA</t>
+          <t>RECURSOS ORDINARIOS - RECURSOS NAO VINCULADOS DE IMPOSTOS</t>
         </is>
       </c>
       <c r="E203" t="n">
@@ -8137,7 +8137,7 @@
         <v>0</v>
       </c>
       <c r="I203" t="n">
-        <v>0</v>
+        <v>1795</v>
       </c>
       <c r="J203" t="inlineStr">
         <is>
@@ -8155,31 +8155,31 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>ALIENACAO DE BENS DE ENTIDADES ESTADUAIS</t>
+          <t>CONVENIOS COM A UNIAO E SUAS ENTIDADES - EXCETO EMENDAS INDIVIDUAIS E DE BANCADA</t>
         </is>
       </c>
       <c r="E204" t="n">
-        <v>1016158</v>
+        <v>0</v>
       </c>
       <c r="F204" t="n">
-        <v>170122</v>
+        <v>0</v>
       </c>
       <c r="G204" t="n">
-        <v>1022359.25</v>
+        <v>0</v>
       </c>
       <c r="H204" t="n">
-        <v>1115301</v>
+        <v>0</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -8193,31 +8193,31 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO DE INTERVENCAO NO DOMINIO ECONOMICO/COMBUSTIVEIS-CIDE</t>
+          <t>ALIENACAO DE BENS DE ENTIDADES ESTADUAIS</t>
         </is>
       </c>
       <c r="E205" t="n">
-        <v>1918107.98</v>
+        <v>1016158</v>
       </c>
       <c r="F205" t="n">
-        <v>7711906.08</v>
+        <v>170122</v>
       </c>
       <c r="G205" t="n">
-        <v>986966.75</v>
+        <v>1022359.25</v>
       </c>
       <c r="H205" t="n">
-        <v>1076691</v>
+        <v>1115301</v>
       </c>
       <c r="I205" t="n">
-        <v>0</v>
+        <v>12943496</v>
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>VALOR DISCREPANTE</t>
         </is>
       </c>
     </row>
@@ -8231,31 +8231,31 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>RECURSOS DIRETAMENTE ARRECADADOS</t>
+          <t>CONTRIBUICAO DE INTERVENCAO NO DOMINIO ECONOMICO/COMBUSTIVEIS-CIDE</t>
         </is>
       </c>
       <c r="E206" t="n">
-        <v>2454702.28</v>
+        <v>1918107.98</v>
       </c>
       <c r="F206" t="n">
-        <v>3874281.33</v>
+        <v>7711906.08</v>
       </c>
       <c r="G206" t="n">
-        <v>2588400.64</v>
+        <v>986966.75</v>
       </c>
       <c r="H206" t="n">
-        <v>2197729</v>
+        <v>1076691</v>
       </c>
       <c r="I206" t="n">
-        <v>0</v>
+        <v>103311906</v>
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>VALOR DISCREPANTE</t>
         </is>
       </c>
     </row>
@@ -8269,24 +8269,24 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>CONVENIOS COM AS INSTITUICOES PRIVADAS E OS ORGANISMOS DO EXTERIOR</t>
+          <t>RECURSOS DIRETAMENTE ARRECADADOS</t>
         </is>
       </c>
       <c r="E207" t="n">
-        <v>19827595.14</v>
+        <v>2454702.28</v>
       </c>
       <c r="F207" t="n">
-        <v>21321655.75</v>
+        <v>3874281.33</v>
       </c>
       <c r="G207" t="n">
-        <v>8002000</v>
+        <v>2588400.64</v>
       </c>
       <c r="H207" t="n">
-        <v>8002000</v>
+        <v>2197729</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
@@ -8307,24 +8307,24 @@
         </is>
       </c>
       <c r="C208" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>CONVENIOS COM OS ESTADOS E O DISTRITO FEDERAL</t>
+          <t>CONVENIOS COM AS INSTITUICOES PRIVADAS E OS ORGANISMOS DO EXTERIOR</t>
         </is>
       </c>
       <c r="E208" t="n">
-        <v>3100004.29</v>
+        <v>19827595.14</v>
       </c>
       <c r="F208" t="n">
-        <v>1152569.74</v>
+        <v>21321655.75</v>
       </c>
       <c r="G208" t="n">
-        <v>917390.2</v>
+        <v>8002000</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>8002000</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
@@ -8345,24 +8345,24 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>CONVENIOS COM OS MUNICIPIOS</t>
+          <t>CONVENIOS COM OS ESTADOS E O DISTRITO FEDERAL</t>
         </is>
       </c>
       <c r="E209" t="n">
-        <v>41144593.83</v>
+        <v>3100004.29</v>
       </c>
       <c r="F209" t="n">
-        <v>886969.5600000001</v>
+        <v>1152569.74</v>
       </c>
       <c r="G209" t="n">
-        <v>4002000</v>
+        <v>917390.2</v>
       </c>
       <c r="H209" t="n">
-        <v>4002000</v>
+        <v>0</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
@@ -8383,31 +8383,31 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>ACORDOS E AJUSTES DE COOPERACAO MUTUA COM AS INSTITUICOES PRIVADAS E OS ORGANISMOS DO EXTERIOR</t>
+          <t>CONVENIOS COM OS MUNICIPIOS</t>
         </is>
       </c>
       <c r="E210" t="n">
-        <v>20309923.28</v>
+        <v>41144593.83</v>
       </c>
       <c r="F210" t="n">
-        <v>16008327.36</v>
+        <v>886969.5600000001</v>
       </c>
       <c r="G210" t="n">
-        <v>0</v>
+        <v>4002000</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>4002000</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>ATENCAO</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -8421,69 +8421,69 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>TAXA DE EXPEDIENTE - ADMINISTRACAO INDIRETA</t>
+          <t>ACORDOS E AJUSTES DE COOPERACAO MUTUA COM AS INSTITUICOES PRIVADAS E OS ORGANISMOS DO EXTERIOR</t>
         </is>
       </c>
       <c r="E211" t="n">
-        <v>4829342.41</v>
+        <v>20309923.28</v>
       </c>
       <c r="F211" t="n">
-        <v>5226517.66</v>
+        <v>16008327.36</v>
       </c>
       <c r="G211" t="n">
-        <v>4485760.7</v>
+        <v>0</v>
       </c>
       <c r="H211" t="n">
-        <v>4376003</v>
+        <v>0</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>ATENCAO</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>2311</v>
+        <v>2301</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>UNIMONTES</t>
+          <t>DER-MG</t>
         </is>
       </c>
       <c r="C212" t="n">
-        <v>1</v>
+        <v>91</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>CONVENIOS COM A UNIAO E SUAS ENTIDADES - EMENDAS INDIVIDUAIS</t>
+          <t>TAXA DE EXPEDIENTE - ADMINISTRACAO INDIRETA</t>
         </is>
       </c>
       <c r="E212" t="n">
-        <v>66.3</v>
+        <v>4829342.41</v>
       </c>
       <c r="F212" t="n">
-        <v>0</v>
+        <v>5226517.66</v>
       </c>
       <c r="G212" t="n">
-        <v>1497718</v>
+        <v>4485760.7</v>
       </c>
       <c r="H212" t="n">
-        <v>1497718</v>
+        <v>4376003</v>
       </c>
       <c r="I212" t="n">
-        <v>0</v>
+        <v>5209550</v>
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>ATENCAO</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -8497,31 +8497,31 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>RECURSOS ORDINARIOS - RECURSOS NAO VINCULADOS DE IMPOSTOS</t>
+          <t>CONVENIOS COM A UNIAO E SUAS ENTIDADES - EMENDAS INDIVIDUAIS</t>
         </is>
       </c>
       <c r="E213" t="n">
-        <v>0</v>
+        <v>66.3</v>
       </c>
       <c r="F213" t="n">
         <v>0</v>
       </c>
       <c r="G213" t="n">
-        <v>0</v>
+        <v>1497718</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>1497718</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>ATENCAO</t>
         </is>
       </c>
     </row>
@@ -8535,31 +8535,31 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>CONVENIOS COM A UNIAO E SUAS ENTIDADES - EXCETO EMENDAS INDIVIDUAIS E DE BANCADA</t>
+          <t>RECURSOS ORDINARIOS - RECURSOS NAO VINCULADOS DE IMPOSTOS</t>
         </is>
       </c>
       <c r="E214" t="n">
-        <v>654110.22</v>
+        <v>0</v>
       </c>
       <c r="F214" t="n">
-        <v>723266.38</v>
+        <v>0</v>
       </c>
       <c r="G214" t="n">
-        <v>3174700</v>
+        <v>0</v>
       </c>
       <c r="H214" t="n">
-        <v>3174700</v>
+        <v>0</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -8573,24 +8573,24 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>TRANSFERENCIAS DO FNDE VINCULADAS A EDUCACAO - EXCETO EMENDAS INDIVIDUAIS E DE BANCADA</t>
+          <t>CONVENIOS COM A UNIAO E SUAS ENTIDADES - EXCETO EMENDAS INDIVIDUAIS E DE BANCADA</t>
         </is>
       </c>
       <c r="E215" t="n">
-        <v>1048429.63</v>
+        <v>654110.22</v>
       </c>
       <c r="F215" t="n">
-        <v>590673.8100000001</v>
+        <v>723266.38</v>
       </c>
       <c r="G215" t="n">
-        <v>37938411</v>
+        <v>3174700</v>
       </c>
       <c r="H215" t="n">
-        <v>37938411</v>
+        <v>3174700</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
@@ -8611,31 +8611,31 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>RECURSOS DIRETAMENTE ARRECADADOS</t>
+          <t>TRANSFERENCIAS DO FNDE VINCULADAS A EDUCACAO - EXCETO EMENDAS INDIVIDUAIS E DE BANCADA</t>
         </is>
       </c>
       <c r="E216" t="n">
-        <v>16725137.26</v>
+        <v>1048429.63</v>
       </c>
       <c r="F216" t="n">
-        <v>12961682.95</v>
+        <v>590673.8100000001</v>
       </c>
       <c r="G216" t="n">
-        <v>12625317.73</v>
+        <v>37938411</v>
       </c>
       <c r="H216" t="n">
-        <v>12493615</v>
+        <v>37938411</v>
       </c>
       <c r="I216" t="n">
-        <v>113148</v>
+        <v>0</v>
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -8649,69 +8649,69 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>CONVENIOS COM OS MUNICIPIOS</t>
+          <t>RECURSOS DIRETAMENTE ARRECADADOS</t>
         </is>
       </c>
       <c r="E217" t="n">
-        <v>10106961.97</v>
+        <v>16725137.26</v>
       </c>
       <c r="F217" t="n">
-        <v>18432231.41</v>
+        <v>12961682.95</v>
       </c>
       <c r="G217" t="n">
-        <v>41346930</v>
+        <v>12625317.73</v>
       </c>
       <c r="H217" t="n">
-        <v>41346930</v>
+        <v>12493615</v>
       </c>
       <c r="I217" t="n">
-        <v>0</v>
+        <v>113148</v>
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>VALOR DISCREPANTE</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>2321</v>
+        <v>2311</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>HEMOMINAS</t>
+          <t>UNIMONTES</t>
         </is>
       </c>
       <c r="C218" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>CONVENIOS COM A UNIAO E SUAS ENTIDADES - EMENDAS INDIVIDUAIS</t>
+          <t>CONVENIOS COM OS MUNICIPIOS</t>
         </is>
       </c>
       <c r="E218" t="n">
-        <v>0</v>
+        <v>10106961.97</v>
       </c>
       <c r="F218" t="n">
-        <v>0</v>
+        <v>18432231.41</v>
       </c>
       <c r="G218" t="n">
-        <v>338371</v>
+        <v>41346930</v>
       </c>
       <c r="H218" t="n">
-        <v>338371</v>
+        <v>41346930</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>ATENCAO</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -8725,31 +8725,31 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>RECURSOS ORDINARIOS - RECURSOS NAO VINCULADOS DE IMPOSTOS</t>
+          <t>CONVENIOS COM A UNIAO E SUAS ENTIDADES - EMENDAS INDIVIDUAIS</t>
         </is>
       </c>
       <c r="E219" t="n">
-        <v>340849508.3</v>
+        <v>0</v>
       </c>
       <c r="F219" t="n">
-        <v>385996888.5</v>
+        <v>0</v>
       </c>
       <c r="G219" t="n">
-        <v>388121393.28</v>
+        <v>338371</v>
       </c>
       <c r="H219" t="n">
-        <v>392902891</v>
+        <v>338371</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>ATENCAO</t>
         </is>
       </c>
     </row>
@@ -8763,31 +8763,31 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>CONVENIOS COM A UNIAO E SUAS ENTIDADES - EXCETO EMENDAS INDIVIDUAIS E DE BANCADA</t>
+          <t>RECURSOS ORDINARIOS - RECURSOS NAO VINCULADOS DE IMPOSTOS</t>
         </is>
       </c>
       <c r="E220" t="n">
-        <v>624563.75</v>
+        <v>340849508.3</v>
       </c>
       <c r="F220" t="n">
-        <v>537031.8</v>
+        <v>385996888.5</v>
       </c>
       <c r="G220" t="n">
-        <v>8573789</v>
+        <v>388121393.28</v>
       </c>
       <c r="H220" t="n">
-        <v>8573789</v>
+        <v>392902891</v>
       </c>
       <c r="I220" t="n">
-        <v>0</v>
+        <v>633223</v>
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>VALOR DISCREPANTE</t>
         </is>
       </c>
     </row>
@@ -8801,31 +8801,31 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>ALIENACAO DE BENS DE ENTIDADES ESTADUAIS</t>
+          <t>CONVENIOS COM A UNIAO E SUAS ENTIDADES - EXCETO EMENDAS INDIVIDUAIS E DE BANCADA</t>
         </is>
       </c>
       <c r="E221" t="n">
-        <v>116076</v>
+        <v>624563.75</v>
       </c>
       <c r="F221" t="n">
-        <v>0</v>
+        <v>537031.8</v>
       </c>
       <c r="G221" t="n">
-        <v>105416.67</v>
+        <v>8573789</v>
       </c>
       <c r="H221" t="n">
-        <v>115000</v>
+        <v>8573789</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>ATENCAO</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -8839,31 +8839,31 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>RECURSOS DIRETAMENTE ARRECADADOS</t>
+          <t>ALIENACAO DE BENS DE ENTIDADES ESTADUAIS</t>
         </is>
       </c>
       <c r="E222" t="n">
-        <v>76420064.23</v>
+        <v>116076</v>
       </c>
       <c r="F222" t="n">
-        <v>79047657.81999999</v>
+        <v>0</v>
       </c>
       <c r="G222" t="n">
-        <v>77780259.44</v>
+        <v>105416.67</v>
       </c>
       <c r="H222" t="n">
-        <v>77988440</v>
+        <v>115000</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>ATENCAO</t>
         </is>
       </c>
     </row>
@@ -8877,100 +8877,100 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>CONVENIOS COM OS MUNICIPIOS</t>
+          <t>RECURSOS DIRETAMENTE ARRECADADOS</t>
         </is>
       </c>
       <c r="E223" t="n">
-        <v>0</v>
+        <v>76420064.23</v>
       </c>
       <c r="F223" t="n">
-        <v>356258</v>
+        <v>79047657.81999999</v>
       </c>
       <c r="G223" t="n">
-        <v>208266</v>
+        <v>77780259.44</v>
       </c>
       <c r="H223" t="n">
-        <v>208266</v>
+        <v>77988440</v>
       </c>
       <c r="I223" t="n">
-        <v>0</v>
+        <v>79268674</v>
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>ATENCAO</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>2331</v>
+        <v>2321</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>IPEMMG</t>
+          <t>HEMOMINAS</t>
         </is>
       </c>
       <c r="C224" t="n">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>ACORDOS, AJUSTES E DEMAIS INSTRUMENTOS DE COOPERACAO MUTUA COM A UNIAO E SUAS ENTIDADES</t>
+          <t>CONVENIOS COM OS MUNICIPIOS</t>
         </is>
       </c>
       <c r="E224" t="n">
-        <v>34390173.89</v>
+        <v>0</v>
       </c>
       <c r="F224" t="n">
-        <v>37894044.02</v>
+        <v>356258</v>
       </c>
       <c r="G224" t="n">
-        <v>38000000</v>
+        <v>208266</v>
       </c>
       <c r="H224" t="n">
-        <v>38000000</v>
+        <v>208266</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>ATENCAO</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>2351</v>
+        <v>2331</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>UEMG</t>
+          <t>IPEMMG</t>
         </is>
       </c>
       <c r="C225" t="n">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>CONVENIOS COM A UNIAO E SUAS ENTIDADES - EMENDAS INDIVIDUAIS</t>
+          <t>ACORDOS, AJUSTES E DEMAIS INSTRUMENTOS DE COOPERACAO MUTUA COM A UNIAO E SUAS ENTIDADES</t>
         </is>
       </c>
       <c r="E225" t="n">
-        <v>217084.88</v>
+        <v>34390173.89</v>
       </c>
       <c r="F225" t="n">
-        <v>66.02</v>
+        <v>37894044.02</v>
       </c>
       <c r="G225" t="n">
-        <v>1633154</v>
+        <v>38000000</v>
       </c>
       <c r="H225" t="n">
-        <v>1633154</v>
+        <v>38000000</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
@@ -8991,31 +8991,31 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>TRANSFERENCIAS DO FNDE VINCULADAS A EDUCACAO - EMENDAS INDIVIDUAIS</t>
+          <t>CONVENIOS COM A UNIAO E SUAS ENTIDADES - EMENDAS INDIVIDUAIS</t>
         </is>
       </c>
       <c r="E226" t="n">
-        <v>0</v>
+        <v>217084.88</v>
       </c>
       <c r="F226" t="n">
-        <v>0</v>
+        <v>66.02</v>
       </c>
       <c r="G226" t="n">
-        <v>2140000</v>
+        <v>1633154</v>
       </c>
       <c r="H226" t="n">
-        <v>2140000</v>
+        <v>1633154</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>ATENCAO</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -9029,31 +9029,31 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>RECURSOS ORDINARIOS - RECURSOS NAO VINCULADOS DE IMPOSTOS</t>
+          <t>TRANSFERENCIAS DO FNDE VINCULADAS A EDUCACAO - EMENDAS INDIVIDUAIS</t>
         </is>
       </c>
       <c r="E227" t="n">
-        <v>1108.03</v>
+        <v>0</v>
       </c>
       <c r="F227" t="n">
         <v>0</v>
       </c>
       <c r="G227" t="n">
-        <v>0</v>
+        <v>2140000</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2140000</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>ATENCAO</t>
         </is>
       </c>
     </row>
@@ -9067,31 +9067,31 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>CONVENIOS COM A UNIAO E SUAS ENTIDADES - EXCETO EMENDAS INDIVIDUAIS E DE BANCADA</t>
+          <t>RECURSOS ORDINARIOS - RECURSOS NAO VINCULADOS DE IMPOSTOS</t>
         </is>
       </c>
       <c r="E228" t="n">
-        <v>571739.5699999999</v>
+        <v>1108.03</v>
       </c>
       <c r="F228" t="n">
-        <v>819556.64</v>
+        <v>0</v>
       </c>
       <c r="G228" t="n">
-        <v>13048307</v>
+        <v>0</v>
       </c>
       <c r="H228" t="n">
-        <v>13048307</v>
+        <v>0</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -9105,24 +9105,24 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>RECURSOS DIRETAMENTE ARRECADADOS</t>
+          <t>CONVENIOS COM A UNIAO E SUAS ENTIDADES - EXCETO EMENDAS INDIVIDUAIS E DE BANCADA</t>
         </is>
       </c>
       <c r="E229" t="n">
-        <v>1743230.6</v>
+        <v>571739.5699999999</v>
       </c>
       <c r="F229" t="n">
-        <v>1299864.86</v>
+        <v>819556.64</v>
       </c>
       <c r="G229" t="n">
-        <v>1730422.53</v>
+        <v>13048307</v>
       </c>
       <c r="H229" t="n">
-        <v>1862000</v>
+        <v>13048307</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
@@ -9135,11 +9135,11 @@
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>2361</v>
+        <v>2351</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>IPLEMG</t>
+          <t>UEMG</t>
         </is>
       </c>
       <c r="C230" t="n">
@@ -9151,61 +9151,61 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>110496929.95</v>
+        <v>1743230.6</v>
       </c>
       <c r="F230" t="n">
-        <v>105700834.3</v>
+        <v>1299864.86</v>
       </c>
       <c r="G230" t="n">
-        <v>109514500</v>
+        <v>1730422.53</v>
       </c>
       <c r="H230" t="n">
-        <v>109514500</v>
+        <v>1862000</v>
       </c>
       <c r="I230" t="n">
-        <v>0</v>
+        <v>1150000</v>
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>2371</v>
+        <v>2361</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>IMA</t>
+          <t>IPLEMG</t>
         </is>
       </c>
       <c r="C231" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>CONVENIOS COM A UNIAO E SUAS ENTIDADES - EMENDAS INDIVIDUAIS</t>
+          <t>RECURSOS DIRETAMENTE ARRECADADOS</t>
         </is>
       </c>
       <c r="E231" t="n">
-        <v>0</v>
+        <v>110496929.95</v>
       </c>
       <c r="F231" t="n">
-        <v>0</v>
+        <v>105700834.3</v>
       </c>
       <c r="G231" t="n">
-        <v>951200</v>
+        <v>109514500</v>
       </c>
       <c r="H231" t="n">
-        <v>951200</v>
+        <v>109514500</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>ATENCAO</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -9219,31 +9219,31 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>RECURSOS ORDINARIOS - RECURSOS NAO VINCULADOS DE IMPOSTOS</t>
+          <t>CONVENIOS COM A UNIAO E SUAS ENTIDADES - EMENDAS INDIVIDUAIS</t>
         </is>
       </c>
       <c r="E232" t="n">
-        <v>294.84</v>
+        <v>0</v>
       </c>
       <c r="F232" t="n">
         <v>0</v>
       </c>
       <c r="G232" t="n">
-        <v>0</v>
+        <v>951200</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>951200</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>ATENCAO</t>
         </is>
       </c>
     </row>
@@ -9257,31 +9257,31 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>CONVENIOS COM A UNIAO E SUAS ENTIDADES - EXCETO EMENDAS INDIVIDUAIS E DE BANCADA</t>
+          <t>RECURSOS ORDINARIOS - RECURSOS NAO VINCULADOS DE IMPOSTOS</t>
         </is>
       </c>
       <c r="E233" t="n">
-        <v>472782.68</v>
+        <v>294.84</v>
       </c>
       <c r="F233" t="n">
-        <v>1088545.86</v>
+        <v>0</v>
       </c>
       <c r="G233" t="n">
-        <v>1057904</v>
+        <v>0</v>
       </c>
       <c r="H233" t="n">
-        <v>1057904</v>
+        <v>0</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -9295,31 +9295,31 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>ALIENACAO DE BENS DE ENTIDADES ESTADUAIS</t>
+          <t>CONVENIOS COM A UNIAO E SUAS ENTIDADES - EXCETO EMENDAS INDIVIDUAIS E DE BANCADA</t>
         </is>
       </c>
       <c r="E234" t="n">
-        <v>1606187</v>
+        <v>472782.68</v>
       </c>
       <c r="F234" t="n">
-        <v>0</v>
+        <v>1088545.86</v>
       </c>
       <c r="G234" t="n">
-        <v>275000</v>
+        <v>1057904</v>
       </c>
       <c r="H234" t="n">
-        <v>300000</v>
+        <v>1057904</v>
       </c>
       <c r="I234" t="n">
-        <v>300000</v>
+        <v>0</v>
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -9333,27 +9333,27 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>RECURSOS DIRETAMENTE ARRECADADOS</t>
+          <t>ALIENACAO DE BENS DE ENTIDADES ESTADUAIS</t>
         </is>
       </c>
       <c r="E235" t="n">
-        <v>19870534.85</v>
+        <v>1606187</v>
       </c>
       <c r="F235" t="n">
-        <v>18564570.49</v>
+        <v>0</v>
       </c>
       <c r="G235" t="n">
-        <v>20325211.98</v>
+        <v>275000</v>
       </c>
       <c r="H235" t="n">
-        <v>20618556</v>
+        <v>300000</v>
       </c>
       <c r="I235" t="n">
-        <v>19613469</v>
+        <v>300000</v>
       </c>
       <c r="J235" t="inlineStr">
         <is>
@@ -9371,27 +9371,27 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>TAXA DE EXPEDIENTE - ADMINISTRACAO INDIRETA</t>
+          <t>RECURSOS DIRETAMENTE ARRECADADOS</t>
         </is>
       </c>
       <c r="E236" t="n">
-        <v>50018115.71</v>
+        <v>19870534.85</v>
       </c>
       <c r="F236" t="n">
-        <v>59751862.93</v>
+        <v>18564570.49</v>
       </c>
       <c r="G236" t="n">
-        <v>52629787.39</v>
+        <v>20325211.98</v>
       </c>
       <c r="H236" t="n">
-        <v>51898802</v>
+        <v>20618556</v>
       </c>
       <c r="I236" t="n">
-        <v>63127843</v>
+        <v>19613469</v>
       </c>
       <c r="J236" t="inlineStr">
         <is>
@@ -9409,27 +9409,27 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>RECURSOS RECEBIDOS POR DANOS ADVINDOS DE DESASTRES SOCIOAMBIENTAIS</t>
+          <t>TAXA DE EXPEDIENTE - ADMINISTRACAO INDIRETA</t>
         </is>
       </c>
       <c r="E237" t="n">
-        <v>0</v>
+        <v>50018115.71</v>
       </c>
       <c r="F237" t="n">
-        <v>0</v>
+        <v>59751862.93</v>
       </c>
       <c r="G237" t="n">
-        <v>0</v>
+        <v>52629787.39</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>51898802</v>
       </c>
       <c r="I237" t="n">
-        <v>0</v>
+        <v>63127843</v>
       </c>
       <c r="J237" t="inlineStr">
         <is>
@@ -9439,19 +9439,19 @@
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>2421</v>
+        <v>2371</v>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>IDENE</t>
+          <t>IMA</t>
         </is>
       </c>
       <c r="C238" t="n">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>CONVENIOS COM A UNIAO E SUAS ENTIDADES - EMENDAS INDIVIDUAIS</t>
+          <t>RECURSOS RECEBIDOS POR DANOS ADVINDOS DE DESASTRES SOCIOAMBIENTAIS</t>
         </is>
       </c>
       <c r="E238" t="n">
@@ -9461,17 +9461,17 @@
         <v>0</v>
       </c>
       <c r="G238" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="H238" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t>ATENCAO</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -9485,11 +9485,11 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>TERMOS DE AJUSTAMENTO, DOACOES CONTROLADAS POR INSTRUMENTO JURIDICO E CONGENERES</t>
+          <t>CONVENIOS COM A UNIAO E SUAS ENTIDADES - EMENDAS INDIVIDUAIS</t>
         </is>
       </c>
       <c r="E239" t="n">
@@ -9499,10 +9499,10 @@
         <v>0</v>
       </c>
       <c r="G239" t="n">
-        <v>13356000</v>
+        <v>2000</v>
       </c>
       <c r="H239" t="n">
-        <v>13356000</v>
+        <v>2000</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
@@ -9523,31 +9523,31 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>CONVENIOS COM A UNIAO E SUAS ENTIDADES - EXCETO EMENDAS INDIVIDUAIS E DE BANCADA</t>
+          <t>TERMOS DE AJUSTAMENTO, DOACOES CONTROLADAS POR INSTRUMENTO JURIDICO E CONGENERES</t>
         </is>
       </c>
       <c r="E240" t="n">
-        <v>55103522.99</v>
+        <v>0</v>
       </c>
       <c r="F240" t="n">
-        <v>15131576.29</v>
+        <v>0</v>
       </c>
       <c r="G240" t="n">
-        <v>45060440</v>
+        <v>13356000</v>
       </c>
       <c r="H240" t="n">
-        <v>45060440</v>
+        <v>13356000</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>ATENCAO</t>
         </is>
       </c>
     </row>
@@ -9561,100 +9561,100 @@
         </is>
       </c>
       <c r="C241" t="n">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>TRANSFERENCIAS DO FNDE VINCULADAS A EDUCACAO - EXCETO EMENDAS INDIVIDUAIS E DE BANCADA</t>
+          <t>CONVENIOS COM A UNIAO E SUAS ENTIDADES - EXCETO EMENDAS INDIVIDUAIS E DE BANCADA</t>
         </is>
       </c>
       <c r="E241" t="n">
-        <v>0</v>
+        <v>55103522.99</v>
       </c>
       <c r="F241" t="n">
-        <v>0</v>
+        <v>15131576.29</v>
       </c>
       <c r="G241" t="n">
-        <v>0</v>
+        <v>45060440</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>45060440</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>2431</v>
+        <v>2421</v>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>AGENCIA RMBH</t>
+          <t>IDENE</t>
         </is>
       </c>
       <c r="C242" t="n">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>RECURSOS DIRETAMENTE ARRECADADOS</t>
+          <t>TRANSFERENCIAS DO FNDE VINCULADAS A EDUCACAO - EXCETO EMENDAS INDIVIDUAIS E DE BANCADA</t>
         </is>
       </c>
       <c r="E242" t="n">
-        <v>1089685.99</v>
+        <v>0</v>
       </c>
       <c r="F242" t="n">
-        <v>1416944.03</v>
+        <v>0</v>
       </c>
       <c r="G242" t="n">
-        <v>1079714.92</v>
+        <v>0</v>
       </c>
       <c r="H242" t="n">
-        <v>1100000</v>
+        <v>0</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>2441</v>
+        <v>2431</v>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>ARSAE -MG</t>
+          <t>AGENCIA RMBH</t>
         </is>
       </c>
       <c r="C243" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>OUTROS RECURSOS VINCULADOS</t>
+          <t>RECURSOS DIRETAMENTE ARRECADADOS</t>
         </is>
       </c>
       <c r="E243" t="n">
-        <v>40567195.18</v>
+        <v>1089685.99</v>
       </c>
       <c r="F243" t="n">
-        <v>43140215.23</v>
+        <v>1416944.03</v>
       </c>
       <c r="G243" t="n">
-        <v>44091705.02</v>
+        <v>1079714.92</v>
       </c>
       <c r="H243" t="n">
-        <v>44173673</v>
+        <v>1100000</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
@@ -9667,39 +9667,39 @@
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>2461</v>
+        <v>2441</v>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>ARMVA</t>
+          <t>ARSAE -MG</t>
         </is>
       </c>
       <c r="C244" t="n">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>CONVENIOS COM A UNIAO E SUAS ENTIDADES - EXCETO EMENDAS INDIVIDUAIS E DE BANCADA</t>
+          <t>OUTROS RECURSOS VINCULADOS</t>
         </is>
       </c>
       <c r="E244" t="n">
-        <v>0</v>
+        <v>40567195.18</v>
       </c>
       <c r="F244" t="n">
-        <v>0</v>
+        <v>43140215.23</v>
       </c>
       <c r="G244" t="n">
-        <v>3433022</v>
+        <v>44091705.02</v>
       </c>
       <c r="H244" t="n">
-        <v>3433022</v>
+        <v>44173673</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>ATENCAO</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -9713,69 +9713,69 @@
         </is>
       </c>
       <c r="C245" t="n">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>RECURSOS DIRETAMENTE ARRECADADOS</t>
+          <t>CONVENIOS COM A UNIAO E SUAS ENTIDADES - EXCETO EMENDAS INDIVIDUAIS E DE BANCADA</t>
         </is>
       </c>
       <c r="E245" t="n">
-        <v>69401.55</v>
+        <v>0</v>
       </c>
       <c r="F245" t="n">
-        <v>43657.25</v>
+        <v>0</v>
       </c>
       <c r="G245" t="n">
-        <v>56713.4</v>
+        <v>3433022</v>
       </c>
       <c r="H245" t="n">
-        <v>60000</v>
+        <v>3433022</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>ATENCAO</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>3041</v>
+        <v>2461</v>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>EMATER</t>
+          <t>ARMVA</t>
         </is>
       </c>
       <c r="C246" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>CONVENIOS COM A UNIAO E SUAS ENTIDADES - EMENDAS INDIVIDUAIS</t>
+          <t>RECURSOS DIRETAMENTE ARRECADADOS</t>
         </is>
       </c>
       <c r="E246" t="n">
-        <v>0</v>
+        <v>69401.55</v>
       </c>
       <c r="F246" t="n">
-        <v>2403424.93</v>
+        <v>43657.25</v>
       </c>
       <c r="G246" t="n">
-        <v>1126387</v>
+        <v>56713.4</v>
       </c>
       <c r="H246" t="n">
-        <v>1126387</v>
+        <v>60000</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
       </c>
       <c r="J246" t="inlineStr">
         <is>
-          <t>ATENCAO</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -9789,24 +9789,24 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>CONVENIOS COM A UNIAO E SUAS ENTIDADES - EMENDAS DE BANCADA</t>
+          <t>CONVENIOS COM A UNIAO E SUAS ENTIDADES - EMENDAS INDIVIDUAIS</t>
         </is>
       </c>
       <c r="E247" t="n">
         <v>0</v>
       </c>
       <c r="F247" t="n">
-        <v>8541799.5</v>
+        <v>2403424.93</v>
       </c>
       <c r="G247" t="n">
-        <v>8702558</v>
+        <v>1126387</v>
       </c>
       <c r="H247" t="n">
-        <v>8702558</v>
+        <v>1126387</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
@@ -9827,24 +9827,24 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>CONVENIOS COM A UNIAO E SUAS ENTIDADES - EXCETO EMENDAS INDIVIDUAIS E DE BANCADA</t>
+          <t>CONVENIOS COM A UNIAO E SUAS ENTIDADES - EMENDAS DE BANCADA</t>
         </is>
       </c>
       <c r="E248" t="n">
         <v>0</v>
       </c>
       <c r="F248" t="n">
-        <v>12605394.42</v>
+        <v>8541799.5</v>
       </c>
       <c r="G248" t="n">
-        <v>0</v>
+        <v>8702558</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>8702558</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
@@ -9865,31 +9865,31 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>RECURSOS DIRETAMENTE ARRECADADOS</t>
+          <t>CONVENIOS COM A UNIAO E SUAS ENTIDADES - EXCETO EMENDAS INDIVIDUAIS E DE BANCADA</t>
         </is>
       </c>
       <c r="E249" t="n">
-        <v>30580404.31</v>
+        <v>0</v>
       </c>
       <c r="F249" t="n">
-        <v>60526558.87</v>
+        <v>12605394.42</v>
       </c>
       <c r="G249" t="n">
-        <v>50000000</v>
+        <v>0</v>
       </c>
       <c r="H249" t="n">
-        <v>50000000</v>
+        <v>0</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>ATENCAO</t>
         </is>
       </c>
     </row>
@@ -9903,69 +9903,69 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>ACORDOS E AJUSTES DE COOPERACAO MUTUA COM OS MUNICIPIOS</t>
+          <t>RECURSOS DIRETAMENTE ARRECADADOS</t>
         </is>
       </c>
       <c r="E250" t="n">
-        <v>96867957.62</v>
+        <v>30580404.31</v>
       </c>
       <c r="F250" t="n">
-        <v>102967211.61</v>
+        <v>60526558.87</v>
       </c>
       <c r="G250" t="n">
-        <v>100110000</v>
+        <v>50000000</v>
       </c>
       <c r="H250" t="n">
-        <v>100110000</v>
+        <v>50000000</v>
       </c>
       <c r="I250" t="n">
-        <v>0</v>
+        <v>52700000</v>
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>3051</v>
+        <v>3041</v>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>EPAMIG</t>
+          <t>EMATER</t>
         </is>
       </c>
       <c r="C251" t="n">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>CONVENIOS COM A UNIAO E SUAS ENTIDADES - EMENDAS INDIVIDUAIS</t>
+          <t>ACORDOS E AJUSTES DE COOPERACAO MUTUA COM OS MUNICIPIOS</t>
         </is>
       </c>
       <c r="E251" t="n">
-        <v>0</v>
+        <v>96867957.62</v>
       </c>
       <c r="F251" t="n">
-        <v>0</v>
+        <v>102967211.61</v>
       </c>
       <c r="G251" t="n">
-        <v>479500</v>
+        <v>100110000</v>
       </c>
       <c r="H251" t="n">
-        <v>479500</v>
+        <v>100110000</v>
       </c>
       <c r="I251" t="n">
-        <v>0</v>
+        <v>105800000</v>
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>ATENCAO</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -9979,11 +9979,11 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>CONVENIOS COM A UNIAO E SUAS ENTIDADES - EXCETO EMENDAS INDIVIDUAIS E DE BANCADA</t>
+          <t>CONVENIOS COM A UNIAO E SUAS ENTIDADES - EMENDAS INDIVIDUAIS</t>
         </is>
       </c>
       <c r="E252" t="n">
@@ -9993,10 +9993,10 @@
         <v>0</v>
       </c>
       <c r="G252" t="n">
-        <v>5685197</v>
+        <v>479500</v>
       </c>
       <c r="H252" t="n">
-        <v>5685197</v>
+        <v>479500</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
@@ -10017,24 +10017,24 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>ALIENACAO DE BENS DE ENTIDADES ESTADUAIS</t>
+          <t>CONVENIOS COM A UNIAO E SUAS ENTIDADES - EXCETO EMENDAS INDIVIDUAIS E DE BANCADA</t>
         </is>
       </c>
       <c r="E253" t="n">
-        <v>402154.81</v>
+        <v>0</v>
       </c>
       <c r="F253" t="n">
         <v>0</v>
       </c>
       <c r="G253" t="n">
-        <v>2044350</v>
+        <v>5685197</v>
       </c>
       <c r="H253" t="n">
-        <v>2230200</v>
+        <v>5685197</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
@@ -10055,31 +10055,31 @@
         </is>
       </c>
       <c r="C254" t="n">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>RECURSOS DIRETAMENTE ARRECADADOS</t>
+          <t>ALIENACAO DE BENS DE ENTIDADES ESTADUAIS</t>
         </is>
       </c>
       <c r="E254" t="n">
-        <v>14027709</v>
+        <v>402154.81</v>
       </c>
       <c r="F254" t="n">
-        <v>15126991.54</v>
+        <v>0</v>
       </c>
       <c r="G254" t="n">
-        <v>14899927.84</v>
+        <v>2044350</v>
       </c>
       <c r="H254" t="n">
-        <v>15526992</v>
+        <v>2230200</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>ATENCAO</t>
         </is>
       </c>
     </row>
@@ -10093,24 +10093,24 @@
         </is>
       </c>
       <c r="C255" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>CONVENIOS COM OS MUNICIPIOS</t>
+          <t>RECURSOS DIRETAMENTE ARRECADADOS</t>
         </is>
       </c>
       <c r="E255" t="n">
-        <v>106200</v>
+        <v>14027709</v>
       </c>
       <c r="F255" t="n">
-        <v>108000</v>
+        <v>15126991.54</v>
       </c>
       <c r="G255" t="n">
-        <v>252000</v>
+        <v>14899927.84</v>
       </c>
       <c r="H255" t="n">
-        <v>252000</v>
+        <v>15526992</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
@@ -10123,32 +10123,32 @@
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>3151</v>
+        <v>3051</v>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>EMC</t>
+          <t>EPAMIG</t>
         </is>
       </c>
       <c r="C256" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>RECURSOS DIRETAMENTE ARRECADADOS</t>
+          <t>CONVENIOS COM OS MUNICIPIOS</t>
         </is>
       </c>
       <c r="E256" t="n">
-        <v>1409551.59</v>
+        <v>106200</v>
       </c>
       <c r="F256" t="n">
-        <v>1936035.59</v>
+        <v>108000</v>
       </c>
       <c r="G256" t="n">
-        <v>1129348.13</v>
+        <v>252000</v>
       </c>
       <c r="H256" t="n">
-        <v>1200000</v>
+        <v>252000</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
@@ -10161,39 +10161,39 @@
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>4031</v>
+        <v>3151</v>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>FEPJ</t>
+          <t>EMC</t>
         </is>
       </c>
       <c r="C257" t="n">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>CONVENIOS COM A UNIAO E SUAS ENTIDADES - EXCETO EMENDAS INDIVIDUAIS E DE BANCADA</t>
+          <t>RECURSOS DIRETAMENTE ARRECADADOS</t>
         </is>
       </c>
       <c r="E257" t="n">
-        <v>39522.63</v>
+        <v>1409551.59</v>
       </c>
       <c r="F257" t="n">
-        <v>25005.99</v>
+        <v>1936035.59</v>
       </c>
       <c r="G257" t="n">
-        <v>0</v>
+        <v>1129348.13</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>1200000</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>ATENCAO</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -10207,31 +10207,31 @@
         </is>
       </c>
       <c r="C258" t="n">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>ALIENACAO DE BENS DE ENTIDADES ESTADUAIS</t>
+          <t>CONVENIOS COM A UNIAO E SUAS ENTIDADES - EXCETO EMENDAS INDIVIDUAIS E DE BANCADA</t>
         </is>
       </c>
       <c r="E258" t="n">
-        <v>462141</v>
+        <v>39522.63</v>
       </c>
       <c r="F258" t="n">
-        <v>0</v>
+        <v>25005.99</v>
       </c>
       <c r="G258" t="n">
-        <v>351360</v>
+        <v>0</v>
       </c>
       <c r="H258" t="n">
-        <v>351360</v>
+        <v>0</v>
       </c>
       <c r="I258" t="n">
-        <v>0</v>
+        <v>7089</v>
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>ATENCAO</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -10245,27 +10245,27 @@
         </is>
       </c>
       <c r="C259" t="n">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>RECURSOS DIRETAMENTE ARRECADADOS</t>
+          <t>ALIENACAO DE BENS DE ENTIDADES ESTADUAIS</t>
         </is>
       </c>
       <c r="E259" t="n">
-        <v>1332505262.74</v>
+        <v>462141</v>
       </c>
       <c r="F259" t="n">
-        <v>1407614465.33</v>
+        <v>0</v>
       </c>
       <c r="G259" t="n">
-        <v>1415921294</v>
+        <v>351360</v>
       </c>
       <c r="H259" t="n">
-        <v>1415921294</v>
+        <v>351360</v>
       </c>
       <c r="I259" t="n">
-        <v>1382136</v>
+        <v>2841228</v>
       </c>
       <c r="J259" t="inlineStr">
         <is>
@@ -10283,31 +10283,31 @@
         </is>
       </c>
       <c r="C260" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
+          <t>RECURSOS DIRETAMENTE ARRECADADOS</t>
         </is>
       </c>
       <c r="E260" t="n">
-        <v>59787386.57</v>
+        <v>1332505262.74</v>
       </c>
       <c r="F260" t="n">
-        <v>71088611.8</v>
+        <v>1407614465.33</v>
       </c>
       <c r="G260" t="n">
-        <v>67798609</v>
+        <v>1415921294</v>
       </c>
       <c r="H260" t="n">
-        <v>67798609</v>
+        <v>1415921294</v>
       </c>
       <c r="I260" t="n">
-        <v>0</v>
+        <v>1649696523</v>
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -10321,31 +10321,31 @@
         </is>
       </c>
       <c r="C261" t="n">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>CONVENIOS COM OS MUNICIPIOS</t>
+          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
         </is>
       </c>
       <c r="E261" t="n">
-        <v>393050.02</v>
+        <v>59787386.57</v>
       </c>
       <c r="F261" t="n">
-        <v>604955.01</v>
+        <v>71088611.8</v>
       </c>
       <c r="G261" t="n">
-        <v>964009</v>
+        <v>67798609</v>
       </c>
       <c r="H261" t="n">
-        <v>964009</v>
+        <v>67798609</v>
       </c>
       <c r="I261" t="n">
-        <v>0</v>
+        <v>78687569</v>
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -10359,69 +10359,69 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>TAXA DE FISCALIZACAO JUDICIARIA E TAXAS E MULTAS JUDICIAIS</t>
+          <t>CONVENIOS COM OS MUNICIPIOS</t>
         </is>
       </c>
       <c r="E262" t="n">
-        <v>1798303963.54</v>
+        <v>393050.02</v>
       </c>
       <c r="F262" t="n">
-        <v>2015079324.12</v>
+        <v>604955.01</v>
       </c>
       <c r="G262" t="n">
-        <v>2043359206</v>
+        <v>964009</v>
       </c>
       <c r="H262" t="n">
-        <v>2043359206</v>
+        <v>964009</v>
       </c>
       <c r="I262" t="n">
-        <v>0</v>
+        <v>907089</v>
       </c>
       <c r="J262" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>4091</v>
+        <v>4031</v>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>FIA</t>
+          <t>FEPJ</t>
         </is>
       </c>
       <c r="C263" t="n">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>DOACOES DE PESSOAS, DE INSTITUICOES PRIVADAS OU DO EXTERIOR A ORGAO E ENTIDADES DO ESTADO</t>
+          <t>TAXA DE FISCALIZACAO JUDICIARIA E TAXAS E MULTAS JUDICIAIS</t>
         </is>
       </c>
       <c r="E263" t="n">
-        <v>2134299.86</v>
+        <v>1798303963.54</v>
       </c>
       <c r="F263" t="n">
-        <v>377557.57</v>
+        <v>2015079324.12</v>
       </c>
       <c r="G263" t="n">
-        <v>4252500.41</v>
+        <v>2043359206</v>
       </c>
       <c r="H263" t="n">
-        <v>4639000</v>
+        <v>2043359206</v>
       </c>
       <c r="I263" t="n">
-        <v>0</v>
+        <v>2295540870</v>
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -10435,41 +10435,41 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>RECURSOS DIRETAMENTE ARRECADADOS</t>
+          <t>DOACOES DE PESSOAS, DE INSTITUICOES PRIVADAS OU DO EXTERIOR A ORGAO E ENTIDADES DO ESTADO</t>
         </is>
       </c>
       <c r="E264" t="n">
-        <v>57392.34</v>
+        <v>2134299.86</v>
       </c>
       <c r="F264" t="n">
-        <v>87389.55</v>
+        <v>377557.57</v>
       </c>
       <c r="G264" t="n">
-        <v>0</v>
+        <v>4252500.41</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>4639000</v>
       </c>
       <c r="I264" t="n">
-        <v>0</v>
+        <v>415314</v>
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>ATENCAO</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>4101</v>
+        <v>4091</v>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>FEH</t>
+          <t>FIA</t>
         </is>
       </c>
       <c r="C265" t="n">
@@ -10481,33 +10481,33 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>39333479.45</v>
+        <v>57392.34</v>
       </c>
       <c r="F265" t="n">
-        <v>39593906.51</v>
+        <v>87389.55</v>
       </c>
       <c r="G265" t="n">
-        <v>41266725.23</v>
+        <v>0</v>
       </c>
       <c r="H265" t="n">
-        <v>41730000</v>
+        <v>0</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>ATENCAO</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>4111</v>
+        <v>4101</v>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>FUNDESE</t>
+          <t>FEH</t>
         </is>
       </c>
       <c r="C266" t="n">
@@ -10519,23 +10519,23 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>787603.41</v>
+        <v>39333479.45</v>
       </c>
       <c r="F266" t="n">
-        <v>540209.08</v>
+        <v>39593906.51</v>
       </c>
       <c r="G266" t="n">
-        <v>1008727.45</v>
+        <v>41266725.23</v>
       </c>
       <c r="H266" t="n">
-        <v>1100000</v>
+        <v>41730000</v>
       </c>
       <c r="I266" t="n">
-        <v>1100000</v>
+        <v>0</v>
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -10549,103 +10549,103 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
+          <t>RECURSOS DIRETAMENTE ARRECADADOS</t>
         </is>
       </c>
       <c r="E267" t="n">
-        <v>68487.25</v>
+        <v>787603.41</v>
       </c>
       <c r="F267" t="n">
-        <v>46974.74</v>
+        <v>540209.08</v>
       </c>
       <c r="G267" t="n">
-        <v>100867.62</v>
+        <v>1008727.45</v>
       </c>
       <c r="H267" t="n">
-        <v>110000</v>
+        <v>1100000</v>
       </c>
       <c r="I267" t="n">
-        <v>200000</v>
+        <v>1100000</v>
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>4121</v>
+        <v>4111</v>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>FUNDHAB</t>
+          <t>FUNDESE</t>
         </is>
       </c>
       <c r="C268" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>RECURSOS DIRETAMENTE ARRECADADOS</t>
+          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
         </is>
       </c>
       <c r="E268" t="n">
-        <v>25633589.28</v>
+        <v>68487.25</v>
       </c>
       <c r="F268" t="n">
-        <v>24621306.04</v>
+        <v>46974.74</v>
       </c>
       <c r="G268" t="n">
-        <v>18000000</v>
+        <v>100867.62</v>
       </c>
       <c r="H268" t="n">
-        <v>18000000</v>
+        <v>110000</v>
       </c>
       <c r="I268" t="n">
-        <v>18000000</v>
+        <v>200000</v>
       </c>
       <c r="J268" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>VALOR DISCREPANTE</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>4141</v>
+        <v>4121</v>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>FPE</t>
+          <t>FUNDHAB</t>
         </is>
       </c>
       <c r="C269" t="n">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>MULTAS PECUNIARIAS E JUROS DE MORA FIXADOS EM SENTENCAS JUDICIAIS</t>
+          <t>RECURSOS DIRETAMENTE ARRECADADOS</t>
         </is>
       </c>
       <c r="E269" t="n">
-        <v>4933094.88</v>
+        <v>25633589.28</v>
       </c>
       <c r="F269" t="n">
-        <v>4851653.11</v>
+        <v>24621306.04</v>
       </c>
       <c r="G269" t="n">
-        <v>5426666.67</v>
+        <v>18000000</v>
       </c>
       <c r="H269" t="n">
-        <v>5920000</v>
+        <v>18000000</v>
       </c>
       <c r="I269" t="n">
-        <v>5919714</v>
+        <v>18000000</v>
       </c>
       <c r="J269" t="inlineStr">
         <is>
@@ -10663,31 +10663,31 @@
         </is>
       </c>
       <c r="C270" t="n">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>TRANSFERENCIAS DA UNIAO POR MEIO DE PORTARIA - EXCETO EMENDAS INDIVIDUAIS E DE BANCADA</t>
+          <t>MULTAS PECUNIARIAS E JUROS DE MORA FIXADOS EM SENTENCAS JUDICIAIS</t>
         </is>
       </c>
       <c r="E270" t="n">
-        <v>11095441.94</v>
+        <v>4933094.88</v>
       </c>
       <c r="F270" t="n">
-        <v>9563847.25</v>
+        <v>4851653.11</v>
       </c>
       <c r="G270" t="n">
-        <v>9719531</v>
+        <v>5426666.67</v>
       </c>
       <c r="H270" t="n">
-        <v>9719531</v>
+        <v>5920000</v>
       </c>
       <c r="I270" t="n">
-        <v>0</v>
+        <v>5919714</v>
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -10701,31 +10701,31 @@
         </is>
       </c>
       <c r="C271" t="n">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>RECURSOS DIRETAMENTE ARRECADADOS</t>
+          <t>TRANSFERENCIAS DA UNIAO POR MEIO DE PORTARIA - EXCETO EMENDAS INDIVIDUAIS E DE BANCADA</t>
         </is>
       </c>
       <c r="E271" t="n">
-        <v>0</v>
+        <v>11095441.94</v>
       </c>
       <c r="F271" t="n">
-        <v>0</v>
+        <v>9563847.25</v>
       </c>
       <c r="G271" t="n">
-        <v>0</v>
+        <v>9719531</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>9719531</v>
       </c>
       <c r="I271" t="n">
-        <v>8027237</v>
+        <v>0</v>
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -10739,11 +10739,11 @@
         </is>
       </c>
       <c r="C272" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
+          <t>RECURSOS DIRETAMENTE ARRECADADOS</t>
         </is>
       </c>
       <c r="E272" t="n">
@@ -10759,7 +10759,7 @@
         <v>0</v>
       </c>
       <c r="I272" t="n">
-        <v>61000</v>
+        <v>8027237</v>
       </c>
       <c r="J272" t="inlineStr">
         <is>
@@ -10769,23 +10769,23 @@
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>4171</v>
+        <v>4141</v>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>FUNDERUR</t>
+          <t>FPE</t>
         </is>
       </c>
       <c r="C273" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>RECURSOS DIRETAMENTE ARRECADADOS</t>
+          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
         </is>
       </c>
       <c r="E273" t="n">
-        <v>34894.36</v>
+        <v>0</v>
       </c>
       <c r="F273" t="n">
         <v>0</v>
@@ -10797,7 +10797,7 @@
         <v>0</v>
       </c>
       <c r="I273" t="n">
-        <v>0</v>
+        <v>61000</v>
       </c>
       <c r="J273" t="inlineStr">
         <is>
@@ -10807,39 +10807,39 @@
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>4251</v>
+        <v>4171</v>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>FEAS</t>
+          <t>FUNDERUR</t>
         </is>
       </c>
       <c r="C274" t="n">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>TRANSFERENCIAS DA UNIAO VINCULADAS A ASSISTENCIA SOCIAL - EMENDAS INDIVIDUAIS</t>
+          <t>RECURSOS DIRETAMENTE ARRECADADOS</t>
         </is>
       </c>
       <c r="E274" t="n">
-        <v>0</v>
+        <v>34894.36</v>
       </c>
       <c r="F274" t="n">
         <v>0</v>
       </c>
       <c r="G274" t="n">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="H274" t="n">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="I274" t="n">
         <v>0</v>
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t>ATENCAO</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -10853,11 +10853,11 @@
         </is>
       </c>
       <c r="C275" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>TRANSFERENCIAS DA UNIAO VINCULADAS A ASSISTENCIA SOCIAL - EMENDAS DE BANCADA</t>
+          <t>TRANSFERENCIAS DA UNIAO VINCULADAS A ASSISTENCIA SOCIAL - EMENDAS INDIVIDUAIS</t>
         </is>
       </c>
       <c r="E275" t="n">
@@ -10867,10 +10867,10 @@
         <v>0</v>
       </c>
       <c r="G275" t="n">
-        <v>2000</v>
+        <v>100000</v>
       </c>
       <c r="H275" t="n">
-        <v>2000</v>
+        <v>100000</v>
       </c>
       <c r="I275" t="n">
         <v>0</v>
@@ -10891,69 +10891,69 @@
         </is>
       </c>
       <c r="C276" t="n">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>TRANSFERENCIAS DA UNIAO VINCULADAS A ASSISTENCIA SOCIAL - EXCETO EMENDAS INDIVIDUAIS E DE BANCADA</t>
+          <t>TRANSFERENCIAS DA UNIAO VINCULADAS A ASSISTENCIA SOCIAL - EMENDAS DE BANCADA</t>
         </is>
       </c>
       <c r="E276" t="n">
-        <v>4101670.99</v>
+        <v>0</v>
       </c>
       <c r="F276" t="n">
-        <v>3883783.23</v>
+        <v>0</v>
       </c>
       <c r="G276" t="n">
-        <v>8854586</v>
+        <v>2000</v>
       </c>
       <c r="H276" t="n">
-        <v>8854586</v>
+        <v>2000</v>
       </c>
       <c r="I276" t="n">
         <v>0</v>
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>ATENCAO</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>4291</v>
+        <v>4251</v>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>FES</t>
+          <t>FEAS</t>
         </is>
       </c>
       <c r="C277" t="n">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>CONVENIOS COM A UNIAO E SUAS ENTIDADES - EMENDAS INDIVIDUAIS</t>
+          <t>TRANSFERENCIAS DA UNIAO VINCULADAS A ASSISTENCIA SOCIAL - EXCETO EMENDAS INDIVIDUAIS E DE BANCADA</t>
         </is>
       </c>
       <c r="E277" t="n">
-        <v>0</v>
+        <v>4101670.99</v>
       </c>
       <c r="F277" t="n">
-        <v>0</v>
+        <v>3883783.23</v>
       </c>
       <c r="G277" t="n">
-        <v>0</v>
+        <v>8854586</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>8854586</v>
       </c>
       <c r="I277" t="n">
         <v>0</v>
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -10967,31 +10967,31 @@
         </is>
       </c>
       <c r="C278" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>RECURSOS ORDINARIOS - RECURSOS NAO VINCULADOS DE IMPOSTOS</t>
+          <t>CONVENIOS COM A UNIAO E SUAS ENTIDADES - EMENDAS INDIVIDUAIS</t>
         </is>
       </c>
       <c r="E278" t="n">
-        <v>33662.32</v>
+        <v>0</v>
       </c>
       <c r="F278" t="n">
-        <v>29841.92</v>
+        <v>0</v>
       </c>
       <c r="G278" t="n">
-        <v>7092222.25</v>
+        <v>0</v>
       </c>
       <c r="H278" t="n">
-        <v>7732896</v>
+        <v>0</v>
       </c>
       <c r="I278" t="n">
         <v>0</v>
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -11005,31 +11005,31 @@
         </is>
       </c>
       <c r="C279" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>CONVENIOS COM A UNIAO E SUAS ENTIDADES - EXCETO EMENDAS INDIVIDUAIS E DE BANCADA</t>
+          <t>RECURSOS ORDINARIOS - RECURSOS NAO VINCULADOS DE IMPOSTOS</t>
         </is>
       </c>
       <c r="E279" t="n">
-        <v>4799349.48</v>
+        <v>33662.32</v>
       </c>
       <c r="F279" t="n">
-        <v>729648.88</v>
+        <v>29841.92</v>
       </c>
       <c r="G279" t="n">
-        <v>1846945</v>
+        <v>7092222.25</v>
       </c>
       <c r="H279" t="n">
-        <v>1846945</v>
+        <v>7732896</v>
       </c>
       <c r="I279" t="n">
-        <v>0</v>
+        <v>35000</v>
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -11043,24 +11043,24 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>TRANSFERENCIAS DA UNIAO VINCULADAS A SAUDE</t>
+          <t>CONVENIOS COM A UNIAO E SUAS ENTIDADES - EXCETO EMENDAS INDIVIDUAIS E DE BANCADA</t>
         </is>
       </c>
       <c r="E280" t="n">
-        <v>28556832.68</v>
+        <v>4799349.48</v>
       </c>
       <c r="F280" t="n">
-        <v>1872650.85</v>
+        <v>729648.88</v>
       </c>
       <c r="G280" t="n">
-        <v>2340568.86</v>
+        <v>1846945</v>
       </c>
       <c r="H280" t="n">
-        <v>2501000</v>
+        <v>1846945</v>
       </c>
       <c r="I280" t="n">
         <v>0</v>
@@ -11081,24 +11081,24 @@
         </is>
       </c>
       <c r="C281" t="n">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>TRANSFERENCIAS DA UNIAO POR MEIO DE PORTARIA - EXCETO EMENDAS INDIVIDUAIS E DE BANCADA</t>
+          <t>TRANSFERENCIAS DA UNIAO VINCULADAS A SAUDE</t>
         </is>
       </c>
       <c r="E281" t="n">
-        <v>109033481.33</v>
+        <v>28556832.68</v>
       </c>
       <c r="F281" t="n">
-        <v>100687286.87</v>
+        <v>1872650.85</v>
       </c>
       <c r="G281" t="n">
-        <v>72719660</v>
+        <v>2340568.86</v>
       </c>
       <c r="H281" t="n">
-        <v>72719660</v>
+        <v>2501000</v>
       </c>
       <c r="I281" t="n">
         <v>0</v>
@@ -11119,24 +11119,24 @@
         </is>
       </c>
       <c r="C282" t="n">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>RECURSOS DIRETAMENTE ARRECADADOS</t>
+          <t>TRANSFERENCIAS DA UNIAO POR MEIO DE PORTARIA - EXCETO EMENDAS INDIVIDUAIS E DE BANCADA</t>
         </is>
       </c>
       <c r="E282" t="n">
-        <v>31368873.57</v>
+        <v>109033481.33</v>
       </c>
       <c r="F282" t="n">
-        <v>18056126.68</v>
+        <v>100687286.87</v>
       </c>
       <c r="G282" t="n">
-        <v>21505708.23</v>
+        <v>72719660</v>
       </c>
       <c r="H282" t="n">
-        <v>22588635</v>
+        <v>72719660</v>
       </c>
       <c r="I282" t="n">
         <v>0</v>
@@ -11157,24 +11157,24 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>TRANSFERENCIAS DA UNIAO VINCULADAS A SAUDE - BLOCO MANUTENCAO - EMENDAS INDIVIDUAIS</t>
+          <t>RECURSOS DIRETAMENTE ARRECADADOS</t>
         </is>
       </c>
       <c r="E283" t="n">
-        <v>82495476.76000001</v>
+        <v>31368873.57</v>
       </c>
       <c r="F283" t="n">
-        <v>18670638.83</v>
+        <v>18056126.68</v>
       </c>
       <c r="G283" t="n">
-        <v>42477661</v>
+        <v>21505708.23</v>
       </c>
       <c r="H283" t="n">
-        <v>42477661</v>
+        <v>22588635</v>
       </c>
       <c r="I283" t="n">
         <v>0</v>
@@ -11195,24 +11195,24 @@
         </is>
       </c>
       <c r="C284" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>TRANSFERENCIAS DA UNIAO VINCULADAS A SAUDE - BLOCO MANUTENCAO - EMENDAS DE BANCADA</t>
+          <t>TRANSFERENCIAS DA UNIAO VINCULADAS A SAUDE - BLOCO MANUTENCAO - EMENDAS INDIVIDUAIS</t>
         </is>
       </c>
       <c r="E284" t="n">
-        <v>19918780.03</v>
+        <v>82495476.76000001</v>
       </c>
       <c r="F284" t="n">
-        <v>3475252.85</v>
+        <v>18670638.83</v>
       </c>
       <c r="G284" t="n">
-        <v>10188627</v>
+        <v>42477661</v>
       </c>
       <c r="H284" t="n">
-        <v>10188627</v>
+        <v>42477661</v>
       </c>
       <c r="I284" t="n">
         <v>0</v>
@@ -11233,24 +11233,24 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>TRANSFERENCIAS DA UNIAO VINCULADAS A SAUDE - BLOCO ESTRUTURACAO - EMENDAS INDIVIDUAIS</t>
+          <t>TRANSFERENCIAS DA UNIAO VINCULADAS A SAUDE - BLOCO MANUTENCAO - EMENDAS DE BANCADA</t>
         </is>
       </c>
       <c r="E285" t="n">
-        <v>135116.14</v>
+        <v>19918780.03</v>
       </c>
       <c r="F285" t="n">
-        <v>121389.85</v>
+        <v>3475252.85</v>
       </c>
       <c r="G285" t="n">
-        <v>1511346</v>
+        <v>10188627</v>
       </c>
       <c r="H285" t="n">
-        <v>1511346</v>
+        <v>10188627</v>
       </c>
       <c r="I285" t="n">
         <v>0</v>
@@ -11271,31 +11271,31 @@
         </is>
       </c>
       <c r="C286" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>TRANSFERENCIAS DA UNIAO VINCULADAS A SAUDE - BLOCO ESTRUTURACAO - EMENDAS DE BANCADA</t>
+          <t>TRANSFERENCIAS DA UNIAO VINCULADAS A SAUDE - BLOCO ESTRUTURACAO - EMENDAS INDIVIDUAIS</t>
         </is>
       </c>
       <c r="E286" t="n">
-        <v>0</v>
+        <v>135116.14</v>
       </c>
       <c r="F286" t="n">
-        <v>0</v>
+        <v>121389.85</v>
       </c>
       <c r="G286" t="n">
-        <v>18655950</v>
+        <v>1511346</v>
       </c>
       <c r="H286" t="n">
-        <v>18655950</v>
+        <v>1511346</v>
       </c>
       <c r="I286" t="n">
         <v>0</v>
       </c>
       <c r="J286" t="inlineStr">
         <is>
-          <t>ATENCAO</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -11309,31 +11309,31 @@
         </is>
       </c>
       <c r="C287" t="n">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>TRANSFERENCIAS DA UNIAO VINCULADAS A SAUDE - BLOCO MANUTENCAO - EXCETO EMENDAS INDIV. E DE BANCADA</t>
+          <t>TRANSFERENCIAS DA UNIAO VINCULADAS A SAUDE - BLOCO ESTRUTURACAO - EMENDAS DE BANCADA</t>
         </is>
       </c>
       <c r="E287" t="n">
-        <v>602178448.73</v>
+        <v>0</v>
       </c>
       <c r="F287" t="n">
-        <v>729575086.1900001</v>
+        <v>0</v>
       </c>
       <c r="G287" t="n">
-        <v>570036170.14</v>
+        <v>18655950</v>
       </c>
       <c r="H287" t="n">
-        <v>570034780</v>
+        <v>18655950</v>
       </c>
       <c r="I287" t="n">
         <v>0</v>
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>ATENCAO</t>
         </is>
       </c>
     </row>
@@ -11347,24 +11347,24 @@
         </is>
       </c>
       <c r="C288" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>TRANSFERENCIAS DA UNIAO VINCULADAS A SAUDE - BLOCO ESTRUTURACAO - EXCETO EMENDAS INDIV. E DE BANCADA</t>
+          <t>TRANSFERENCIAS DA UNIAO VINCULADAS A SAUDE - BLOCO MANUTENCAO - EXCETO EMENDAS INDIV. E DE BANCADA</t>
         </is>
       </c>
       <c r="E288" t="n">
-        <v>474163.94</v>
+        <v>602178448.73</v>
       </c>
       <c r="F288" t="n">
-        <v>6359437.35</v>
+        <v>729575086.1900001</v>
       </c>
       <c r="G288" t="n">
-        <v>153951000</v>
+        <v>570036170.14</v>
       </c>
       <c r="H288" t="n">
-        <v>153951000</v>
+        <v>570034780</v>
       </c>
       <c r="I288" t="n">
         <v>0</v>
@@ -11385,49 +11385,49 @@
         </is>
       </c>
       <c r="C289" t="n">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>RECURSOS RECEBIDOS POR DANOS ADVINDOS DE DESASTRES SOCIOAMBIENTAIS</t>
+          <t>TRANSFERENCIAS DA UNIAO VINCULADAS A SAUDE - BLOCO ESTRUTURACAO - EXCETO EMENDAS INDIV. E DE BANCADA</t>
         </is>
       </c>
       <c r="E289" t="n">
-        <v>0</v>
+        <v>474163.94</v>
       </c>
       <c r="F289" t="n">
-        <v>0</v>
+        <v>6359437.35</v>
       </c>
       <c r="G289" t="n">
-        <v>0</v>
+        <v>153951000</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>153951000</v>
       </c>
       <c r="I289" t="n">
         <v>0</v>
       </c>
       <c r="J289" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>4331</v>
+        <v>4291</v>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>FDM</t>
+          <t>FES</t>
         </is>
       </c>
       <c r="C290" t="n">
-        <v>9</v>
+        <v>95</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>TERMOS DE AJUSTAMENTO, DOACOES CONTROLADAS POR INSTRUMENTO JURIDICO E CONGENERES</t>
+          <t>RECURSOS RECEBIDOS POR DANOS ADVINDOS DE DESASTRES SOCIOAMBIENTAIS</t>
         </is>
       </c>
       <c r="E290" t="n">
@@ -11461,62 +11461,62 @@
         </is>
       </c>
       <c r="C291" t="n">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>OUTROS RECURSOS VINCULADOS</t>
+          <t>TERMOS DE AJUSTAMENTO, DOACOES CONTROLADAS POR INSTRUMENTO JURIDICO E CONGENERES</t>
         </is>
       </c>
       <c r="E291" t="n">
-        <v>653201.86</v>
+        <v>0</v>
       </c>
       <c r="F291" t="n">
-        <v>2647909.82</v>
+        <v>0</v>
       </c>
       <c r="G291" t="n">
-        <v>3299636.63</v>
+        <v>0</v>
       </c>
       <c r="H291" t="n">
-        <v>3592436</v>
+        <v>0</v>
       </c>
       <c r="I291" t="n">
         <v>0</v>
       </c>
       <c r="J291" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>4341</v>
+        <v>4331</v>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>FHIDRO</t>
+          <t>FDM</t>
         </is>
       </c>
       <c r="C292" t="n">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
+          <t>OUTROS RECURSOS VINCULADOS</t>
         </is>
       </c>
       <c r="E292" t="n">
-        <v>1066314.9</v>
+        <v>653201.86</v>
       </c>
       <c r="F292" t="n">
-        <v>123999.73</v>
+        <v>2647909.82</v>
       </c>
       <c r="G292" t="n">
-        <v>1375000</v>
+        <v>3299636.63</v>
       </c>
       <c r="H292" t="n">
-        <v>1500000</v>
+        <v>3592436</v>
       </c>
       <c r="I292" t="n">
         <v>0</v>
@@ -11529,32 +11529,32 @@
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>4381</v>
+        <v>4341</v>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>FUNTRANS</t>
+          <t>FHIDRO</t>
         </is>
       </c>
       <c r="C293" t="n">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>TAXA DE LICENCIAMENTO DA FAIXA DE DOMINIO DAS RODOVIAS</t>
+          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
         </is>
       </c>
       <c r="E293" t="n">
-        <v>4524222.65</v>
+        <v>1066314.9</v>
       </c>
       <c r="F293" t="n">
-        <v>6690432.24</v>
+        <v>123999.73</v>
       </c>
       <c r="G293" t="n">
-        <v>6693703.84</v>
+        <v>1375000</v>
       </c>
       <c r="H293" t="n">
-        <v>3871712</v>
+        <v>1500000</v>
       </c>
       <c r="I293" t="n">
         <v>0</v>
@@ -11575,31 +11575,31 @@
         </is>
       </c>
       <c r="C294" t="n">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>RECURSOS DIRETAMENTE ARRECADADOS</t>
+          <t>TAXA DE LICENCIAMENTO DA FAIXA DE DOMINIO DAS RODOVIAS</t>
         </is>
       </c>
       <c r="E294" t="n">
-        <v>402414122.98</v>
+        <v>4524222.65</v>
       </c>
       <c r="F294" t="n">
-        <v>266230336.06</v>
+        <v>6690432.24</v>
       </c>
       <c r="G294" t="n">
-        <v>265956581.08</v>
+        <v>6693703.84</v>
       </c>
       <c r="H294" t="n">
-        <v>154145937</v>
+        <v>3871712</v>
       </c>
       <c r="I294" t="n">
-        <v>0</v>
+        <v>6682512</v>
       </c>
       <c r="J294" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -11613,107 +11613,107 @@
         </is>
       </c>
       <c r="C295" t="n">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>NOTIFICACAO DE INFRACAO DE TRANSITO FUNTRANS</t>
+          <t>RECURSOS DIRETAMENTE ARRECADADOS</t>
         </is>
       </c>
       <c r="E295" t="n">
-        <v>188893259.34</v>
+        <v>402414122.98</v>
       </c>
       <c r="F295" t="n">
-        <v>198337817.02</v>
+        <v>266230336.06</v>
       </c>
       <c r="G295" t="n">
-        <v>196164760.84</v>
+        <v>265956581.08</v>
       </c>
       <c r="H295" t="n">
-        <v>196165506</v>
+        <v>154145937</v>
       </c>
       <c r="I295" t="n">
-        <v>0</v>
+        <v>132349378</v>
       </c>
       <c r="J295" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>VALOR DISCREPANTE</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>4421</v>
+        <v>4381</v>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>FUNDIF</t>
+          <t>FUNTRANS</t>
         </is>
       </c>
       <c r="C296" t="n">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>MULTAS PECUNIARIAS E JUROS DE MORA FIXADOS EM SENTENCAS JUDICIAIS</t>
+          <t>NOTIFICACAO DE INFRACAO DE TRANSITO FUNTRANS</t>
         </is>
       </c>
       <c r="E296" t="n">
-        <v>4429797.62</v>
+        <v>188893259.34</v>
       </c>
       <c r="F296" t="n">
-        <v>8858863.109999999</v>
+        <v>198337817.02</v>
       </c>
       <c r="G296" t="n">
-        <v>4414741.31</v>
+        <v>196164760.84</v>
       </c>
       <c r="H296" t="n">
-        <v>4653000</v>
+        <v>196165506</v>
       </c>
       <c r="I296" t="n">
-        <v>0</v>
+        <v>220409702</v>
       </c>
       <c r="J296" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>4441</v>
+        <v>4421</v>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>FUNEMP</t>
+          <t>FUNDIF</t>
         </is>
       </c>
       <c r="C297" t="n">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>ALIENACAO DE BENS DE ENTIDADES ESTADUAIS</t>
+          <t>MULTAS PECUNIARIAS E JUROS DE MORA FIXADOS EM SENTENCAS JUDICIAIS</t>
         </is>
       </c>
       <c r="E297" t="n">
-        <v>0</v>
+        <v>4429797.62</v>
       </c>
       <c r="F297" t="n">
-        <v>0</v>
+        <v>8858863.109999999</v>
       </c>
       <c r="G297" t="n">
-        <v>50000</v>
+        <v>4414741.31</v>
       </c>
       <c r="H297" t="n">
-        <v>50000</v>
+        <v>4653000</v>
       </c>
       <c r="I297" t="n">
-        <v>0</v>
+        <v>9754685</v>
       </c>
       <c r="J297" t="inlineStr">
         <is>
-          <t>ATENCAO</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -11727,69 +11727,69 @@
         </is>
       </c>
       <c r="C298" t="n">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>RECURSOS DIRETAMENTE ARRECADADOS</t>
+          <t>ALIENACAO DE BENS DE ENTIDADES ESTADUAIS</t>
         </is>
       </c>
       <c r="E298" t="n">
-        <v>52558416.66</v>
+        <v>0</v>
       </c>
       <c r="F298" t="n">
-        <v>72442118.54000001</v>
+        <v>0</v>
       </c>
       <c r="G298" t="n">
-        <v>49967513.65</v>
+        <v>50000</v>
       </c>
       <c r="H298" t="n">
-        <v>49950000</v>
+        <v>50000</v>
       </c>
       <c r="I298" t="n">
         <v>0</v>
       </c>
       <c r="J298" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>ATENCAO</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>4451</v>
+        <v>4441</v>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>FEPDC</t>
+          <t>FUNEMP</t>
         </is>
       </c>
       <c r="C299" t="n">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>ALIENACAO DE BENS DE ENTIDADES ESTADUAIS</t>
+          <t>RECURSOS DIRETAMENTE ARRECADADOS</t>
         </is>
       </c>
       <c r="E299" t="n">
-        <v>0</v>
+        <v>52558416.66</v>
       </c>
       <c r="F299" t="n">
-        <v>0</v>
+        <v>72442118.54000001</v>
       </c>
       <c r="G299" t="n">
-        <v>50000</v>
+        <v>49967513.65</v>
       </c>
       <c r="H299" t="n">
-        <v>50000</v>
+        <v>49950000</v>
       </c>
       <c r="I299" t="n">
         <v>0</v>
       </c>
       <c r="J299" t="inlineStr">
         <is>
-          <t>ATENCAO</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -11803,62 +11803,62 @@
         </is>
       </c>
       <c r="C300" t="n">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>RECURSOS DIRETAMENTE ARRECADADOS</t>
+          <t>ALIENACAO DE BENS DE ENTIDADES ESTADUAIS</t>
         </is>
       </c>
       <c r="E300" t="n">
-        <v>79957493.48999999</v>
+        <v>0</v>
       </c>
       <c r="F300" t="n">
-        <v>65710976.64</v>
+        <v>0</v>
       </c>
       <c r="G300" t="n">
-        <v>44950000</v>
+        <v>50000</v>
       </c>
       <c r="H300" t="n">
-        <v>44950000</v>
+        <v>50000</v>
       </c>
       <c r="I300" t="n">
         <v>0</v>
       </c>
       <c r="J300" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>ATENCAO</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>4491</v>
+        <v>4451</v>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>FEC</t>
+          <t>FEPDC</t>
         </is>
       </c>
       <c r="C301" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>OUTROS RECURSOS VINCULADOS</t>
+          <t>RECURSOS DIRETAMENTE ARRECADADOS</t>
         </is>
       </c>
       <c r="E301" t="n">
-        <v>39945815.52</v>
+        <v>79957493.48999999</v>
       </c>
       <c r="F301" t="n">
-        <v>31290949.67</v>
+        <v>65710976.64</v>
       </c>
       <c r="G301" t="n">
-        <v>22369533.67</v>
+        <v>44950000</v>
       </c>
       <c r="H301" t="n">
-        <v>22452867</v>
+        <v>44950000</v>
       </c>
       <c r="I301" t="n">
         <v>0</v>
@@ -11871,73 +11871,73 @@
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>4541</v>
+        <v>4491</v>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>FAHMEMG</t>
+          <t>FEC</t>
         </is>
       </c>
       <c r="C302" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>RECURSOS DIRETAMENTE ARRECADADOS</t>
+          <t>OUTROS RECURSOS VINCULADOS</t>
         </is>
       </c>
       <c r="E302" t="n">
-        <v>28381267.18</v>
+        <v>39945815.52</v>
       </c>
       <c r="F302" t="n">
-        <v>30803238.05</v>
+        <v>31290949.67</v>
       </c>
       <c r="G302" t="n">
-        <v>27899758.89</v>
+        <v>22369533.67</v>
       </c>
       <c r="H302" t="n">
-        <v>28502245</v>
+        <v>22452867</v>
       </c>
       <c r="I302" t="n">
-        <v>29438285</v>
+        <v>0</v>
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>4551</v>
+        <v>4541</v>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>FUNAPEC</t>
+          <t>FAHMEMG</t>
         </is>
       </c>
       <c r="C303" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>OUTROS RECURSOS VINCULADOS</t>
+          <t>RECURSOS DIRETAMENTE ARRECADADOS</t>
         </is>
       </c>
       <c r="E303" t="n">
-        <v>0</v>
+        <v>28381267.18</v>
       </c>
       <c r="F303" t="n">
-        <v>0</v>
+        <v>30803238.05</v>
       </c>
       <c r="G303" t="n">
-        <v>79837393.01000001</v>
+        <v>27899758.89</v>
       </c>
       <c r="H303" t="n">
-        <v>79837393</v>
+        <v>28502245</v>
       </c>
       <c r="I303" t="n">
-        <v>92091002</v>
+        <v>29438285</v>
       </c>
       <c r="J303" t="inlineStr">
         <is>
@@ -11955,117 +11955,117 @@
         </is>
       </c>
       <c r="C304" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>RECURSOS DIRETAMENTE ARRECADADOS</t>
+          <t>OUTROS RECURSOS VINCULADOS</t>
         </is>
       </c>
       <c r="E304" t="n">
-        <v>74577014.52</v>
+        <v>0</v>
       </c>
       <c r="F304" t="n">
-        <v>80009654.44</v>
+        <v>0</v>
       </c>
       <c r="G304" t="n">
-        <v>0</v>
+        <v>79837393.01000001</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>79837393</v>
       </c>
       <c r="I304" t="n">
-        <v>0</v>
+        <v>92091002</v>
       </c>
       <c r="J304" t="inlineStr">
         <is>
-          <t>ATENCAO</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>4601</v>
+        <v>4551</v>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>FEI</t>
+          <t>FUNAPEC</t>
         </is>
       </c>
       <c r="C305" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>DOACOES DE PESSOAS, DE INSTITUICOES PRIVADAS OU DO EXTERIOR A ORGAO E ENTIDADES DO ESTADO</t>
+          <t>RECURSOS DIRETAMENTE ARRECADADOS</t>
         </is>
       </c>
       <c r="E305" t="n">
-        <v>1266593.86</v>
+        <v>74577014.52</v>
       </c>
       <c r="F305" t="n">
-        <v>1048206.2</v>
+        <v>80009654.44</v>
       </c>
       <c r="G305" t="n">
-        <v>5802500</v>
+        <v>0</v>
       </c>
       <c r="H305" t="n">
-        <v>6330000</v>
+        <v>0</v>
       </c>
       <c r="I305" t="n">
         <v>0</v>
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>ATENCAO</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>4611</v>
+        <v>4601</v>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>FUNCONTAS</t>
+          <t>FEI</t>
         </is>
       </c>
       <c r="C306" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>RECURSOS DIRETAMENTE ARRECADADOS</t>
+          <t>DOACOES DE PESSOAS, DE INSTITUICOES PRIVADAS OU DO EXTERIOR A ORGAO E ENTIDADES DO ESTADO</t>
         </is>
       </c>
       <c r="E306" t="n">
-        <v>4952794.62</v>
+        <v>1266593.86</v>
       </c>
       <c r="F306" t="n">
-        <v>5973509.54</v>
+        <v>1048206.2</v>
       </c>
       <c r="G306" t="n">
-        <v>6000000</v>
+        <v>5802500</v>
       </c>
       <c r="H306" t="n">
-        <v>6000000</v>
+        <v>6330000</v>
       </c>
       <c r="I306" t="n">
-        <v>0</v>
+        <v>1153027</v>
       </c>
       <c r="J306" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>4621</v>
+        <v>4611</v>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>MG INVESTE</t>
+          <t>FUNCONTAS</t>
         </is>
       </c>
       <c r="C307" t="n">
@@ -12077,61 +12077,61 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>21654601.59</v>
+        <v>4952794.62</v>
       </c>
       <c r="F307" t="n">
-        <v>17356959.49</v>
+        <v>5973509.54</v>
       </c>
       <c r="G307" t="n">
-        <v>9904583.859999999</v>
+        <v>6000000</v>
       </c>
       <c r="H307" t="n">
-        <v>10800000</v>
+        <v>6000000</v>
       </c>
       <c r="I307" t="n">
-        <v>15800000</v>
+        <v>0</v>
       </c>
       <c r="J307" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>4631</v>
+        <v>4621</v>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>FPP - MG</t>
+          <t>MG INVESTE</t>
         </is>
       </c>
       <c r="C308" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>RECURSOS ORDINARIOS - RECURSOS NAO VINCULADOS DE IMPOSTOS</t>
+          <t>RECURSOS DIRETAMENTE ARRECADADOS</t>
         </is>
       </c>
       <c r="E308" t="n">
-        <v>0</v>
+        <v>21654601.59</v>
       </c>
       <c r="F308" t="n">
-        <v>0</v>
+        <v>17356959.49</v>
       </c>
       <c r="G308" t="n">
-        <v>2000</v>
+        <v>9904583.859999999</v>
       </c>
       <c r="H308" t="n">
-        <v>2000</v>
+        <v>10800000</v>
       </c>
       <c r="I308" t="n">
-        <v>0</v>
+        <v>15800000</v>
       </c>
       <c r="J308" t="inlineStr">
         <is>
-          <t>ATENCAO</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -12145,24 +12145,24 @@
         </is>
       </c>
       <c r="C309" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>RECURSOS DIRETAMENTE ARRECADADOS</t>
+          <t>RECURSOS ORDINARIOS - RECURSOS NAO VINCULADOS DE IMPOSTOS</t>
         </is>
       </c>
       <c r="E309" t="n">
-        <v>29432536.65</v>
+        <v>0</v>
       </c>
       <c r="F309" t="n">
-        <v>19228816.03</v>
+        <v>0</v>
       </c>
       <c r="G309" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="I309" t="n">
         <v>0</v>
@@ -12175,11 +12175,11 @@
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>4661</v>
+        <v>4631</v>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>FAIMG</t>
+          <t>FPP - MG</t>
         </is>
       </c>
       <c r="C310" t="n">
@@ -12191,16 +12191,16 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>0</v>
+        <v>29432536.65</v>
       </c>
       <c r="F310" t="n">
-        <v>401644.47</v>
+        <v>19228816.03</v>
       </c>
       <c r="G310" t="n">
-        <v>429178.75</v>
+        <v>0</v>
       </c>
       <c r="H310" t="n">
-        <v>468195</v>
+        <v>0</v>
       </c>
       <c r="I310" t="n">
         <v>0</v>
@@ -12213,49 +12213,49 @@
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>4691</v>
+        <v>4661</v>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>FESP-MG</t>
+          <t>FAIMG</t>
         </is>
       </c>
       <c r="C311" t="n">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>TRANSFERENCIAS DA UNIAO POR MEIO DE PORTARIA - EXCETO EMENDAS INDIVIDUAIS E DE BANCADA</t>
+          <t>RECURSOS DIRETAMENTE ARRECADADOS</t>
         </is>
       </c>
       <c r="E311" t="n">
-        <v>52533960.3</v>
+        <v>0</v>
       </c>
       <c r="F311" t="n">
-        <v>52478484.59</v>
+        <v>401644.47</v>
       </c>
       <c r="G311" t="n">
-        <v>92936201</v>
+        <v>429178.75</v>
       </c>
       <c r="H311" t="n">
-        <v>92936201</v>
+        <v>468195</v>
       </c>
       <c r="I311" t="n">
         <v>0</v>
       </c>
       <c r="J311" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>ATENCAO</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>4701</v>
+        <v>4691</v>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>FET-MG</t>
+          <t>FESP-MG</t>
         </is>
       </c>
       <c r="C312" t="n">
@@ -12267,16 +12267,16 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>4461942.5</v>
+        <v>52533960.3</v>
       </c>
       <c r="F312" t="n">
-        <v>1633250.88</v>
+        <v>52478484.59</v>
       </c>
       <c r="G312" t="n">
-        <v>15485778</v>
+        <v>92936201</v>
       </c>
       <c r="H312" t="n">
-        <v>15485778</v>
+        <v>92936201</v>
       </c>
       <c r="I312" t="n">
         <v>0</v>
@@ -12297,65 +12297,65 @@
         </is>
       </c>
       <c r="C313" t="n">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>RECURSOS DIRETAMENTE ARRECADADOS</t>
+          <t>TRANSFERENCIAS DA UNIAO POR MEIO DE PORTARIA - EXCETO EMENDAS INDIVIDUAIS E DE BANCADA</t>
         </is>
       </c>
       <c r="E313" t="n">
-        <v>166441.39</v>
+        <v>4461942.5</v>
       </c>
       <c r="F313" t="n">
-        <v>0</v>
+        <v>1633250.88</v>
       </c>
       <c r="G313" t="n">
-        <v>0</v>
+        <v>15485778</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>15485778</v>
       </c>
       <c r="I313" t="n">
         <v>0</v>
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>4711</v>
+        <v>4701</v>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>FFP - MG</t>
+          <t>FET-MG</t>
         </is>
       </c>
       <c r="C314" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>RECURSOS ORDINARIOS - RECURSOS NAO VINCULADOS DE IMPOSTOS</t>
+          <t>RECURSOS DIRETAMENTE ARRECADADOS</t>
         </is>
       </c>
       <c r="E314" t="n">
-        <v>47572.23</v>
+        <v>166441.39</v>
       </c>
       <c r="F314" t="n">
-        <v>110659.95</v>
+        <v>0</v>
       </c>
       <c r="G314" t="n">
-        <v>62321.15</v>
+        <v>0</v>
       </c>
       <c r="H314" t="n">
-        <v>47050</v>
+        <v>0</v>
       </c>
       <c r="I314" t="n">
-        <v>108954</v>
+        <v>0</v>
       </c>
       <c r="J314" t="inlineStr">
         <is>
@@ -12373,31 +12373,31 @@
         </is>
       </c>
       <c r="C315" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO A APOSENTADORIA</t>
+          <t>RECURSOS ORDINARIOS - RECURSOS NAO VINCULADOS DE IMPOSTOS</t>
         </is>
       </c>
       <c r="E315" t="n">
-        <v>0</v>
+        <v>47572.23</v>
       </c>
       <c r="F315" t="n">
-        <v>0</v>
+        <v>110659.95</v>
       </c>
       <c r="G315" t="n">
-        <v>139037773.94</v>
+        <v>62321.15</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>47050</v>
       </c>
       <c r="I315" t="n">
-        <v>0</v>
+        <v>108954</v>
       </c>
       <c r="J315" t="inlineStr">
         <is>
-          <t>ATENCAO</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -12411,31 +12411,31 @@
         </is>
       </c>
       <c r="C316" t="n">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO PATRONAL PARA O RPPS</t>
+          <t>CONTRIBUICAO A APOSENTADORIA</t>
         </is>
       </c>
       <c r="E316" t="n">
-        <v>6166834137.13</v>
+        <v>0</v>
       </c>
       <c r="F316" t="n">
-        <v>6543770001.88</v>
+        <v>0</v>
       </c>
       <c r="G316" t="n">
-        <v>6882189421.91</v>
+        <v>139037773.94</v>
       </c>
       <c r="H316" t="n">
-        <v>7157695585</v>
+        <v>0</v>
       </c>
       <c r="I316" t="n">
         <v>0</v>
       </c>
       <c r="J316" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>ATENCAO</t>
         </is>
       </c>
     </row>
@@ -12449,31 +12449,31 @@
         </is>
       </c>
       <c r="C317" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO DO SERVIDOR PARA O RPPS</t>
+          <t>CONTRIBUICAO PATRONAL PARA O RPPS</t>
         </is>
       </c>
       <c r="E317" t="n">
-        <v>3357358367.07</v>
+        <v>6166834137.13</v>
       </c>
       <c r="F317" t="n">
-        <v>3377054149.3</v>
+        <v>6543770001.88</v>
       </c>
       <c r="G317" t="n">
-        <v>3596855214.55</v>
+        <v>6882189421.91</v>
       </c>
       <c r="H317" t="n">
-        <v>3694896077</v>
+        <v>7157695585</v>
       </c>
       <c r="I317" t="n">
-        <v>58404991</v>
+        <v>0</v>
       </c>
       <c r="J317" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -12487,31 +12487,31 @@
         </is>
       </c>
       <c r="C318" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>COMPENSACAO FINANCEIRA ENTRE REGIMES DE PREVIDENCIA</t>
+          <t>CONTRIBUICAO DO SERVIDOR PARA O RPPS</t>
         </is>
       </c>
       <c r="E318" t="n">
-        <v>42046001.98</v>
+        <v>3357358367.07</v>
       </c>
       <c r="F318" t="n">
-        <v>97430557.64</v>
+        <v>3377054149.3</v>
       </c>
       <c r="G318" t="n">
-        <v>41676951.37</v>
+        <v>3596855214.55</v>
       </c>
       <c r="H318" t="n">
-        <v>41641705</v>
+        <v>3694896077</v>
       </c>
       <c r="I318" t="n">
-        <v>0</v>
+        <v>58404991</v>
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>VALOR DISCREPANTE</t>
         </is>
       </c>
     </row>
@@ -12525,31 +12525,31 @@
         </is>
       </c>
       <c r="C319" t="n">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>TAXA DE CONTROLE E FISCALIZACAO AMBIENTAL</t>
+          <t>COMPENSACAO FINANCEIRA ENTRE REGIMES DE PREVIDENCIA</t>
         </is>
       </c>
       <c r="E319" t="n">
-        <v>7856.54</v>
+        <v>42046001.98</v>
       </c>
       <c r="F319" t="n">
-        <v>2915.26</v>
+        <v>97430557.64</v>
       </c>
       <c r="G319" t="n">
-        <v>5762.17</v>
+        <v>41676951.37</v>
       </c>
       <c r="H319" t="n">
-        <v>6286</v>
+        <v>41641705</v>
       </c>
       <c r="I319" t="n">
-        <v>2332</v>
+        <v>81000000</v>
       </c>
       <c r="J319" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -12563,31 +12563,31 @@
         </is>
       </c>
       <c r="C320" t="n">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>RECURSOS PARA COBERTURA DE INSUFICIENCIA FINANCEIRA DO RPPS</t>
+          <t>TAXA DE CONTROLE E FISCALIZACAO AMBIENTAL</t>
         </is>
       </c>
       <c r="E320" t="n">
-        <v>0</v>
+        <v>7856.54</v>
       </c>
       <c r="F320" t="n">
-        <v>581015225.29</v>
+        <v>2915.26</v>
       </c>
       <c r="G320" t="n">
-        <v>0</v>
+        <v>5762.17</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>6286</v>
       </c>
       <c r="I320" t="n">
-        <v>0</v>
+        <v>2332</v>
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t>ATENCAO</t>
+          <t>VALOR DISCREPANTE</t>
         </is>
       </c>
     </row>
@@ -12601,31 +12601,31 @@
         </is>
       </c>
       <c r="C321" t="n">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>RECURSOS DIRETAMENTE ARRECADADOS</t>
+          <t>RECURSOS PARA COBERTURA DE INSUFICIENCIA FINANCEIRA DO RPPS</t>
         </is>
       </c>
       <c r="E321" t="n">
-        <v>186325.67</v>
+        <v>0</v>
       </c>
       <c r="F321" t="n">
-        <v>32246.25</v>
+        <v>581015225.29</v>
       </c>
       <c r="G321" t="n">
-        <v>153042.78</v>
+        <v>0</v>
       </c>
       <c r="H321" t="n">
-        <v>166588</v>
+        <v>0</v>
       </c>
       <c r="I321" t="n">
-        <v>34460</v>
+        <v>0</v>
       </c>
       <c r="J321" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>ATENCAO</t>
         </is>
       </c>
     </row>
@@ -12639,27 +12639,27 @@
         </is>
       </c>
       <c r="C322" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
+          <t>RECURSOS DIRETAMENTE ARRECADADOS</t>
         </is>
       </c>
       <c r="E322" t="n">
-        <v>76857886.73</v>
+        <v>186325.67</v>
       </c>
       <c r="F322" t="n">
-        <v>32639198.8</v>
+        <v>32246.25</v>
       </c>
       <c r="G322" t="n">
-        <v>69964656.19</v>
+        <v>153042.78</v>
       </c>
       <c r="H322" t="n">
-        <v>68579821</v>
+        <v>166588</v>
       </c>
       <c r="I322" t="n">
-        <v>67669414</v>
+        <v>34460</v>
       </c>
       <c r="J322" t="inlineStr">
         <is>
@@ -12677,45 +12677,49 @@
         </is>
       </c>
       <c r="C323" t="n">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO PATRONAL PARA CUSTEIO DOS PROVENTOS DOS MILITARES</t>
+          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
         </is>
       </c>
       <c r="E323" t="n">
-        <v>0</v>
+        <v>76857886.73</v>
       </c>
       <c r="F323" t="n">
-        <v>0</v>
+        <v>32639198.8</v>
       </c>
       <c r="G323" t="n">
-        <v>504457766.15</v>
+        <v>69964656.19</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>68579821</v>
       </c>
       <c r="I323" t="n">
-        <v>0</v>
+        <v>67669414</v>
       </c>
       <c r="J323" t="inlineStr">
         <is>
-          <t>ATENCAO</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>4731</v>
-      </c>
-      <c r="B324" t="inlineStr"/>
+        <v>4711</v>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>FFP - MG</t>
+        </is>
+      </c>
       <c r="C324" t="n">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>OUTROS RECURSOS VINCULADOS</t>
+          <t>CONTRIBUICAO PATRONAL PARA CUSTEIO DOS PROVENTOS DOS MILITARES</t>
         </is>
       </c>
       <c r="E324" t="n">
@@ -12725,7 +12729,7 @@
         <v>0</v>
       </c>
       <c r="G324" t="n">
-        <v>0</v>
+        <v>504457766.15</v>
       </c>
       <c r="H324" t="n">
         <v>0</v>
@@ -12735,13 +12739,13 @@
       </c>
       <c r="J324" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>ATENCAO</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>4741</v>
+        <v>4731</v>
       </c>
       <c r="B325" t="inlineStr"/>
       <c r="C325" t="n">
@@ -12765,7 +12769,7 @@
         <v>0</v>
       </c>
       <c r="I325" t="n">
-        <v>25000000</v>
+        <v>0</v>
       </c>
       <c r="J325" t="inlineStr">
         <is>
@@ -12779,11 +12783,11 @@
       </c>
       <c r="B326" t="inlineStr"/>
       <c r="C326" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>RECURSOS DIRETAMENTE ARRECADADOS</t>
+          <t>OUTROS RECURSOS VINCULADOS</t>
         </is>
       </c>
       <c r="E326" t="n">
@@ -12799,7 +12803,7 @@
         <v>0</v>
       </c>
       <c r="I326" t="n">
-        <v>15000000</v>
+        <v>25000000</v>
       </c>
       <c r="J326" t="inlineStr">
         <is>
@@ -12809,15 +12813,15 @@
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>4751</v>
+        <v>4741</v>
       </c>
       <c r="B327" t="inlineStr"/>
       <c r="C327" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>OUTROS RECURSOS VINCULADOS</t>
+          <t>RECURSOS DIRETAMENTE ARRECADADOS</t>
         </is>
       </c>
       <c r="E327" t="n">
@@ -12833,7 +12837,7 @@
         <v>0</v>
       </c>
       <c r="I327" t="n">
-        <v>0</v>
+        <v>15000000</v>
       </c>
       <c r="J327" t="inlineStr">
         <is>
@@ -12843,19 +12847,15 @@
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>9901</v>
-      </c>
-      <c r="B328" t="inlineStr">
-        <is>
-          <t>RGE</t>
-        </is>
-      </c>
+        <v>4751</v>
+      </c>
+      <c r="B328" t="inlineStr"/>
       <c r="C328" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>CONVENIOS COM A UNIAO E SUAS ENTIDADES - EMENDAS INDIVIDUAIS</t>
+          <t>OUTROS RECURSOS VINCULADOS</t>
         </is>
       </c>
       <c r="E328" t="n">
@@ -12868,7 +12868,7 @@
         <v>0</v>
       </c>
       <c r="H328" t="n">
-        <v>17170138</v>
+        <v>0</v>
       </c>
       <c r="I328" t="n">
         <v>0</v>
@@ -12889,11 +12889,11 @@
         </is>
       </c>
       <c r="C329" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>CONVENIOS COM A UNIAO E SUAS ENTIDADES - EMENDAS DE BANCADA</t>
+          <t>CONVENIOS COM A UNIAO E SUAS ENTIDADES - EMENDAS INDIVIDUAIS</t>
         </is>
       </c>
       <c r="E329" t="n">
@@ -12906,7 +12906,7 @@
         <v>0</v>
       </c>
       <c r="H329" t="n">
-        <v>82828230</v>
+        <v>17170138</v>
       </c>
       <c r="I329" t="n">
         <v>0</v>
@@ -12927,11 +12927,11 @@
         </is>
       </c>
       <c r="C330" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>TRANSFERENCIAS DO FNDE VINCULADAS A EDUCACAO - EMENDAS INDIVIDUAIS</t>
+          <t>CONVENIOS COM A UNIAO E SUAS ENTIDADES - EMENDAS DE BANCADA</t>
         </is>
       </c>
       <c r="E330" t="n">
@@ -12944,7 +12944,7 @@
         <v>0</v>
       </c>
       <c r="H330" t="n">
-        <v>5641071</v>
+        <v>82828230</v>
       </c>
       <c r="I330" t="n">
         <v>0</v>
@@ -12965,11 +12965,11 @@
         </is>
       </c>
       <c r="C331" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>TRANSFERENCIAS DO FNDE VINCULADAS A EDUCACAO - EMENDAS DE BANCADA</t>
+          <t>TRANSFERENCIAS DO FNDE VINCULADAS A EDUCACAO - EMENDAS INDIVIDUAIS</t>
         </is>
       </c>
       <c r="E331" t="n">
@@ -12982,7 +12982,7 @@
         <v>0</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>5641071</v>
       </c>
       <c r="I331" t="n">
         <v>0</v>
@@ -13003,11 +13003,11 @@
         </is>
       </c>
       <c r="C332" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>TERMOS DE AJUSTAMENTO, DOACOES CONTROLADAS POR INSTRUMENTO JURIDICO E CONGENERES</t>
+          <t>TRANSFERENCIAS DO FNDE VINCULADAS A EDUCACAO - EMENDAS DE BANCADA</t>
         </is>
       </c>
       <c r="E332" t="n">
@@ -13020,7 +13020,7 @@
         <v>0</v>
       </c>
       <c r="H332" t="n">
-        <v>9523000</v>
+        <v>0</v>
       </c>
       <c r="I332" t="n">
         <v>0</v>
@@ -13041,31 +13041,31 @@
         </is>
       </c>
       <c r="C333" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>RECURSOS ORDINARIOS - RECURSOS NAO VINCULADOS DE IMPOSTOS</t>
+          <t>TERMOS DE AJUSTAMENTO, DOACOES CONTROLADAS POR INSTRUMENTO JURIDICO E CONGENERES</t>
         </is>
       </c>
       <c r="E333" t="n">
-        <v>62701681464.88</v>
+        <v>0</v>
       </c>
       <c r="F333" t="n">
-        <v>70640041606.07001</v>
+        <v>0</v>
       </c>
       <c r="G333" t="n">
-        <v>75532178605.62</v>
+        <v>0</v>
       </c>
       <c r="H333" t="n">
-        <v>73046636589</v>
+        <v>9523000</v>
       </c>
       <c r="I333" t="n">
         <v>0</v>
       </c>
       <c r="J333" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -13079,31 +13079,31 @@
         </is>
       </c>
       <c r="C334" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>RECURSOS DE DESVINCULACAO DE RECEITAS</t>
+          <t>RECURSOS ORDINARIOS - RECURSOS NAO VINCULADOS DE IMPOSTOS</t>
         </is>
       </c>
       <c r="E334" t="n">
-        <v>1245779647.03</v>
+        <v>62701681464.88</v>
       </c>
       <c r="F334" t="n">
-        <v>1241860715.84</v>
+        <v>70640041606.07001</v>
       </c>
       <c r="G334" t="n">
-        <v>1265055285.85</v>
+        <v>75532178605.62</v>
       </c>
       <c r="H334" t="n">
-        <v>1529186924</v>
+        <v>73046636589</v>
       </c>
       <c r="I334" t="n">
-        <v>0</v>
+        <v>72520541391</v>
       </c>
       <c r="J334" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -13117,31 +13117,31 @@
         </is>
       </c>
       <c r="C335" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>OPERACOES DE CREDITO CONTRATUAIS - SWAP</t>
+          <t>RECURSOS DE DESVINCULACAO DE RECEITAS</t>
         </is>
       </c>
       <c r="E335" t="n">
-        <v>0</v>
+        <v>1245779647.03</v>
       </c>
       <c r="F335" t="n">
-        <v>0</v>
+        <v>1241860715.84</v>
       </c>
       <c r="G335" t="n">
-        <v>767.25</v>
+        <v>1265055285.85</v>
       </c>
       <c r="H335" t="n">
-        <v>837</v>
+        <v>1529186924</v>
       </c>
       <c r="I335" t="n">
-        <v>0</v>
+        <v>790219261</v>
       </c>
       <c r="J335" t="inlineStr">
         <is>
-          <t>ATENCAO</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -13155,11 +13155,11 @@
         </is>
       </c>
       <c r="C336" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>FUNDO DE MANUTENCAO E DESENVOLVIMENTO DA EDUCACAO BASICA - FUNDEB - REGULARIZACAO DE EXERCICIOS ANTE</t>
+          <t>OPERACOES DE CREDITO CONTRATUAIS - SWAP</t>
         </is>
       </c>
       <c r="E336" t="n">
@@ -13169,17 +13169,17 @@
         <v>0</v>
       </c>
       <c r="G336" t="n">
-        <v>0</v>
+        <v>767.25</v>
       </c>
       <c r="H336" t="n">
-        <v>2100000</v>
+        <v>837</v>
       </c>
       <c r="I336" t="n">
         <v>0</v>
       </c>
       <c r="J336" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>ATENCAO</t>
         </is>
       </c>
     </row>
@@ -13193,31 +13193,31 @@
         </is>
       </c>
       <c r="C337" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>RECURSOS ORDINARIOS - OUTROS RECURSOS NAO VINCULADOS</t>
+          <t>FUNDO DE MANUTENCAO E DESENVOLVIMENTO DA EDUCACAO BASICA - FUNDEB - REGULARIZACAO DE EXERCICIOS ANTE</t>
         </is>
       </c>
       <c r="E337" t="n">
-        <v>4173278940.02</v>
+        <v>0</v>
       </c>
       <c r="F337" t="n">
-        <v>5162369192.63</v>
+        <v>0</v>
       </c>
       <c r="G337" t="n">
-        <v>4744544809.01</v>
+        <v>0</v>
       </c>
       <c r="H337" t="n">
-        <v>4081035721</v>
+        <v>2100000</v>
       </c>
       <c r="I337" t="n">
         <v>0</v>
       </c>
       <c r="J337" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -13231,27 +13231,27 @@
         </is>
       </c>
       <c r="C338" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>DEMAIS TRANSFERENCIAS VINCULADAS DA UNIAO</t>
+          <t>RECURSOS ORDINARIOS - OUTROS RECURSOS NAO VINCULADOS</t>
         </is>
       </c>
       <c r="E338" t="n">
-        <v>0</v>
+        <v>4173278940.02</v>
       </c>
       <c r="F338" t="n">
-        <v>0</v>
+        <v>5162369192.63</v>
       </c>
       <c r="G338" t="n">
-        <v>0</v>
+        <v>4744544809.01</v>
       </c>
       <c r="H338" t="n">
-        <v>141847763</v>
+        <v>4081035721</v>
       </c>
       <c r="I338" t="n">
-        <v>0</v>
+        <v>3334080603</v>
       </c>
       <c r="J338" t="inlineStr">
         <is>
@@ -13269,11 +13269,11 @@
         </is>
       </c>
       <c r="C339" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>TRANSFERENCIAS DESTINADAS AO SETOR CULTURAL - LC 195/2022 - ART 5O - AUDIOVISUAL</t>
+          <t>DEMAIS TRANSFERENCIAS VINCULADAS DA UNIAO</t>
         </is>
       </c>
       <c r="E339" t="n">
@@ -13286,7 +13286,7 @@
         <v>0</v>
       </c>
       <c r="H339" t="n">
-        <v>6710501</v>
+        <v>141847763</v>
       </c>
       <c r="I339" t="n">
         <v>0</v>
@@ -13307,31 +13307,31 @@
         </is>
       </c>
       <c r="C340" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>RECURSOS NAO VINCULADOS DA COMPENSACAO DE IMPOSTOS</t>
+          <t>TRANSFERENCIAS DESTINADAS AO SETOR CULTURAL - LC 195/2022 - ART 5O - AUDIOVISUAL</t>
         </is>
       </c>
       <c r="E340" t="n">
-        <v>106497629.98</v>
+        <v>0</v>
       </c>
       <c r="F340" t="n">
         <v>0</v>
       </c>
       <c r="G340" t="n">
-        <v>504269510.01</v>
+        <v>0</v>
       </c>
       <c r="H340" t="n">
-        <v>504269510</v>
+        <v>6710501</v>
       </c>
       <c r="I340" t="n">
         <v>0</v>
       </c>
       <c r="J340" t="inlineStr">
         <is>
-          <t>ATENCAO</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -13345,31 +13345,31 @@
         </is>
       </c>
       <c r="C341" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>RECURSOS CONSTITUC.VINCULADOS AOS MUNICIPIOS</t>
+          <t>RECURSOS NAO VINCULADOS DA COMPENSACAO DE IMPOSTOS</t>
         </is>
       </c>
       <c r="E341" t="n">
-        <v>0</v>
+        <v>106497629.98</v>
       </c>
       <c r="F341" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G341" t="n">
-        <v>-53.37</v>
+        <v>504269510.01</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>504269510</v>
       </c>
       <c r="I341" t="n">
         <v>0</v>
       </c>
       <c r="J341" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>ATENCAO</t>
         </is>
       </c>
     </row>
@@ -13383,27 +13383,27 @@
         </is>
       </c>
       <c r="C342" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>COTA ESTADUAL DO SALARIO EDUCACAO - QESE</t>
+          <t>RECURSOS CONSTITUC.VINCULADOS AOS MUNICIPIOS</t>
         </is>
       </c>
       <c r="E342" t="n">
         <v>0</v>
       </c>
       <c r="F342" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G342" t="n">
-        <v>0</v>
+        <v>-53.37</v>
       </c>
       <c r="H342" t="n">
-        <v>861500000</v>
+        <v>0</v>
       </c>
       <c r="I342" t="n">
-        <v>0</v>
+        <v>30447820997</v>
       </c>
       <c r="J342" t="inlineStr">
         <is>
@@ -13421,24 +13421,24 @@
         </is>
       </c>
       <c r="C343" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>FUNDO DE MANUTENCAO E DESENVOLVIMENTO DA EDUCACAO BASICA - FUNDEB</t>
+          <t>COTA ESTADUAL DO SALARIO EDUCACAO - QESE</t>
         </is>
       </c>
       <c r="E343" t="n">
         <v>0</v>
       </c>
       <c r="F343" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G343" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H343" t="n">
-        <v>12996682660</v>
+        <v>861500000</v>
       </c>
       <c r="I343" t="n">
         <v>0</v>
@@ -13459,27 +13459,27 @@
         </is>
       </c>
       <c r="C344" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>CONVENIOS COM A UNIAO E SUAS ENTIDADES - EXCETO EMENDAS INDIVIDUAIS E DE BANCADA</t>
+          <t>FUNDO DE MANUTENCAO E DESENVOLVIMENTO DA EDUCACAO BASICA - FUNDEB</t>
         </is>
       </c>
       <c r="E344" t="n">
-        <v>24.05</v>
+        <v>0</v>
       </c>
       <c r="F344" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G344" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H344" t="n">
-        <v>2147382750</v>
+        <v>12996682660</v>
       </c>
       <c r="I344" t="n">
-        <v>0</v>
+        <v>16258569145</v>
       </c>
       <c r="J344" t="inlineStr">
         <is>
@@ -13497,31 +13497,31 @@
         </is>
       </c>
       <c r="C345" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>OPERACOES DE CREDITO CONTRATUAIS</t>
+          <t>CONVENIOS COM A UNIAO E SUAS ENTIDADES - EXCETO EMENDAS INDIVIDUAIS E DE BANCADA</t>
         </is>
       </c>
       <c r="E345" t="n">
-        <v>35298548.43</v>
+        <v>24.05</v>
       </c>
       <c r="F345" t="n">
-        <v>34917792.85</v>
+        <v>0</v>
       </c>
       <c r="G345" t="n">
-        <v>32587260</v>
+        <v>0</v>
       </c>
       <c r="H345" t="n">
-        <v>32587260</v>
+        <v>2147382750</v>
       </c>
       <c r="I345" t="n">
         <v>0</v>
       </c>
       <c r="J345" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -13535,27 +13535,27 @@
         </is>
       </c>
       <c r="C346" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>TAXA FLORESTAL - ADMINISTRACAO INDIRETA</t>
+          <t>OPERACOES DE CREDITO CONTRATUAIS</t>
         </is>
       </c>
       <c r="E346" t="n">
-        <v>0</v>
+        <v>35298548.43</v>
       </c>
       <c r="F346" t="n">
-        <v>0</v>
+        <v>34917792.85</v>
       </c>
       <c r="G346" t="n">
-        <v>0</v>
+        <v>32587260</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>32587260</v>
       </c>
       <c r="I346" t="n">
-        <v>0</v>
+        <v>20353834</v>
       </c>
       <c r="J346" t="inlineStr">
         <is>
@@ -13573,31 +13573,31 @@
         </is>
       </c>
       <c r="C347" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>TAXA DE SEGURANCA PUBLICA</t>
+          <t>TAXA FLORESTAL - ADMINISTRACAO INDIRETA</t>
         </is>
       </c>
       <c r="E347" t="n">
-        <v>1380665251.27</v>
+        <v>0</v>
       </c>
       <c r="F347" t="n">
-        <v>1185095350.43</v>
+        <v>0</v>
       </c>
       <c r="G347" t="n">
-        <v>1247789925.65</v>
+        <v>0</v>
       </c>
       <c r="H347" t="n">
-        <v>1322391859</v>
+        <v>0</v>
       </c>
       <c r="I347" t="n">
         <v>0</v>
       </c>
       <c r="J347" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -13611,31 +13611,31 @@
         </is>
       </c>
       <c r="C348" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>TAXA DE EXPEDIENTE - ADMINISTRACAO DIRETA</t>
+          <t>TAXA DE SEGURANCA PUBLICA</t>
         </is>
       </c>
       <c r="E348" t="n">
-        <v>45711754.29</v>
+        <v>1380665251.27</v>
       </c>
       <c r="F348" t="n">
-        <v>25963270.97</v>
+        <v>1185095350.43</v>
       </c>
       <c r="G348" t="n">
-        <v>28990886.21</v>
+        <v>1247789925.65</v>
       </c>
       <c r="H348" t="n">
-        <v>28981843</v>
+        <v>1322391859</v>
       </c>
       <c r="I348" t="n">
-        <v>0</v>
+        <v>1369576430</v>
       </c>
       <c r="J348" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -13649,31 +13649,31 @@
         </is>
       </c>
       <c r="C349" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO A APOSENTADORIA</t>
+          <t>TAXA DE EXPEDIENTE - ADMINISTRACAO DIRETA</t>
         </is>
       </c>
       <c r="E349" t="n">
-        <v>0</v>
+        <v>45711754.29</v>
       </c>
       <c r="F349" t="n">
-        <v>21820387.29</v>
+        <v>25963270.97</v>
       </c>
       <c r="G349" t="n">
-        <v>11672445.79</v>
+        <v>28990886.21</v>
       </c>
       <c r="H349" t="n">
-        <v>186552041</v>
+        <v>28981843</v>
       </c>
       <c r="I349" t="n">
-        <v>0</v>
+        <v>28339302</v>
       </c>
       <c r="J349" t="inlineStr">
         <is>
-          <t>ATENCAO</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -13687,31 +13687,31 @@
         </is>
       </c>
       <c r="C350" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>UTILIZACAO DE RECURSOS HIDRICOS</t>
+          <t>CONTRIBUICAO A APOSENTADORIA</t>
         </is>
       </c>
       <c r="E350" t="n">
-        <v>70450093.03</v>
+        <v>0</v>
       </c>
       <c r="F350" t="n">
-        <v>78756531.09</v>
+        <v>21820387.29</v>
       </c>
       <c r="G350" t="n">
-        <v>71648785.67</v>
+        <v>11672445.79</v>
       </c>
       <c r="H350" t="n">
-        <v>71657243</v>
+        <v>186552041</v>
       </c>
       <c r="I350" t="n">
         <v>0</v>
       </c>
       <c r="J350" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>ATENCAO</t>
         </is>
       </c>
     </row>
@@ -13725,31 +13725,31 @@
         </is>
       </c>
       <c r="C351" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>EXPLORACAO DE RECURSOS MINERAIS</t>
+          <t>UTILIZACAO DE RECURSOS HIDRICOS</t>
         </is>
       </c>
       <c r="E351" t="n">
-        <v>328619393.12</v>
+        <v>70450093.03</v>
       </c>
       <c r="F351" t="n">
-        <v>351848681.18</v>
+        <v>78756531.09</v>
       </c>
       <c r="G351" t="n">
-        <v>375829398</v>
+        <v>71648785.67</v>
       </c>
       <c r="H351" t="n">
-        <v>375829398</v>
+        <v>71657243</v>
       </c>
       <c r="I351" t="n">
-        <v>0</v>
+        <v>47143</v>
       </c>
       <c r="J351" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>VALOR DISCREPANTE</t>
         </is>
       </c>
     </row>
@@ -13763,24 +13763,24 @@
         </is>
       </c>
       <c r="C352" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>EXPLORACAO E PRODUCAO DE PETROLEO E GAS NATURAL</t>
+          <t>EXPLORACAO DE RECURSOS MINERAIS</t>
         </is>
       </c>
       <c r="E352" t="n">
-        <v>31026746.71</v>
+        <v>328619393.12</v>
       </c>
       <c r="F352" t="n">
-        <v>36643305.2</v>
+        <v>351848681.18</v>
       </c>
       <c r="G352" t="n">
-        <v>37947881</v>
+        <v>375829398</v>
       </c>
       <c r="H352" t="n">
-        <v>37947881</v>
+        <v>375829398</v>
       </c>
       <c r="I352" t="n">
         <v>0</v>
@@ -13801,31 +13801,31 @@
         </is>
       </c>
       <c r="C353" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>TRANSFERENCIAS DO FNDE VINCULADAS A EDUCACAO - EXCETO EMENDAS INDIVIDUAIS E DE BANCADA</t>
+          <t>EXPLORACAO E PRODUCAO DE PETROLEO E GAS NATURAL</t>
         </is>
       </c>
       <c r="E353" t="n">
-        <v>0</v>
+        <v>31026746.71</v>
       </c>
       <c r="F353" t="n">
-        <v>0</v>
+        <v>36643305.2</v>
       </c>
       <c r="G353" t="n">
-        <v>0</v>
+        <v>37947881</v>
       </c>
       <c r="H353" t="n">
-        <v>461105173</v>
+        <v>37947881</v>
       </c>
       <c r="I353" t="n">
         <v>0</v>
       </c>
       <c r="J353" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -13839,11 +13839,11 @@
         </is>
       </c>
       <c r="C354" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>TRANSFERENCIAS DA UNIAO VINCULADAS AO ESPORTE</t>
+          <t>TRANSFERENCIAS DO FNDE VINCULADAS A EDUCACAO - EXCETO EMENDAS INDIVIDUAIS E DE BANCADA</t>
         </is>
       </c>
       <c r="E354" t="n">
@@ -13856,7 +13856,7 @@
         <v>0</v>
       </c>
       <c r="H354" t="n">
-        <v>27477117</v>
+        <v>461105173</v>
       </c>
       <c r="I354" t="n">
         <v>0</v>
@@ -13877,31 +13877,31 @@
         </is>
       </c>
       <c r="C355" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>RECURSOS FUNDOS EXTINTOS-LEI NO 13.848/2001</t>
+          <t>TRANSFERENCIAS DA UNIAO VINCULADAS AO ESPORTE</t>
         </is>
       </c>
       <c r="E355" t="n">
         <v>0</v>
       </c>
       <c r="F355" t="n">
-        <v>508498.37</v>
+        <v>0</v>
       </c>
       <c r="G355" t="n">
-        <v>3116.66</v>
+        <v>0</v>
       </c>
       <c r="H355" t="n">
-        <v>3400</v>
+        <v>27477117</v>
       </c>
       <c r="I355" t="n">
         <v>0</v>
       </c>
       <c r="J355" t="inlineStr">
         <is>
-          <t>ATENCAO</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -13915,31 +13915,31 @@
         </is>
       </c>
       <c r="C356" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>DOACOES DE PESSOAS, DE INSTITUICOES PRIVADAS OU DO EXTERIOR A ORGAO E ENTIDADES DO ESTADO</t>
+          <t>RECURSOS FUNDOS EXTINTOS-LEI NO 13.848/2001</t>
         </is>
       </c>
       <c r="E356" t="n">
         <v>0</v>
       </c>
       <c r="F356" t="n">
-        <v>0</v>
+        <v>508498.37</v>
       </c>
       <c r="G356" t="n">
-        <v>0</v>
+        <v>3116.66</v>
       </c>
       <c r="H356" t="n">
-        <v>156004</v>
+        <v>3400</v>
       </c>
       <c r="I356" t="n">
         <v>0</v>
       </c>
       <c r="J356" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>ATENCAO</t>
         </is>
       </c>
     </row>
@@ -13953,31 +13953,31 @@
         </is>
       </c>
       <c r="C357" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>DOACOES DE PESSOAS, DE INSTITUICOES PRIVADAS OU DO EXTERIOR AO TESOURO ESTADUAL</t>
+          <t>DOACOES DE PESSOAS, DE INSTITUICOES PRIVADAS OU DO EXTERIOR A ORGAO E ENTIDADES DO ESTADO</t>
         </is>
       </c>
       <c r="E357" t="n">
-        <v>10518.65</v>
+        <v>0</v>
       </c>
       <c r="F357" t="n">
-        <v>5391.86</v>
+        <v>0</v>
       </c>
       <c r="G357" t="n">
-        <v>1235.15</v>
+        <v>0</v>
       </c>
       <c r="H357" t="n">
-        <v>1071</v>
+        <v>156004</v>
       </c>
       <c r="I357" t="n">
         <v>0</v>
       </c>
       <c r="J357" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -13991,27 +13991,27 @@
         </is>
       </c>
       <c r="C358" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>ALIENACAO DE BENS DE ENTIDADES ESTADUAIS</t>
+          <t>DOACOES DE PESSOAS, DE INSTITUICOES PRIVADAS OU DO EXTERIOR AO TESOURO ESTADUAL</t>
         </is>
       </c>
       <c r="E358" t="n">
-        <v>30</v>
+        <v>10518.65</v>
       </c>
       <c r="F358" t="n">
-        <v>0</v>
+        <v>5391.86</v>
       </c>
       <c r="G358" t="n">
-        <v>0</v>
+        <v>1235.15</v>
       </c>
       <c r="H358" t="n">
-        <v>6250000</v>
+        <v>1071</v>
       </c>
       <c r="I358" t="n">
-        <v>0</v>
+        <v>1567</v>
       </c>
       <c r="J358" t="inlineStr">
         <is>
@@ -14029,31 +14029,31 @@
         </is>
       </c>
       <c r="C359" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>ALIENACAO DE BENS DO TESOURO ESTADUAL</t>
+          <t>ALIENACAO DE BENS DE ENTIDADES ESTADUAIS</t>
         </is>
       </c>
       <c r="E359" t="n">
-        <v>38769944.15</v>
+        <v>30</v>
       </c>
       <c r="F359" t="n">
-        <v>4852234.21</v>
+        <v>0</v>
       </c>
       <c r="G359" t="n">
-        <v>21049396.76</v>
+        <v>0</v>
       </c>
       <c r="H359" t="n">
-        <v>21883351</v>
+        <v>6250000</v>
       </c>
       <c r="I359" t="n">
         <v>0</v>
       </c>
       <c r="J359" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -14067,24 +14067,24 @@
         </is>
       </c>
       <c r="C360" t="n">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO DE INTERVENCAO NO DOMINIO ECONOMICO/COMBUSTIVEIS-CIDE</t>
+          <t>ALIENACAO DE BENS DO TESOURO ESTADUAL</t>
         </is>
       </c>
       <c r="E360" t="n">
-        <v>11254836.05</v>
+        <v>38769944.15</v>
       </c>
       <c r="F360" t="n">
-        <v>79061277.77</v>
+        <v>4852234.21</v>
       </c>
       <c r="G360" t="n">
-        <v>91535021.01000001</v>
+        <v>21049396.76</v>
       </c>
       <c r="H360" t="n">
-        <v>75072675</v>
+        <v>21883351</v>
       </c>
       <c r="I360" t="n">
         <v>0</v>
@@ -14105,24 +14105,24 @@
         </is>
       </c>
       <c r="C361" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>TAXA DE INCENDIO</t>
+          <t>CONTRIBUICAO DE INTERVENCAO NO DOMINIO ECONOMICO/COMBUSTIVEIS-CIDE</t>
         </is>
       </c>
       <c r="E361" t="n">
-        <v>1153742.33</v>
+        <v>11254836.05</v>
       </c>
       <c r="F361" t="n">
-        <v>8319.77</v>
+        <v>79061277.77</v>
       </c>
       <c r="G361" t="n">
-        <v>2939.75</v>
+        <v>91535021.01000001</v>
       </c>
       <c r="H361" t="n">
-        <v>3207</v>
+        <v>75072675</v>
       </c>
       <c r="I361" t="n">
         <v>0</v>
@@ -14143,31 +14143,31 @@
         </is>
       </c>
       <c r="C362" t="n">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>TRANSFERENCIAS DA UNIAO POR MEIO DE PORTARIA - EXCETO EMENDAS INDIVIDUAIS E DE BANCADA</t>
+          <t>TAXA DE INCENDIO</t>
         </is>
       </c>
       <c r="E362" t="n">
-        <v>0</v>
+        <v>1153742.33</v>
       </c>
       <c r="F362" t="n">
-        <v>7.2</v>
+        <v>8319.77</v>
       </c>
       <c r="G362" t="n">
-        <v>0</v>
+        <v>2939.75</v>
       </c>
       <c r="H362" t="n">
-        <v>12502000</v>
+        <v>3207</v>
       </c>
       <c r="I362" t="n">
-        <v>0</v>
+        <v>1548</v>
       </c>
       <c r="J362" t="inlineStr">
         <is>
-          <t>ATENCAO</t>
+          <t>VALOR DISCREPANTE</t>
         </is>
       </c>
     </row>
@@ -14181,31 +14181,31 @@
         </is>
       </c>
       <c r="C363" t="n">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>OUTROS RECURSOS VINCULADOS</t>
+          <t>TRANSFERENCIAS DA UNIAO POR MEIO DE PORTARIA - EXCETO EMENDAS INDIVIDUAIS E DE BANCADA</t>
         </is>
       </c>
       <c r="E363" t="n">
         <v>0</v>
       </c>
       <c r="F363" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="G363" t="n">
         <v>0</v>
       </c>
       <c r="H363" t="n">
-        <v>14594825</v>
+        <v>12502000</v>
       </c>
       <c r="I363" t="n">
         <v>0</v>
       </c>
       <c r="J363" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>ATENCAO</t>
         </is>
       </c>
     </row>
@@ -14219,31 +14219,31 @@
         </is>
       </c>
       <c r="C364" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>RECURSOS DIRETAMENTE ARRECADADOS</t>
+          <t>OUTROS RECURSOS VINCULADOS</t>
         </is>
       </c>
       <c r="E364" t="n">
-        <v>110644.86</v>
+        <v>0</v>
       </c>
       <c r="F364" t="n">
-        <v>1495.96</v>
+        <v>0</v>
       </c>
       <c r="G364" t="n">
         <v>0</v>
       </c>
       <c r="H364" t="n">
-        <v>288206811</v>
+        <v>14594825</v>
       </c>
       <c r="I364" t="n">
         <v>0</v>
       </c>
       <c r="J364" t="inlineStr">
         <is>
-          <t>ATENCAO</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -14257,31 +14257,31 @@
         </is>
       </c>
       <c r="C365" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
+          <t>RECURSOS DIRETAMENTE ARRECADADOS</t>
         </is>
       </c>
       <c r="E365" t="n">
-        <v>0</v>
+        <v>110644.86</v>
       </c>
       <c r="F365" t="n">
-        <v>0</v>
+        <v>1495.96</v>
       </c>
       <c r="G365" t="n">
         <v>0</v>
       </c>
       <c r="H365" t="n">
-        <v>98740</v>
+        <v>288206811</v>
       </c>
       <c r="I365" t="n">
         <v>0</v>
       </c>
       <c r="J365" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>ATENCAO</t>
         </is>
       </c>
     </row>
@@ -14295,11 +14295,11 @@
         </is>
       </c>
       <c r="C366" t="n">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>ACORDOS E AJUSTES DE COOPERACAO MUTUA COM OS ESTADOS E O DISTRITO FEDERAL</t>
+          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
         </is>
       </c>
       <c r="E366" t="n">
@@ -14312,7 +14312,7 @@
         <v>0</v>
       </c>
       <c r="H366" t="n">
-        <v>761995</v>
+        <v>98740</v>
       </c>
       <c r="I366" t="n">
         <v>0</v>
@@ -14333,11 +14333,11 @@
         </is>
       </c>
       <c r="C367" t="n">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>CONVENIOS COM AS INSTITUICOES PRIVADAS E OS ORGANISMOS DO EXTERIOR</t>
+          <t>ACORDOS E AJUSTES DE COOPERACAO MUTUA COM OS ESTADOS E O DISTRITO FEDERAL</t>
         </is>
       </c>
       <c r="E367" t="n">
@@ -14350,7 +14350,7 @@
         <v>0</v>
       </c>
       <c r="H367" t="n">
-        <v>1502000</v>
+        <v>761995</v>
       </c>
       <c r="I367" t="n">
         <v>0</v>
@@ -14371,11 +14371,11 @@
         </is>
       </c>
       <c r="C368" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>CONVENIOS COM OS ESTADOS E O DISTRITO FEDERAL</t>
+          <t>CONVENIOS COM AS INSTITUICOES PRIVADAS E OS ORGANISMOS DO EXTERIOR</t>
         </is>
       </c>
       <c r="E368" t="n">
@@ -14388,7 +14388,7 @@
         <v>0</v>
       </c>
       <c r="H368" t="n">
-        <v>27253000</v>
+        <v>1502000</v>
       </c>
       <c r="I368" t="n">
         <v>0</v>
@@ -14409,11 +14409,11 @@
         </is>
       </c>
       <c r="C369" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
-          <t>CONVENIOS COM OS MUNICIPIOS</t>
+          <t>CONVENIOS COM OS ESTADOS E O DISTRITO FEDERAL</t>
         </is>
       </c>
       <c r="E369" t="n">
@@ -14426,7 +14426,7 @@
         <v>0</v>
       </c>
       <c r="H369" t="n">
-        <v>50348302</v>
+        <v>27253000</v>
       </c>
       <c r="I369" t="n">
         <v>0</v>
@@ -14447,31 +14447,31 @@
         </is>
       </c>
       <c r="C370" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
-          <t>RECURSOS DO FUNDO ESTADUAL DE ERRADICACAO DA MISERIA</t>
+          <t>CONVENIOS COM OS MUNICIPIOS</t>
         </is>
       </c>
       <c r="E370" t="n">
-        <v>88815732.95999999</v>
+        <v>0</v>
       </c>
       <c r="F370" t="n">
-        <v>776258168.76</v>
+        <v>0</v>
       </c>
       <c r="G370" t="n">
-        <v>792598408.45</v>
+        <v>0</v>
       </c>
       <c r="H370" t="n">
-        <v>545685054</v>
+        <v>50348302</v>
       </c>
       <c r="I370" t="n">
         <v>0</v>
       </c>
       <c r="J370" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -14485,31 +14485,31 @@
         </is>
       </c>
       <c r="C371" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t>TAXA DE FISCALIZACAO DE RECURSOS MINERARIOS</t>
+          <t>RECURSOS DO FUNDO ESTADUAL DE ERRADICACAO DA MISERIA</t>
         </is>
       </c>
       <c r="E371" t="n">
-        <v>374951627.24</v>
+        <v>88815732.95999999</v>
       </c>
       <c r="F371" t="n">
-        <v>407148083.68</v>
+        <v>776258168.76</v>
       </c>
       <c r="G371" t="n">
-        <v>424679277.42</v>
+        <v>792598408.45</v>
       </c>
       <c r="H371" t="n">
-        <v>380355187</v>
+        <v>545685054</v>
       </c>
       <c r="I371" t="n">
-        <v>0</v>
+        <v>830780338</v>
       </c>
       <c r="J371" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -14523,27 +14523,27 @@
         </is>
       </c>
       <c r="C372" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
-          <t>ACORDOS, AJUSTES E DEMAIS INSTRUMENTOS DE COOPERACAO MUTUA COM A UNIAO E SUAS ENTIDADES</t>
+          <t>TAXA DE FISCALIZACAO DE RECURSOS MINERARIOS</t>
         </is>
       </c>
       <c r="E372" t="n">
-        <v>0</v>
+        <v>374951627.24</v>
       </c>
       <c r="F372" t="n">
-        <v>0</v>
+        <v>407148083.68</v>
       </c>
       <c r="G372" t="n">
-        <v>0</v>
+        <v>424679277.42</v>
       </c>
       <c r="H372" t="n">
-        <v>76832000</v>
+        <v>380355187</v>
       </c>
       <c r="I372" t="n">
-        <v>0</v>
+        <v>436779625</v>
       </c>
       <c r="J372" t="inlineStr">
         <is>
@@ -14561,11 +14561,11 @@
         </is>
       </c>
       <c r="C373" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>ACORDOS E AJUSTES DE COOPERACAO MUTUA COM AS INSTITUICOES PRIVADAS E OS ORGANISMOS DO EXTERIOR</t>
+          <t>ACORDOS, AJUSTES E DEMAIS INSTRUMENTOS DE COOPERACAO MUTUA COM A UNIAO E SUAS ENTIDADES</t>
         </is>
       </c>
       <c r="E373" t="n">
@@ -14578,7 +14578,7 @@
         <v>0</v>
       </c>
       <c r="H373" t="n">
-        <v>25772605</v>
+        <v>76832000</v>
       </c>
       <c r="I373" t="n">
         <v>0</v>
@@ -14599,31 +14599,31 @@
         </is>
       </c>
       <c r="C374" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO PATRONAL PARA CUSTEIO DOS PROVENTOS DOS MILITARES</t>
+          <t>ACORDOS E AJUSTES DE COOPERACAO MUTUA COM AS INSTITUICOES PRIVADAS E OS ORGANISMOS DO EXTERIOR</t>
         </is>
       </c>
       <c r="E374" t="n">
         <v>0</v>
       </c>
       <c r="F374" t="n">
-        <v>84705643.87</v>
+        <v>0</v>
       </c>
       <c r="G374" t="n">
-        <v>42028879.08</v>
+        <v>0</v>
       </c>
       <c r="H374" t="n">
-        <v>545754463</v>
+        <v>25772605</v>
       </c>
       <c r="I374" t="n">
         <v>0</v>
       </c>
       <c r="J374" t="inlineStr">
         <is>
-          <t>ATENCAO</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -14637,24 +14637,24 @@
         </is>
       </c>
       <c r="C375" t="n">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO MILITAR PARA CUSTEIO DO SISTEMA DE PROTECAO SOCIAL DOS MILITARES</t>
+          <t>CONTRIBUICAO PATRONAL PARA CUSTEIO DOS PROVENTOS DOS MILITARES</t>
         </is>
       </c>
       <c r="E375" t="n">
-        <v>1532354109.02</v>
+        <v>0</v>
       </c>
       <c r="F375" t="n">
-        <v>1320239537.36</v>
+        <v>84705643.87</v>
       </c>
       <c r="G375" t="n">
-        <v>0</v>
+        <v>42028879.08</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>545754463</v>
       </c>
       <c r="I375" t="n">
         <v>0</v>
@@ -14675,14 +14675,18 @@
         </is>
       </c>
       <c r="C376" t="n">
-        <v>79</v>
-      </c>
-      <c r="D376" t="inlineStr"/>
+        <v>78</v>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>CONTRIBUICAO MILITAR PARA CUSTEIO DO SISTEMA DE PROTECAO SOCIAL DOS MILITARES</t>
+        </is>
+      </c>
       <c r="E376" t="n">
-        <v>0</v>
+        <v>1532354109.02</v>
       </c>
       <c r="F376" t="n">
-        <v>0</v>
+        <v>1320239537.36</v>
       </c>
       <c r="G376" t="n">
         <v>0</v>
@@ -14695,7 +14699,7 @@
       </c>
       <c r="J376" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>ATENCAO</t>
         </is>
       </c>
     </row>
@@ -14709,31 +14713,27 @@
         </is>
       </c>
       <c r="C377" t="n">
-        <v>80</v>
-      </c>
-      <c r="D377" t="inlineStr">
-        <is>
-          <t>RECURSOS DO ACORDO DE REPACTUACAO DO RIO DOCE</t>
-        </is>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="D377" t="inlineStr"/>
       <c r="E377" t="n">
         <v>0</v>
       </c>
       <c r="F377" t="n">
-        <v>744936050.24</v>
+        <v>0</v>
       </c>
       <c r="G377" t="n">
-        <v>816925213.46</v>
+        <v>0</v>
       </c>
       <c r="H377" t="n">
-        <v>809526379</v>
+        <v>0</v>
       </c>
       <c r="I377" t="n">
-        <v>1141788255</v>
+        <v>0</v>
       </c>
       <c r="J377" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -14747,31 +14747,31 @@
         </is>
       </c>
       <c r="C378" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
-          <t>NOTIFICACAO DE INFRACAO DE TRANSITO ESTADO</t>
+          <t>RECURSOS DO ACORDO DE REPACTUACAO DO RIO DOCE</t>
         </is>
       </c>
       <c r="E378" t="n">
-        <v>142343203.39</v>
+        <v>0</v>
       </c>
       <c r="F378" t="n">
-        <v>115478246.12</v>
+        <v>744936050.24</v>
       </c>
       <c r="G378" t="n">
-        <v>137459096</v>
+        <v>816925213.46</v>
       </c>
       <c r="H378" t="n">
-        <v>137459096</v>
+        <v>809526379</v>
       </c>
       <c r="I378" t="n">
-        <v>0</v>
+        <v>1224979677</v>
       </c>
       <c r="J378" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>VALOR DISCREPANTE</t>
         </is>
       </c>
     </row>
@@ -14785,31 +14785,31 @@
         </is>
       </c>
       <c r="C379" t="n">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
-          <t>TRANSFERENCIAS DO FUNDEB - COMPLEMENTACAO DA UNIAO - VAAR</t>
+          <t>NOTIFICACAO DE INFRACAO DE TRANSITO ESTADO</t>
         </is>
       </c>
       <c r="E379" t="n">
-        <v>0</v>
+        <v>142343203.39</v>
       </c>
       <c r="F379" t="n">
-        <v>0</v>
+        <v>115478246.12</v>
       </c>
       <c r="G379" t="n">
-        <v>0</v>
+        <v>137459096</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>137459096</v>
       </c>
       <c r="I379" t="n">
         <v>0</v>
       </c>
       <c r="J379" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -14823,31 +14823,31 @@
         </is>
       </c>
       <c r="C380" t="n">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
-          <t>TAXA FLORESTAL - ADMINISTRACAO DIRETA</t>
+          <t>TRANSFERENCIAS DO FUNDEB - COMPLEMENTACAO DA UNIAO - VAAR</t>
         </is>
       </c>
       <c r="E380" t="n">
-        <v>12564417.01</v>
+        <v>0</v>
       </c>
       <c r="F380" t="n">
-        <v>9420778.390000001</v>
+        <v>0</v>
       </c>
       <c r="G380" t="n">
-        <v>9844803</v>
+        <v>0</v>
       </c>
       <c r="H380" t="n">
-        <v>9844803</v>
+        <v>0</v>
       </c>
       <c r="I380" t="n">
         <v>0</v>
       </c>
       <c r="J380" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -14861,31 +14861,31 @@
         </is>
       </c>
       <c r="C381" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
-          <t>RECURSOS RECEBIDOS POR DANOS ADVINDOS DE DESASTRES SOCIOAMBIENTAIS</t>
+          <t>TAXA FLORESTAL - ADMINISTRACAO DIRETA</t>
         </is>
       </c>
       <c r="E381" t="n">
-        <v>3477781128.36</v>
+        <v>12564417.01</v>
       </c>
       <c r="F381" t="n">
-        <v>3149510852.67</v>
+        <v>9420778.390000001</v>
       </c>
       <c r="G381" t="n">
-        <v>1594250717.24</v>
+        <v>9844803</v>
       </c>
       <c r="H381" t="n">
-        <v>1036541750</v>
+        <v>9844803</v>
       </c>
       <c r="I381" t="n">
-        <v>1044164747</v>
+        <v>9153576</v>
       </c>
       <c r="J381" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -14899,31 +14899,31 @@
         </is>
       </c>
       <c r="C382" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
-          <t>TRANSFERENCIAS ESPECIAIS DE RECURSOS DA UNIAO - RECURSOS RECEBIDOS ATE 2023</t>
+          <t>RECURSOS RECEBIDOS POR DANOS ADVINDOS DE DESASTRES SOCIOAMBIENTAIS</t>
         </is>
       </c>
       <c r="E382" t="n">
-        <v>45083429.54</v>
+        <v>3477781128.36</v>
       </c>
       <c r="F382" t="n">
-        <v>5162256.36</v>
+        <v>3149510852.67</v>
       </c>
       <c r="G382" t="n">
-        <v>97738342.31</v>
+        <v>1594250717.24</v>
       </c>
       <c r="H382" t="n">
-        <v>100000000</v>
+        <v>1036541750</v>
       </c>
       <c r="I382" t="n">
-        <v>0</v>
+        <v>1606242280</v>
       </c>
       <c r="J382" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -14937,29 +14937,67 @@
         </is>
       </c>
       <c r="C383" t="n">
+        <v>97</v>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>TRANSFERENCIAS ESPECIAIS DE RECURSOS DA UNIAO - RECURSOS RECEBIDOS ATE 2023</t>
+        </is>
+      </c>
+      <c r="E383" t="n">
+        <v>45083429.54</v>
+      </c>
+      <c r="F383" t="n">
+        <v>5162256.36</v>
+      </c>
+      <c r="G383" t="n">
+        <v>97738342.31</v>
+      </c>
+      <c r="H383" t="n">
+        <v>100000000</v>
+      </c>
+      <c r="I383" t="n">
+        <v>4363772</v>
+      </c>
+      <c r="J383" t="inlineStr">
+        <is>
+          <t>VALOR DISCREPANTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="n">
+        <v>9901</v>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>RGE</t>
+        </is>
+      </c>
+      <c r="C384" t="n">
         <v>98</v>
       </c>
-      <c r="D383" t="inlineStr">
+      <c r="D384" t="inlineStr">
         <is>
           <t>TRANSFERENCIAS ESPECIAIS DE RECURSOS DA UNIAO</t>
         </is>
       </c>
-      <c r="E383" t="n">
-        <v>0</v>
-      </c>
-      <c r="F383" t="n">
-        <v>0</v>
-      </c>
-      <c r="G383" t="n">
-        <v>0</v>
-      </c>
-      <c r="H383" t="n">
-        <v>0</v>
-      </c>
-      <c r="I383" t="n">
-        <v>0</v>
-      </c>
-      <c r="J383" t="inlineStr">
+      <c r="E384" t="n">
+        <v>0</v>
+      </c>
+      <c r="F384" t="n">
+        <v>0</v>
+      </c>
+      <c r="G384" t="n">
+        <v>0</v>
+      </c>
+      <c r="H384" t="n">
+        <v>0</v>
+      </c>
+      <c r="I384" t="n">
+        <v>0</v>
+      </c>
+      <c r="J384" t="inlineStr">
         <is>
           <t>OK</t>
         </is>

--- a/data/fonte_analise.xlsx
+++ b/data/fonte_analise.xlsx
@@ -2491,11 +2491,11 @@
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>4500000</v>
+        <v>89726402</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>VALOR DISCREPANTE</t>
         </is>
       </c>
     </row>
@@ -4353,11 +4353,11 @@
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>ATENCAO</t>
+          <t>VALOR DISCREPANTE</t>
         </is>
       </c>
     </row>
@@ -5189,11 +5189,11 @@
         <v>2807600</v>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
+        <v>5138000</v>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -6937,11 +6937,11 @@
         <v>2000</v>
       </c>
       <c r="I171" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>VALOR DISCREPANTE</t>
         </is>
       </c>
     </row>
@@ -6975,11 +6975,11 @@
         <v>3150000</v>
       </c>
       <c r="I172" t="n">
-        <v>0</v>
+        <v>2478552</v>
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -7697,11 +7697,11 @@
         <v>4031000</v>
       </c>
       <c r="I191" t="n">
-        <v>0</v>
+        <v>4003371</v>
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -8913,7 +8913,7 @@
         <v>392902891</v>
       </c>
       <c r="I223" t="n">
-        <v>633223</v>
+        <v>853223</v>
       </c>
       <c r="J223" t="inlineStr">
         <is>
@@ -9027,7 +9027,7 @@
         <v>77988440</v>
       </c>
       <c r="I226" t="n">
-        <v>79274174</v>
+        <v>79275924</v>
       </c>
       <c r="J226" t="inlineStr">
         <is>
@@ -9901,11 +9901,11 @@
         <v>60000</v>
       </c>
       <c r="I249" t="n">
-        <v>0</v>
+        <v>55000</v>
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -10243,7 +10243,7 @@
         <v>15526992</v>
       </c>
       <c r="I258" t="n">
-        <v>24272282</v>
+        <v>25393176</v>
       </c>
       <c r="J258" t="inlineStr">
         <is>
@@ -10319,11 +10319,11 @@
         <v>1200000</v>
       </c>
       <c r="I260" t="n">
-        <v>0</v>
+        <v>153600000</v>
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>VALOR DISCREPANTE</t>
         </is>
       </c>
     </row>
@@ -12029,11 +12029,11 @@
         <v>22452867</v>
       </c>
       <c r="I305" t="n">
-        <v>0</v>
+        <v>32000000</v>
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -12371,11 +12371,11 @@
         <v>468195</v>
       </c>
       <c r="I314" t="n">
-        <v>0</v>
+        <v>470000</v>
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>ATENCAO</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -13001,7 +13001,7 @@
         <v>0</v>
       </c>
       <c r="I331" t="n">
-        <v>0</v>
+        <v>6000000</v>
       </c>
       <c r="J331" t="inlineStr">
         <is>
@@ -13381,7 +13381,7 @@
         <v>4081035721</v>
       </c>
       <c r="I341" t="n">
-        <v>4160432202</v>
+        <v>4156693997</v>
       </c>
       <c r="J341" t="inlineStr">
         <is>

--- a/data/fonte_analise.xlsx
+++ b/data/fonte_analise.xlsx
@@ -2853,7 +2853,11 @@
       <c r="C64" t="n">
         <v>79</v>
       </c>
-      <c r="D64" t="inlineStr"/>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>CONTRIBUICAO PATRONAL PARA O FUNPREV</t>
+        </is>
+      </c>
       <c r="E64" t="n">
         <v>0</v>
       </c>
@@ -5737,7 +5741,11 @@
       <c r="C140" t="n">
         <v>79</v>
       </c>
-      <c r="D140" t="inlineStr"/>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>CONTRIBUICAO PATRONAL PARA O FUNPREV</t>
+        </is>
+      </c>
       <c r="E140" t="n">
         <v>0</v>
       </c>
@@ -6227,7 +6235,11 @@
       <c r="C153" t="n">
         <v>79</v>
       </c>
-      <c r="D153" t="inlineStr"/>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>CONTRIBUICAO PATRONAL PARA O FUNPREV</t>
+        </is>
+      </c>
       <c r="E153" t="n">
         <v>0</v>
       </c>
@@ -7515,7 +7527,11 @@
       <c r="C187" t="n">
         <v>79</v>
       </c>
-      <c r="D187" t="inlineStr"/>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>CONTRIBUICAO PATRONAL PARA O FUNPREV</t>
+        </is>
+      </c>
       <c r="E187" t="n">
         <v>0</v>
       </c>
@@ -10773,7 +10789,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>FUNDHAB</t>
+          <t>FUNDALEMG</t>
         </is>
       </c>
       <c r="C273" t="n">
@@ -14867,7 +14883,11 @@
       <c r="C381" t="n">
         <v>79</v>
       </c>
-      <c r="D381" t="inlineStr"/>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>CONTRIBUICAO PATRONAL PARA O FUNPREV</t>
+        </is>
+      </c>
       <c r="E381" t="n">
         <v>0</v>
       </c>

--- a/data/fonte_analise.xlsx
+++ b/data/fonte_analise.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J388"/>
+  <dimension ref="A1:J386"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3593,11 +3593,11 @@
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>8027237</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -3631,11 +3631,11 @@
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>61000</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -4315,11 +4315,11 @@
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>4000000</v>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>ATENCAO</t>
+          <t>VALOR DISCREPANTE</t>
         </is>
       </c>
     </row>
@@ -5341,11 +5341,11 @@
         <v>11000</v>
       </c>
       <c r="I129" t="n">
-        <v>2000</v>
+        <v>120000</v>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -5607,11 +5607,11 @@
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>ATENCAO</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -5645,11 +5645,11 @@
         <v>43206000</v>
       </c>
       <c r="I137" t="n">
-        <v>0</v>
+        <v>47536000</v>
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -5683,11 +5683,11 @@
         <v>3339843</v>
       </c>
       <c r="I138" t="n">
-        <v>0</v>
+        <v>5600000</v>
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>ATENCAO</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -5721,11 +5721,11 @@
         <v>16592000</v>
       </c>
       <c r="I139" t="n">
-        <v>0</v>
+        <v>19164000</v>
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -5759,7 +5759,7 @@
         <v>0</v>
       </c>
       <c r="I140" t="n">
-        <v>0</v>
+        <v>500000</v>
       </c>
       <c r="J140" t="inlineStr">
         <is>
@@ -5797,11 +5797,11 @@
         <v>20197884</v>
       </c>
       <c r="I141" t="n">
-        <v>0</v>
+        <v>30400000</v>
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>VALOR DISCREPANTE</t>
         </is>
       </c>
     </row>
@@ -7811,11 +7811,11 @@
         <v>572166857</v>
       </c>
       <c r="I194" t="n">
-        <v>1069590575</v>
+        <v>739590575</v>
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -9369,11 +9369,11 @@
         <v>109514500</v>
       </c>
       <c r="I235" t="n">
-        <v>0</v>
+        <v>109514500</v>
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -10699,11 +10699,11 @@
         <v>41730000</v>
       </c>
       <c r="I270" t="n">
-        <v>0</v>
+        <v>40970000</v>
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -10899,11 +10899,11 @@
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>4141</v>
+        <v>4171</v>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>FPE</t>
+          <t>FUNDERUR</t>
         </is>
       </c>
       <c r="C276" t="n">
@@ -10915,7 +10915,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>0</v>
+        <v>34894.36</v>
       </c>
       <c r="F276" t="n">
         <v>0</v>
@@ -10927,7 +10927,7 @@
         <v>0</v>
       </c>
       <c r="I276" t="n">
-        <v>8027237</v>
+        <v>0</v>
       </c>
       <c r="J276" t="inlineStr">
         <is>
@@ -10937,19 +10937,19 @@
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>4141</v>
+        <v>4251</v>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>FPE</t>
+          <t>FEAS</t>
         </is>
       </c>
       <c r="C277" t="n">
-        <v>61</v>
+        <v>5</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
+          <t>TRANSFERENCIAS DA UNIAO VINCULADAS A ASSISTENCIA SOCIAL - EMENDAS INDIVIDUAIS</t>
         </is>
       </c>
       <c r="E277" t="n">
@@ -10959,55 +10959,55 @@
         <v>0</v>
       </c>
       <c r="G277" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="I277" t="n">
-        <v>61000</v>
+        <v>0</v>
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>ATENCAO</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>4171</v>
+        <v>4251</v>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>FUNDERUR</t>
+          <t>FEAS</t>
         </is>
       </c>
       <c r="C278" t="n">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>RECURSOS DIRETAMENTE ARRECADADOS</t>
+          <t>TRANSFERENCIAS DA UNIAO VINCULADAS A ASSISTENCIA SOCIAL - EMENDAS DE BANCADA</t>
         </is>
       </c>
       <c r="E278" t="n">
-        <v>34894.36</v>
+        <v>0</v>
       </c>
       <c r="F278" t="n">
         <v>0</v>
       </c>
       <c r="G278" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="I278" t="n">
         <v>0</v>
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>ATENCAO</t>
         </is>
       </c>
     </row>
@@ -11021,49 +11021,49 @@
         </is>
       </c>
       <c r="C279" t="n">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>TRANSFERENCIAS DA UNIAO VINCULADAS A ASSISTENCIA SOCIAL - EMENDAS INDIVIDUAIS</t>
+          <t>TRANSFERENCIAS DA UNIAO VINCULADAS A ASSISTENCIA SOCIAL - EXCETO EMENDAS INDIVIDUAIS E DE BANCADA</t>
         </is>
       </c>
       <c r="E279" t="n">
-        <v>0</v>
+        <v>4101670.99</v>
       </c>
       <c r="F279" t="n">
-        <v>0</v>
+        <v>3883783.23</v>
       </c>
       <c r="G279" t="n">
-        <v>100000</v>
+        <v>8854586</v>
       </c>
       <c r="H279" t="n">
-        <v>100000</v>
+        <v>8854586</v>
       </c>
       <c r="I279" t="n">
         <v>0</v>
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>ATENCAO</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>4251</v>
+        <v>4291</v>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>FEAS</t>
+          <t>FES</t>
         </is>
       </c>
       <c r="C280" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>TRANSFERENCIAS DA UNIAO VINCULADAS A ASSISTENCIA SOCIAL - EMENDAS DE BANCADA</t>
+          <t>CONVENIOS COM A UNIAO E SUAS ENTIDADES - EMENDAS INDIVIDUAIS</t>
         </is>
       </c>
       <c r="E280" t="n">
@@ -11073,55 +11073,55 @@
         <v>0</v>
       </c>
       <c r="G280" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="H280" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="I280" t="n">
         <v>0</v>
       </c>
       <c r="J280" t="inlineStr">
         <is>
-          <t>ATENCAO</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>4251</v>
+        <v>4291</v>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>FEAS</t>
+          <t>FES</t>
         </is>
       </c>
       <c r="C281" t="n">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>TRANSFERENCIAS DA UNIAO VINCULADAS A ASSISTENCIA SOCIAL - EXCETO EMENDAS INDIVIDUAIS E DE BANCADA</t>
+          <t>RECURSOS ORDINARIOS - RECURSOS NAO VINCULADOS DE IMPOSTOS</t>
         </is>
       </c>
       <c r="E281" t="n">
-        <v>4101670.99</v>
+        <v>33662.32</v>
       </c>
       <c r="F281" t="n">
-        <v>3883783.23</v>
+        <v>29841.92</v>
       </c>
       <c r="G281" t="n">
-        <v>8854586</v>
+        <v>7092222.25</v>
       </c>
       <c r="H281" t="n">
-        <v>8854586</v>
+        <v>7732896</v>
       </c>
       <c r="I281" t="n">
-        <v>0</v>
+        <v>35000</v>
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -11135,31 +11135,31 @@
         </is>
       </c>
       <c r="C282" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>CONVENIOS COM A UNIAO E SUAS ENTIDADES - EMENDAS INDIVIDUAIS</t>
+          <t>CONVENIOS COM A UNIAO E SUAS ENTIDADES - EXCETO EMENDAS INDIVIDUAIS E DE BANCADA</t>
         </is>
       </c>
       <c r="E282" t="n">
-        <v>0</v>
+        <v>4799349.48</v>
       </c>
       <c r="F282" t="n">
-        <v>0</v>
+        <v>729648.88</v>
       </c>
       <c r="G282" t="n">
-        <v>0</v>
+        <v>1846945</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>1846945</v>
       </c>
       <c r="I282" t="n">
         <v>0</v>
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -11173,31 +11173,31 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>RECURSOS ORDINARIOS - RECURSOS NAO VINCULADOS DE IMPOSTOS</t>
+          <t>TRANSFERENCIAS DA UNIAO VINCULADAS A SAUDE</t>
         </is>
       </c>
       <c r="E283" t="n">
-        <v>33662.32</v>
+        <v>28556832.68</v>
       </c>
       <c r="F283" t="n">
-        <v>29841.92</v>
+        <v>1872650.85</v>
       </c>
       <c r="G283" t="n">
-        <v>7092222.25</v>
+        <v>2340568.86</v>
       </c>
       <c r="H283" t="n">
-        <v>7732896</v>
+        <v>2501000</v>
       </c>
       <c r="I283" t="n">
-        <v>35000</v>
+        <v>0</v>
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -11211,24 +11211,24 @@
         </is>
       </c>
       <c r="C284" t="n">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>CONVENIOS COM A UNIAO E SUAS ENTIDADES - EXCETO EMENDAS INDIVIDUAIS E DE BANCADA</t>
+          <t>TRANSFERENCIAS DA UNIAO POR MEIO DE PORTARIA - EXCETO EMENDAS INDIVIDUAIS E DE BANCADA</t>
         </is>
       </c>
       <c r="E284" t="n">
-        <v>4799349.48</v>
+        <v>109033481.33</v>
       </c>
       <c r="F284" t="n">
-        <v>729648.88</v>
+        <v>100687286.87</v>
       </c>
       <c r="G284" t="n">
-        <v>1846945</v>
+        <v>72719660</v>
       </c>
       <c r="H284" t="n">
-        <v>1846945</v>
+        <v>72719660</v>
       </c>
       <c r="I284" t="n">
         <v>0</v>
@@ -11249,31 +11249,31 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>TRANSFERENCIAS DA UNIAO VINCULADAS A SAUDE</t>
+          <t>RECURSOS DIRETAMENTE ARRECADADOS</t>
         </is>
       </c>
       <c r="E285" t="n">
-        <v>28556832.68</v>
+        <v>31368873.57</v>
       </c>
       <c r="F285" t="n">
-        <v>1872650.85</v>
+        <v>18056126.68</v>
       </c>
       <c r="G285" t="n">
-        <v>2340568.86</v>
+        <v>21505708.23</v>
       </c>
       <c r="H285" t="n">
-        <v>2501000</v>
+        <v>22588635</v>
       </c>
       <c r="I285" t="n">
-        <v>0</v>
+        <v>18015000</v>
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -11287,24 +11287,24 @@
         </is>
       </c>
       <c r="C286" t="n">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>TRANSFERENCIAS DA UNIAO POR MEIO DE PORTARIA - EXCETO EMENDAS INDIVIDUAIS E DE BANCADA</t>
+          <t>TRANSFERENCIAS DA UNIAO VINCULADAS A SAUDE - BLOCO MANUTENCAO - EMENDAS INDIVIDUAIS</t>
         </is>
       </c>
       <c r="E286" t="n">
-        <v>109033481.33</v>
+        <v>82495476.76000001</v>
       </c>
       <c r="F286" t="n">
-        <v>100687286.87</v>
+        <v>18670638.83</v>
       </c>
       <c r="G286" t="n">
-        <v>72719660</v>
+        <v>42477661</v>
       </c>
       <c r="H286" t="n">
-        <v>72719660</v>
+        <v>42477661</v>
       </c>
       <c r="I286" t="n">
         <v>0</v>
@@ -11325,31 +11325,31 @@
         </is>
       </c>
       <c r="C287" t="n">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>RECURSOS DIRETAMENTE ARRECADADOS</t>
+          <t>TRANSFERENCIAS DA UNIAO VINCULADAS A SAUDE - BLOCO MANUTENCAO - EMENDAS DE BANCADA</t>
         </is>
       </c>
       <c r="E287" t="n">
-        <v>31368873.57</v>
+        <v>19918780.03</v>
       </c>
       <c r="F287" t="n">
-        <v>18056126.68</v>
+        <v>3475252.85</v>
       </c>
       <c r="G287" t="n">
-        <v>21505708.23</v>
+        <v>10188627</v>
       </c>
       <c r="H287" t="n">
-        <v>22588635</v>
+        <v>10188627</v>
       </c>
       <c r="I287" t="n">
-        <v>18015000</v>
+        <v>0</v>
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -11363,24 +11363,24 @@
         </is>
       </c>
       <c r="C288" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>TRANSFERENCIAS DA UNIAO VINCULADAS A SAUDE - BLOCO MANUTENCAO - EMENDAS INDIVIDUAIS</t>
+          <t>TRANSFERENCIAS DA UNIAO VINCULADAS A SAUDE - BLOCO ESTRUTURACAO - EMENDAS INDIVIDUAIS</t>
         </is>
       </c>
       <c r="E288" t="n">
-        <v>82495476.76000001</v>
+        <v>135116.14</v>
       </c>
       <c r="F288" t="n">
-        <v>18670638.83</v>
+        <v>121389.85</v>
       </c>
       <c r="G288" t="n">
-        <v>42477661</v>
+        <v>1511346</v>
       </c>
       <c r="H288" t="n">
-        <v>42477661</v>
+        <v>1511346</v>
       </c>
       <c r="I288" t="n">
         <v>0</v>
@@ -11401,31 +11401,31 @@
         </is>
       </c>
       <c r="C289" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>TRANSFERENCIAS DA UNIAO VINCULADAS A SAUDE - BLOCO MANUTENCAO - EMENDAS DE BANCADA</t>
+          <t>TRANSFERENCIAS DA UNIAO VINCULADAS A SAUDE - BLOCO ESTRUTURACAO - EMENDAS DE BANCADA</t>
         </is>
       </c>
       <c r="E289" t="n">
-        <v>19918780.03</v>
+        <v>0</v>
       </c>
       <c r="F289" t="n">
-        <v>3475252.85</v>
+        <v>0</v>
       </c>
       <c r="G289" t="n">
-        <v>10188627</v>
+        <v>18655950</v>
       </c>
       <c r="H289" t="n">
-        <v>10188627</v>
+        <v>18655950</v>
       </c>
       <c r="I289" t="n">
         <v>0</v>
       </c>
       <c r="J289" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>ATENCAO</t>
         </is>
       </c>
     </row>
@@ -11439,24 +11439,24 @@
         </is>
       </c>
       <c r="C290" t="n">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>TRANSFERENCIAS DA UNIAO VINCULADAS A SAUDE - BLOCO ESTRUTURACAO - EMENDAS INDIVIDUAIS</t>
+          <t>TRANSFERENCIAS DA UNIAO VINCULADAS A SAUDE - BLOCO MANUTENCAO - EXCETO EMENDAS INDIV. E DE BANCADA</t>
         </is>
       </c>
       <c r="E290" t="n">
-        <v>135116.14</v>
+        <v>602178448.73</v>
       </c>
       <c r="F290" t="n">
-        <v>121389.85</v>
+        <v>729575086.1900001</v>
       </c>
       <c r="G290" t="n">
-        <v>1511346</v>
+        <v>570036170.14</v>
       </c>
       <c r="H290" t="n">
-        <v>1511346</v>
+        <v>570034780</v>
       </c>
       <c r="I290" t="n">
         <v>0</v>
@@ -11477,31 +11477,31 @@
         </is>
       </c>
       <c r="C291" t="n">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>TRANSFERENCIAS DA UNIAO VINCULADAS A SAUDE - BLOCO ESTRUTURACAO - EMENDAS DE BANCADA</t>
+          <t>TRANSFERENCIAS DA UNIAO VINCULADAS A SAUDE - BLOCO ESTRUTURACAO - EXCETO EMENDAS INDIV. E DE BANCADA</t>
         </is>
       </c>
       <c r="E291" t="n">
-        <v>0</v>
+        <v>474163.94</v>
       </c>
       <c r="F291" t="n">
-        <v>0</v>
+        <v>6359437.35</v>
       </c>
       <c r="G291" t="n">
-        <v>18655950</v>
+        <v>153951000</v>
       </c>
       <c r="H291" t="n">
-        <v>18655950</v>
+        <v>153951000</v>
       </c>
       <c r="I291" t="n">
         <v>0</v>
       </c>
       <c r="J291" t="inlineStr">
         <is>
-          <t>ATENCAO</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -11515,103 +11515,103 @@
         </is>
       </c>
       <c r="C292" t="n">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>TRANSFERENCIAS DA UNIAO VINCULADAS A SAUDE - BLOCO MANUTENCAO - EXCETO EMENDAS INDIV. E DE BANCADA</t>
+          <t>RECURSOS RECEBIDOS POR DANOS ADVINDOS DE DESASTRES SOCIOAMBIENTAIS</t>
         </is>
       </c>
       <c r="E292" t="n">
-        <v>602178448.73</v>
+        <v>0</v>
       </c>
       <c r="F292" t="n">
-        <v>729575086.1900001</v>
+        <v>0</v>
       </c>
       <c r="G292" t="n">
-        <v>570036170.14</v>
+        <v>0</v>
       </c>
       <c r="H292" t="n">
-        <v>570034780</v>
+        <v>0</v>
       </c>
       <c r="I292" t="n">
         <v>0</v>
       </c>
       <c r="J292" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>4291</v>
+        <v>4331</v>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>FES</t>
+          <t>FDM</t>
         </is>
       </c>
       <c r="C293" t="n">
-        <v>93</v>
+        <v>9</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>TRANSFERENCIAS DA UNIAO VINCULADAS A SAUDE - BLOCO ESTRUTURACAO - EXCETO EMENDAS INDIV. E DE BANCADA</t>
+          <t>TERMOS DE AJUSTAMENTO, DOACOES CONTROLADAS POR INSTRUMENTO JURIDICO E CONGENERES</t>
         </is>
       </c>
       <c r="E293" t="n">
-        <v>474163.94</v>
+        <v>0</v>
       </c>
       <c r="F293" t="n">
-        <v>6359437.35</v>
+        <v>0</v>
       </c>
       <c r="G293" t="n">
-        <v>153951000</v>
+        <v>0</v>
       </c>
       <c r="H293" t="n">
-        <v>153951000</v>
+        <v>0</v>
       </c>
       <c r="I293" t="n">
         <v>0</v>
       </c>
       <c r="J293" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>4291</v>
+        <v>4331</v>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>FES</t>
+          <t>FDM</t>
         </is>
       </c>
       <c r="C294" t="n">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>RECURSOS RECEBIDOS POR DANOS ADVINDOS DE DESASTRES SOCIOAMBIENTAIS</t>
+          <t>OUTROS RECURSOS VINCULADOS</t>
         </is>
       </c>
       <c r="E294" t="n">
-        <v>0</v>
+        <v>653201.86</v>
       </c>
       <c r="F294" t="n">
-        <v>0</v>
+        <v>2647909.82</v>
       </c>
       <c r="G294" t="n">
-        <v>0</v>
+        <v>3299636.63</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>3592436</v>
       </c>
       <c r="I294" t="n">
-        <v>0</v>
+        <v>3914680</v>
       </c>
       <c r="J294" t="inlineStr">
         <is>
@@ -11621,73 +11621,73 @@
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>4331</v>
+        <v>4341</v>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>FDM</t>
+          <t>FHIDRO</t>
         </is>
       </c>
       <c r="C295" t="n">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>TERMOS DE AJUSTAMENTO, DOACOES CONTROLADAS POR INSTRUMENTO JURIDICO E CONGENERES</t>
+          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
         </is>
       </c>
       <c r="E295" t="n">
-        <v>0</v>
+        <v>1066314.9</v>
       </c>
       <c r="F295" t="n">
-        <v>0</v>
+        <v>123999.73</v>
       </c>
       <c r="G295" t="n">
-        <v>0</v>
+        <v>1375000</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>1500000</v>
       </c>
       <c r="I295" t="n">
         <v>0</v>
       </c>
       <c r="J295" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>4331</v>
+        <v>4381</v>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>FDM</t>
+          <t>FUNTRANS</t>
         </is>
       </c>
       <c r="C296" t="n">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>OUTROS RECURSOS VINCULADOS</t>
+          <t>TAXA DE LICENCIAMENTO DA FAIXA DE DOMINIO DAS RODOVIAS</t>
         </is>
       </c>
       <c r="E296" t="n">
-        <v>653201.86</v>
+        <v>4524222.65</v>
       </c>
       <c r="F296" t="n">
-        <v>2647909.82</v>
+        <v>6690432.24</v>
       </c>
       <c r="G296" t="n">
-        <v>3299636.63</v>
+        <v>6693703.84</v>
       </c>
       <c r="H296" t="n">
-        <v>3592436</v>
+        <v>3871712</v>
       </c>
       <c r="I296" t="n">
-        <v>3914680</v>
+        <v>6682512</v>
       </c>
       <c r="J296" t="inlineStr">
         <is>
@@ -11697,39 +11697,39 @@
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>4341</v>
+        <v>4381</v>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>FHIDRO</t>
+          <t>FUNTRANS</t>
         </is>
       </c>
       <c r="C297" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
+          <t>RECURSOS DIRETAMENTE ARRECADADOS</t>
         </is>
       </c>
       <c r="E297" t="n">
-        <v>1066314.9</v>
+        <v>402414122.98</v>
       </c>
       <c r="F297" t="n">
-        <v>123999.73</v>
+        <v>266230336.06</v>
       </c>
       <c r="G297" t="n">
-        <v>1375000</v>
+        <v>265956581.08</v>
       </c>
       <c r="H297" t="n">
-        <v>1500000</v>
+        <v>154145937</v>
       </c>
       <c r="I297" t="n">
-        <v>0</v>
+        <v>139846409</v>
       </c>
       <c r="J297" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>VALOR DISCREPANTE</t>
         </is>
       </c>
     </row>
@@ -11743,27 +11743,27 @@
         </is>
       </c>
       <c r="C298" t="n">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>TAXA DE LICENCIAMENTO DA FAIXA DE DOMINIO DAS RODOVIAS</t>
+          <t>NOTIFICACAO DE INFRACAO DE TRANSITO FUNTRANS</t>
         </is>
       </c>
       <c r="E298" t="n">
-        <v>4524222.65</v>
+        <v>188893259.34</v>
       </c>
       <c r="F298" t="n">
-        <v>6690432.24</v>
+        <v>198337817.02</v>
       </c>
       <c r="G298" t="n">
-        <v>6693703.84</v>
+        <v>196164760.84</v>
       </c>
       <c r="H298" t="n">
-        <v>3871712</v>
+        <v>196165506</v>
       </c>
       <c r="I298" t="n">
-        <v>6682512</v>
+        <v>220409702</v>
       </c>
       <c r="J298" t="inlineStr">
         <is>
@@ -11773,73 +11773,73 @@
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>4381</v>
+        <v>4421</v>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>FUNTRANS</t>
+          <t>FUNDIF</t>
         </is>
       </c>
       <c r="C299" t="n">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>RECURSOS DIRETAMENTE ARRECADADOS</t>
+          <t>MULTAS PECUNIARIAS E JUROS DE MORA FIXADOS EM SENTENCAS JUDICIAIS</t>
         </is>
       </c>
       <c r="E299" t="n">
-        <v>402414122.98</v>
+        <v>4429797.62</v>
       </c>
       <c r="F299" t="n">
-        <v>266230336.06</v>
+        <v>8858863.109999999</v>
       </c>
       <c r="G299" t="n">
-        <v>265956581.08</v>
+        <v>4414741.31</v>
       </c>
       <c r="H299" t="n">
-        <v>154145937</v>
+        <v>4653000</v>
       </c>
       <c r="I299" t="n">
-        <v>139846409</v>
+        <v>9754685</v>
       </c>
       <c r="J299" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>4381</v>
+        <v>4441</v>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>FUNTRANS</t>
+          <t>FUNEMP</t>
         </is>
       </c>
       <c r="C300" t="n">
-        <v>83</v>
+        <v>47</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>NOTIFICACAO DE INFRACAO DE TRANSITO FUNTRANS</t>
+          <t>ALIENACAO DE BENS DE ENTIDADES ESTADUAIS</t>
         </is>
       </c>
       <c r="E300" t="n">
-        <v>188893259.34</v>
+        <v>0</v>
       </c>
       <c r="F300" t="n">
-        <v>198337817.02</v>
+        <v>0</v>
       </c>
       <c r="G300" t="n">
-        <v>196164760.84</v>
+        <v>50000</v>
       </c>
       <c r="H300" t="n">
-        <v>196165506</v>
+        <v>50000</v>
       </c>
       <c r="I300" t="n">
-        <v>220409702</v>
+        <v>50000</v>
       </c>
       <c r="J300" t="inlineStr">
         <is>
@@ -11849,35 +11849,35 @@
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>4421</v>
+        <v>4441</v>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>FUNDIF</t>
+          <t>FUNEMP</t>
         </is>
       </c>
       <c r="C301" t="n">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>MULTAS PECUNIARIAS E JUROS DE MORA FIXADOS EM SENTENCAS JUDICIAIS</t>
+          <t>RECURSOS DIRETAMENTE ARRECADADOS</t>
         </is>
       </c>
       <c r="E301" t="n">
-        <v>4429797.62</v>
+        <v>52558416.66</v>
       </c>
       <c r="F301" t="n">
-        <v>8858863.109999999</v>
+        <v>72442118.54000001</v>
       </c>
       <c r="G301" t="n">
-        <v>4414741.31</v>
+        <v>49967513.65</v>
       </c>
       <c r="H301" t="n">
-        <v>4653000</v>
+        <v>49950000</v>
       </c>
       <c r="I301" t="n">
-        <v>9754685</v>
+        <v>54950000</v>
       </c>
       <c r="J301" t="inlineStr">
         <is>
@@ -11887,11 +11887,11 @@
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>4441</v>
+        <v>4451</v>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>FUNEMP</t>
+          <t>FEPDC</t>
         </is>
       </c>
       <c r="C302" t="n">
@@ -11925,11 +11925,11 @@
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>4441</v>
+        <v>4451</v>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>FUNEMP</t>
+          <t>FEPDC</t>
         </is>
       </c>
       <c r="C303" t="n">
@@ -11941,19 +11941,19 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>52558416.66</v>
+        <v>79957493.48999999</v>
       </c>
       <c r="F303" t="n">
-        <v>72442118.54000001</v>
+        <v>65710976.64</v>
       </c>
       <c r="G303" t="n">
-        <v>49967513.65</v>
+        <v>44950000</v>
       </c>
       <c r="H303" t="n">
-        <v>49950000</v>
+        <v>44950000</v>
       </c>
       <c r="I303" t="n">
-        <v>54950000</v>
+        <v>59950000</v>
       </c>
       <c r="J303" t="inlineStr">
         <is>
@@ -11963,35 +11963,35 @@
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>4451</v>
+        <v>4491</v>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>FEPDC</t>
+          <t>FEC</t>
         </is>
       </c>
       <c r="C304" t="n">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>ALIENACAO DE BENS DE ENTIDADES ESTADUAIS</t>
+          <t>OUTROS RECURSOS VINCULADOS</t>
         </is>
       </c>
       <c r="E304" t="n">
-        <v>0</v>
+        <v>39945815.52</v>
       </c>
       <c r="F304" t="n">
-        <v>0</v>
+        <v>31290949.67</v>
       </c>
       <c r="G304" t="n">
-        <v>50000</v>
+        <v>22369533.67</v>
       </c>
       <c r="H304" t="n">
-        <v>50000</v>
+        <v>22452867</v>
       </c>
       <c r="I304" t="n">
-        <v>50000</v>
+        <v>32000000</v>
       </c>
       <c r="J304" t="inlineStr">
         <is>
@@ -12001,11 +12001,11 @@
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>4451</v>
+        <v>4541</v>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>FEPDC</t>
+          <t>FAHMEMG</t>
         </is>
       </c>
       <c r="C305" t="n">
@@ -12017,19 +12017,19 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>79957493.48999999</v>
+        <v>28381267.18</v>
       </c>
       <c r="F305" t="n">
-        <v>65710976.64</v>
+        <v>30803238.05</v>
       </c>
       <c r="G305" t="n">
-        <v>44950000</v>
+        <v>27899758.89</v>
       </c>
       <c r="H305" t="n">
-        <v>44950000</v>
+        <v>28502245</v>
       </c>
       <c r="I305" t="n">
-        <v>59950000</v>
+        <v>29438285</v>
       </c>
       <c r="J305" t="inlineStr">
         <is>
@@ -12039,11 +12039,11 @@
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>4491</v>
+        <v>4551</v>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>FEC</t>
+          <t>FUNAPEC</t>
         </is>
       </c>
       <c r="C306" t="n">
@@ -12055,19 +12055,19 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>39945815.52</v>
+        <v>0</v>
       </c>
       <c r="F306" t="n">
-        <v>31290949.67</v>
+        <v>0</v>
       </c>
       <c r="G306" t="n">
-        <v>22369533.67</v>
+        <v>79837393.01000001</v>
       </c>
       <c r="H306" t="n">
-        <v>22452867</v>
+        <v>79837393</v>
       </c>
       <c r="I306" t="n">
-        <v>32000000</v>
+        <v>92091002</v>
       </c>
       <c r="J306" t="inlineStr">
         <is>
@@ -12077,11 +12077,11 @@
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>4541</v>
+        <v>4551</v>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>FAHMEMG</t>
+          <t>FUNAPEC</t>
         </is>
       </c>
       <c r="C307" t="n">
@@ -12093,57 +12093,57 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>28381267.18</v>
+        <v>74577014.52</v>
       </c>
       <c r="F307" t="n">
-        <v>30803238.05</v>
+        <v>80009654.44</v>
       </c>
       <c r="G307" t="n">
-        <v>27899758.89</v>
+        <v>0</v>
       </c>
       <c r="H307" t="n">
-        <v>28502245</v>
+        <v>0</v>
       </c>
       <c r="I307" t="n">
-        <v>29438285</v>
+        <v>0</v>
       </c>
       <c r="J307" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>ATENCAO</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>4551</v>
+        <v>4601</v>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>FUNAPEC</t>
+          <t>FEI</t>
         </is>
       </c>
       <c r="C308" t="n">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>OUTROS RECURSOS VINCULADOS</t>
+          <t>DOACOES DE PESSOAS, DE INSTITUICOES PRIVADAS OU DO EXTERIOR A ORGAO E ENTIDADES DO ESTADO</t>
         </is>
       </c>
       <c r="E308" t="n">
-        <v>0</v>
+        <v>1266593.86</v>
       </c>
       <c r="F308" t="n">
-        <v>0</v>
+        <v>1048206.2</v>
       </c>
       <c r="G308" t="n">
-        <v>79837393.01000001</v>
+        <v>5802500</v>
       </c>
       <c r="H308" t="n">
-        <v>79837393</v>
+        <v>6330000</v>
       </c>
       <c r="I308" t="n">
-        <v>92091002</v>
+        <v>1153028</v>
       </c>
       <c r="J308" t="inlineStr">
         <is>
@@ -12153,11 +12153,11 @@
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>4551</v>
+        <v>4611</v>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>FUNAPEC</t>
+          <t>FUNCONTAS</t>
         </is>
       </c>
       <c r="C309" t="n">
@@ -12169,57 +12169,57 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>74577014.52</v>
+        <v>4952794.62</v>
       </c>
       <c r="F309" t="n">
-        <v>80009654.44</v>
+        <v>5973509.54</v>
       </c>
       <c r="G309" t="n">
-        <v>0</v>
+        <v>6000000</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>6000000</v>
       </c>
       <c r="I309" t="n">
-        <v>0</v>
+        <v>6992000</v>
       </c>
       <c r="J309" t="inlineStr">
         <is>
-          <t>ATENCAO</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>4601</v>
+        <v>4621</v>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>FEI</t>
+          <t>MG INVESTE</t>
         </is>
       </c>
       <c r="C310" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>DOACOES DE PESSOAS, DE INSTITUICOES PRIVADAS OU DO EXTERIOR A ORGAO E ENTIDADES DO ESTADO</t>
+          <t>RECURSOS DIRETAMENTE ARRECADADOS</t>
         </is>
       </c>
       <c r="E310" t="n">
-        <v>1266593.86</v>
+        <v>21654601.59</v>
       </c>
       <c r="F310" t="n">
-        <v>1048206.2</v>
+        <v>17356959.49</v>
       </c>
       <c r="G310" t="n">
-        <v>5802500</v>
+        <v>9904583.859999999</v>
       </c>
       <c r="H310" t="n">
-        <v>6330000</v>
+        <v>10800000</v>
       </c>
       <c r="I310" t="n">
-        <v>1153028</v>
+        <v>15800000</v>
       </c>
       <c r="J310" t="inlineStr">
         <is>
@@ -12229,49 +12229,49 @@
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>4611</v>
+        <v>4631</v>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>FUNCONTAS</t>
+          <t>FPP - MG</t>
         </is>
       </c>
       <c r="C311" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>RECURSOS DIRETAMENTE ARRECADADOS</t>
+          <t>RECURSOS ORDINARIOS - RECURSOS NAO VINCULADOS DE IMPOSTOS</t>
         </is>
       </c>
       <c r="E311" t="n">
-        <v>4952794.62</v>
+        <v>0</v>
       </c>
       <c r="F311" t="n">
-        <v>5973509.54</v>
+        <v>0</v>
       </c>
       <c r="G311" t="n">
-        <v>6000000</v>
+        <v>2000</v>
       </c>
       <c r="H311" t="n">
-        <v>6000000</v>
+        <v>2000</v>
       </c>
       <c r="I311" t="n">
-        <v>6992000</v>
+        <v>4255161</v>
       </c>
       <c r="J311" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>VALOR DISCREPANTE</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>4621</v>
+        <v>4631</v>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>MG INVESTE</t>
+          <t>FPP - MG</t>
         </is>
       </c>
       <c r="C312" t="n">
@@ -12283,241 +12283,241 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>21654601.59</v>
+        <v>29432536.65</v>
       </c>
       <c r="F312" t="n">
-        <v>17356959.49</v>
+        <v>19228816.03</v>
       </c>
       <c r="G312" t="n">
-        <v>9904583.859999999</v>
+        <v>0</v>
       </c>
       <c r="H312" t="n">
-        <v>10800000</v>
+        <v>0</v>
       </c>
       <c r="I312" t="n">
-        <v>15800000</v>
+        <v>0</v>
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>ATENCAO</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>4631</v>
+        <v>4661</v>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>FPP - MG</t>
+          <t>FAIMG</t>
         </is>
       </c>
       <c r="C313" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>RECURSOS ORDINARIOS - RECURSOS NAO VINCULADOS DE IMPOSTOS</t>
+          <t>RECURSOS DIRETAMENTE ARRECADADOS</t>
         </is>
       </c>
       <c r="E313" t="n">
         <v>0</v>
       </c>
       <c r="F313" t="n">
-        <v>0</v>
+        <v>401644.47</v>
       </c>
       <c r="G313" t="n">
-        <v>2000</v>
+        <v>429178.75</v>
       </c>
       <c r="H313" t="n">
-        <v>2000</v>
+        <v>468195</v>
       </c>
       <c r="I313" t="n">
-        <v>4255161</v>
+        <v>470000</v>
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>4631</v>
+        <v>4691</v>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>FPP - MG</t>
+          <t>FESP-MG</t>
         </is>
       </c>
       <c r="C314" t="n">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>RECURSOS DIRETAMENTE ARRECADADOS</t>
+          <t>TRANSFERENCIAS DA UNIAO POR MEIO DE PORTARIA - EXCETO EMENDAS INDIVIDUAIS E DE BANCADA</t>
         </is>
       </c>
       <c r="E314" t="n">
-        <v>29432536.65</v>
+        <v>52533960.3</v>
       </c>
       <c r="F314" t="n">
-        <v>19228816.03</v>
+        <v>52478484.59</v>
       </c>
       <c r="G314" t="n">
-        <v>0</v>
+        <v>92936201</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>92936201</v>
       </c>
       <c r="I314" t="n">
         <v>0</v>
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>ATENCAO</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>4661</v>
+        <v>4701</v>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>FAIMG</t>
+          <t>FET-MG</t>
         </is>
       </c>
       <c r="C315" t="n">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>RECURSOS DIRETAMENTE ARRECADADOS</t>
+          <t>TRANSFERENCIAS DA UNIAO POR MEIO DE PORTARIA - EXCETO EMENDAS INDIVIDUAIS E DE BANCADA</t>
         </is>
       </c>
       <c r="E315" t="n">
-        <v>0</v>
+        <v>4461942.5</v>
       </c>
       <c r="F315" t="n">
-        <v>401644.47</v>
+        <v>1633250.88</v>
       </c>
       <c r="G315" t="n">
-        <v>429178.75</v>
+        <v>15485778</v>
       </c>
       <c r="H315" t="n">
-        <v>468195</v>
+        <v>15485778</v>
       </c>
       <c r="I315" t="n">
-        <v>470000</v>
+        <v>0</v>
       </c>
       <c r="J315" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>4691</v>
+        <v>4701</v>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>FESP-MG</t>
+          <t>FET-MG</t>
         </is>
       </c>
       <c r="C316" t="n">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>TRANSFERENCIAS DA UNIAO POR MEIO DE PORTARIA - EXCETO EMENDAS INDIVIDUAIS E DE BANCADA</t>
+          <t>RECURSOS DIRETAMENTE ARRECADADOS</t>
         </is>
       </c>
       <c r="E316" t="n">
-        <v>52533960.3</v>
+        <v>166441.39</v>
       </c>
       <c r="F316" t="n">
-        <v>52478484.59</v>
+        <v>0</v>
       </c>
       <c r="G316" t="n">
-        <v>92936201</v>
+        <v>0</v>
       </c>
       <c r="H316" t="n">
-        <v>92936201</v>
+        <v>0</v>
       </c>
       <c r="I316" t="n">
         <v>0</v>
       </c>
       <c r="J316" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>4701</v>
+        <v>4711</v>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>FET-MG</t>
+          <t>FFP - MG</t>
         </is>
       </c>
       <c r="C317" t="n">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>TRANSFERENCIAS DA UNIAO POR MEIO DE PORTARIA - EXCETO EMENDAS INDIVIDUAIS E DE BANCADA</t>
+          <t>RECURSOS ORDINARIOS - RECURSOS NAO VINCULADOS DE IMPOSTOS</t>
         </is>
       </c>
       <c r="E317" t="n">
-        <v>4461942.5</v>
+        <v>47572.23</v>
       </c>
       <c r="F317" t="n">
-        <v>1633250.88</v>
+        <v>110659.95</v>
       </c>
       <c r="G317" t="n">
-        <v>15485778</v>
+        <v>62321.15</v>
       </c>
       <c r="H317" t="n">
-        <v>15485778</v>
+        <v>47050</v>
       </c>
       <c r="I317" t="n">
-        <v>0</v>
+        <v>108954</v>
       </c>
       <c r="J317" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>4701</v>
+        <v>4711</v>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>FET-MG</t>
+          <t>FFP - MG</t>
         </is>
       </c>
       <c r="C318" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>RECURSOS DIRETAMENTE ARRECADADOS</t>
+          <t>CONTRIBUICAO A APOSENTADORIA</t>
         </is>
       </c>
       <c r="E318" t="n">
-        <v>166441.39</v>
+        <v>0</v>
       </c>
       <c r="F318" t="n">
         <v>0</v>
       </c>
       <c r="G318" t="n">
-        <v>0</v>
+        <v>139037773.94</v>
       </c>
       <c r="H318" t="n">
         <v>0</v>
@@ -12527,7 +12527,7 @@
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>ATENCAO</t>
         </is>
       </c>
     </row>
@@ -12541,31 +12541,31 @@
         </is>
       </c>
       <c r="C319" t="n">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>RECURSOS ORDINARIOS - RECURSOS NAO VINCULADOS DE IMPOSTOS</t>
+          <t>CONTRIBUICAO PATRONAL PARA O RPPS</t>
         </is>
       </c>
       <c r="E319" t="n">
-        <v>47572.23</v>
+        <v>6166834137.13</v>
       </c>
       <c r="F319" t="n">
-        <v>110659.95</v>
+        <v>6543770001.88</v>
       </c>
       <c r="G319" t="n">
-        <v>62321.15</v>
+        <v>6882189421.91</v>
       </c>
       <c r="H319" t="n">
-        <v>47050</v>
+        <v>7157695585</v>
       </c>
       <c r="I319" t="n">
-        <v>108954</v>
+        <v>0</v>
       </c>
       <c r="J319" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -12579,31 +12579,31 @@
         </is>
       </c>
       <c r="C320" t="n">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO A APOSENTADORIA</t>
+          <t>CONTRIBUICAO DO SERVIDOR PARA O RPPS</t>
         </is>
       </c>
       <c r="E320" t="n">
-        <v>0</v>
+        <v>3357358367.07</v>
       </c>
       <c r="F320" t="n">
-        <v>0</v>
+        <v>3377054149.3</v>
       </c>
       <c r="G320" t="n">
-        <v>139037773.94</v>
+        <v>3596855214.55</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>3694896077</v>
       </c>
       <c r="I320" t="n">
-        <v>0</v>
+        <v>58404991</v>
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t>ATENCAO</t>
+          <t>VALOR DISCREPANTE</t>
         </is>
       </c>
     </row>
@@ -12617,31 +12617,31 @@
         </is>
       </c>
       <c r="C321" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO PATRONAL PARA O RPPS</t>
+          <t>COMPENSACAO FINANCEIRA ENTRE REGIMES DE PREVIDENCIA</t>
         </is>
       </c>
       <c r="E321" t="n">
-        <v>6166834137.13</v>
+        <v>42046001.98</v>
       </c>
       <c r="F321" t="n">
-        <v>6543770001.88</v>
+        <v>97430557.64</v>
       </c>
       <c r="G321" t="n">
-        <v>6882189421.91</v>
+        <v>41676951.37</v>
       </c>
       <c r="H321" t="n">
-        <v>7157695585</v>
+        <v>41641705</v>
       </c>
       <c r="I321" t="n">
-        <v>0</v>
+        <v>81000000</v>
       </c>
       <c r="J321" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -12655,27 +12655,27 @@
         </is>
       </c>
       <c r="C322" t="n">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO DO SERVIDOR PARA O RPPS</t>
+          <t>TAXA DE CONTROLE E FISCALIZACAO AMBIENTAL</t>
         </is>
       </c>
       <c r="E322" t="n">
-        <v>3357358367.07</v>
+        <v>7856.54</v>
       </c>
       <c r="F322" t="n">
-        <v>3377054149.3</v>
+        <v>2915.26</v>
       </c>
       <c r="G322" t="n">
-        <v>3596855214.55</v>
+        <v>5762.17</v>
       </c>
       <c r="H322" t="n">
-        <v>3694896077</v>
+        <v>6286</v>
       </c>
       <c r="I322" t="n">
-        <v>58404991</v>
+        <v>2332</v>
       </c>
       <c r="J322" t="inlineStr">
         <is>
@@ -12693,31 +12693,31 @@
         </is>
       </c>
       <c r="C323" t="n">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>COMPENSACAO FINANCEIRA ENTRE REGIMES DE PREVIDENCIA</t>
+          <t>RECURSOS PARA COBERTURA DE INSUFICIENCIA FINANCEIRA DO RPPS</t>
         </is>
       </c>
       <c r="E323" t="n">
-        <v>42046001.98</v>
+        <v>0</v>
       </c>
       <c r="F323" t="n">
-        <v>97430557.64</v>
+        <v>581015225.29</v>
       </c>
       <c r="G323" t="n">
-        <v>41676951.37</v>
+        <v>0</v>
       </c>
       <c r="H323" t="n">
-        <v>41641705</v>
+        <v>0</v>
       </c>
       <c r="I323" t="n">
-        <v>81000000</v>
+        <v>0</v>
       </c>
       <c r="J323" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>ATENCAO</t>
         </is>
       </c>
     </row>
@@ -12731,31 +12731,31 @@
         </is>
       </c>
       <c r="C324" t="n">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>TAXA DE CONTROLE E FISCALIZACAO AMBIENTAL</t>
+          <t>RECURSOS DIRETAMENTE ARRECADADOS</t>
         </is>
       </c>
       <c r="E324" t="n">
-        <v>7856.54</v>
+        <v>186325.67</v>
       </c>
       <c r="F324" t="n">
-        <v>2915.26</v>
+        <v>32246.25</v>
       </c>
       <c r="G324" t="n">
-        <v>5762.17</v>
+        <v>153042.78</v>
       </c>
       <c r="H324" t="n">
-        <v>6286</v>
+        <v>166588</v>
       </c>
       <c r="I324" t="n">
-        <v>2332</v>
+        <v>34460</v>
       </c>
       <c r="J324" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -12769,31 +12769,31 @@
         </is>
       </c>
       <c r="C325" t="n">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>RECURSOS PARA COBERTURA DE INSUFICIENCIA FINANCEIRA DO RPPS</t>
+          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
         </is>
       </c>
       <c r="E325" t="n">
-        <v>0</v>
+        <v>76857886.73</v>
       </c>
       <c r="F325" t="n">
-        <v>581015225.29</v>
+        <v>32639198.8</v>
       </c>
       <c r="G325" t="n">
-        <v>0</v>
+        <v>69964656.19</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>68579821</v>
       </c>
       <c r="I325" t="n">
-        <v>0</v>
+        <v>67669414</v>
       </c>
       <c r="J325" t="inlineStr">
         <is>
-          <t>ATENCAO</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -12807,65 +12807,61 @@
         </is>
       </c>
       <c r="C326" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>RECURSOS DIRETAMENTE ARRECADADOS</t>
+          <t>CONTRIBUICAO PATRONAL PARA CUSTEIO DOS PROVENTOS DOS MILITARES</t>
         </is>
       </c>
       <c r="E326" t="n">
-        <v>186325.67</v>
+        <v>0</v>
       </c>
       <c r="F326" t="n">
-        <v>32246.25</v>
+        <v>0</v>
       </c>
       <c r="G326" t="n">
-        <v>153042.78</v>
+        <v>504457766.15</v>
       </c>
       <c r="H326" t="n">
-        <v>166588</v>
+        <v>0</v>
       </c>
       <c r="I326" t="n">
-        <v>34460</v>
+        <v>0</v>
       </c>
       <c r="J326" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>ATENCAO</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>4711</v>
-      </c>
-      <c r="B327" t="inlineStr">
-        <is>
-          <t>FFP - MG</t>
-        </is>
-      </c>
+        <v>4731</v>
+      </c>
+      <c r="B327" t="inlineStr"/>
       <c r="C327" t="n">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
+          <t>OUTROS RECURSOS VINCULADOS</t>
         </is>
       </c>
       <c r="E327" t="n">
-        <v>76857886.73</v>
+        <v>0</v>
       </c>
       <c r="F327" t="n">
-        <v>32639198.8</v>
+        <v>0</v>
       </c>
       <c r="G327" t="n">
-        <v>69964656.19</v>
+        <v>0</v>
       </c>
       <c r="H327" t="n">
-        <v>68579821</v>
+        <v>0</v>
       </c>
       <c r="I327" t="n">
-        <v>67669414</v>
+        <v>26250000</v>
       </c>
       <c r="J327" t="inlineStr">
         <is>
@@ -12875,19 +12871,15 @@
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>4711</v>
-      </c>
-      <c r="B328" t="inlineStr">
-        <is>
-          <t>FFP - MG</t>
-        </is>
-      </c>
+        <v>4741</v>
+      </c>
+      <c r="B328" t="inlineStr"/>
       <c r="C328" t="n">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO PATRONAL PARA CUSTEIO DOS PROVENTOS DOS MILITARES</t>
+          <t>OUTROS RECURSOS VINCULADOS</t>
         </is>
       </c>
       <c r="E328" t="n">
@@ -12897,31 +12889,31 @@
         <v>0</v>
       </c>
       <c r="G328" t="n">
-        <v>504457766.15</v>
+        <v>0</v>
       </c>
       <c r="H328" t="n">
         <v>0</v>
       </c>
       <c r="I328" t="n">
-        <v>0</v>
+        <v>25000000</v>
       </c>
       <c r="J328" t="inlineStr">
         <is>
-          <t>ATENCAO</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>4731</v>
+        <v>4741</v>
       </c>
       <c r="B329" t="inlineStr"/>
       <c r="C329" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>OUTROS RECURSOS VINCULADOS</t>
+          <t>RECURSOS DIRETAMENTE ARRECADADOS</t>
         </is>
       </c>
       <c r="E329" t="n">
@@ -12937,7 +12929,7 @@
         <v>0</v>
       </c>
       <c r="I329" t="n">
-        <v>26250000</v>
+        <v>15000000</v>
       </c>
       <c r="J329" t="inlineStr">
         <is>
@@ -12947,7 +12939,7 @@
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>4741</v>
+        <v>4751</v>
       </c>
       <c r="B330" t="inlineStr"/>
       <c r="C330" t="n">
@@ -12971,7 +12963,7 @@
         <v>0</v>
       </c>
       <c r="I330" t="n">
-        <v>25000000</v>
+        <v>6000000</v>
       </c>
       <c r="J330" t="inlineStr">
         <is>
@@ -12981,15 +12973,19 @@
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>4741</v>
-      </c>
-      <c r="B331" t="inlineStr"/>
+        <v>9901</v>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>RGE</t>
+        </is>
+      </c>
       <c r="C331" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>RECURSOS DIRETAMENTE ARRECADADOS</t>
+          <t>CONVENIOS COM A UNIAO E SUAS ENTIDADES - EMENDAS INDIVIDUAIS</t>
         </is>
       </c>
       <c r="E331" t="n">
@@ -13002,10 +12998,10 @@
         <v>0</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>17170138</v>
       </c>
       <c r="I331" t="n">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="J331" t="inlineStr">
         <is>
@@ -13015,15 +13011,19 @@
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>4751</v>
-      </c>
-      <c r="B332" t="inlineStr"/>
+        <v>9901</v>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>RGE</t>
+        </is>
+      </c>
       <c r="C332" t="n">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>OUTROS RECURSOS VINCULADOS</t>
+          <t>CONVENIOS COM A UNIAO E SUAS ENTIDADES - EMENDAS DE BANCADA</t>
         </is>
       </c>
       <c r="E332" t="n">
@@ -13036,10 +13036,10 @@
         <v>0</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>82828230</v>
       </c>
       <c r="I332" t="n">
-        <v>6000000</v>
+        <v>0</v>
       </c>
       <c r="J332" t="inlineStr">
         <is>
@@ -13057,11 +13057,11 @@
         </is>
       </c>
       <c r="C333" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>CONVENIOS COM A UNIAO E SUAS ENTIDADES - EMENDAS INDIVIDUAIS</t>
+          <t>TRANSFERENCIAS DO FNDE VINCULADAS A EDUCACAO - EMENDAS INDIVIDUAIS</t>
         </is>
       </c>
       <c r="E333" t="n">
@@ -13074,7 +13074,7 @@
         <v>0</v>
       </c>
       <c r="H333" t="n">
-        <v>17170138</v>
+        <v>5641071</v>
       </c>
       <c r="I333" t="n">
         <v>0</v>
@@ -13095,11 +13095,11 @@
         </is>
       </c>
       <c r="C334" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>CONVENIOS COM A UNIAO E SUAS ENTIDADES - EMENDAS DE BANCADA</t>
+          <t>TRANSFERENCIAS DO FNDE VINCULADAS A EDUCACAO - EMENDAS DE BANCADA</t>
         </is>
       </c>
       <c r="E334" t="n">
@@ -13112,7 +13112,7 @@
         <v>0</v>
       </c>
       <c r="H334" t="n">
-        <v>82828230</v>
+        <v>0</v>
       </c>
       <c r="I334" t="n">
         <v>0</v>
@@ -13133,11 +13133,11 @@
         </is>
       </c>
       <c r="C335" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>TRANSFERENCIAS DO FNDE VINCULADAS A EDUCACAO - EMENDAS INDIVIDUAIS</t>
+          <t>TERMOS DE AJUSTAMENTO, DOACOES CONTROLADAS POR INSTRUMENTO JURIDICO E CONGENERES</t>
         </is>
       </c>
       <c r="E335" t="n">
@@ -13150,7 +13150,7 @@
         <v>0</v>
       </c>
       <c r="H335" t="n">
-        <v>5641071</v>
+        <v>9523000</v>
       </c>
       <c r="I335" t="n">
         <v>0</v>
@@ -13171,27 +13171,27 @@
         </is>
       </c>
       <c r="C336" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>TRANSFERENCIAS DO FNDE VINCULADAS A EDUCACAO - EMENDAS DE BANCADA</t>
+          <t>RECURSOS ORDINARIOS - RECURSOS NAO VINCULADOS DE IMPOSTOS</t>
         </is>
       </c>
       <c r="E336" t="n">
-        <v>0</v>
+        <v>62701681464.88</v>
       </c>
       <c r="F336" t="n">
-        <v>0</v>
+        <v>70640041606.07001</v>
       </c>
       <c r="G336" t="n">
-        <v>0</v>
+        <v>75532178605.62</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>73046636589</v>
       </c>
       <c r="I336" t="n">
-        <v>0</v>
+        <v>83181965770</v>
       </c>
       <c r="J336" t="inlineStr">
         <is>
@@ -13209,27 +13209,27 @@
         </is>
       </c>
       <c r="C337" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>TERMOS DE AJUSTAMENTO, DOACOES CONTROLADAS POR INSTRUMENTO JURIDICO E CONGENERES</t>
+          <t>RECURSOS DE DESVINCULACAO DE RECEITAS</t>
         </is>
       </c>
       <c r="E337" t="n">
-        <v>0</v>
+        <v>1245779647.03</v>
       </c>
       <c r="F337" t="n">
-        <v>0</v>
+        <v>1241860715.84</v>
       </c>
       <c r="G337" t="n">
-        <v>0</v>
+        <v>1265055285.85</v>
       </c>
       <c r="H337" t="n">
-        <v>9523000</v>
+        <v>1529186924</v>
       </c>
       <c r="I337" t="n">
-        <v>0</v>
+        <v>1072721415</v>
       </c>
       <c r="J337" t="inlineStr">
         <is>
@@ -13247,27 +13247,27 @@
         </is>
       </c>
       <c r="C338" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>RECURSOS ORDINARIOS - RECURSOS NAO VINCULADOS DE IMPOSTOS</t>
+          <t>OPERACOES DE CREDITO CONTRATUAIS - SWAP</t>
         </is>
       </c>
       <c r="E338" t="n">
-        <v>62701681464.88</v>
+        <v>0</v>
       </c>
       <c r="F338" t="n">
-        <v>70640041606.07001</v>
+        <v>0</v>
       </c>
       <c r="G338" t="n">
-        <v>75532178605.62</v>
+        <v>767.25</v>
       </c>
       <c r="H338" t="n">
-        <v>73046636589</v>
+        <v>837</v>
       </c>
       <c r="I338" t="n">
-        <v>83181965770</v>
+        <v>666</v>
       </c>
       <c r="J338" t="inlineStr">
         <is>
@@ -13285,27 +13285,27 @@
         </is>
       </c>
       <c r="C339" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>RECURSOS DE DESVINCULACAO DE RECEITAS</t>
+          <t>FUNDO DE MANUTENCAO E DESENVOLVIMENTO DA EDUCACAO BASICA - FUNDEB - REGULARIZACAO DE EXERCICIOS ANTE</t>
         </is>
       </c>
       <c r="E339" t="n">
-        <v>1245779647.03</v>
+        <v>0</v>
       </c>
       <c r="F339" t="n">
-        <v>1241860715.84</v>
+        <v>0</v>
       </c>
       <c r="G339" t="n">
-        <v>1265055285.85</v>
+        <v>0</v>
       </c>
       <c r="H339" t="n">
-        <v>1529186924</v>
+        <v>2100000</v>
       </c>
       <c r="I339" t="n">
-        <v>1072721415</v>
+        <v>0</v>
       </c>
       <c r="J339" t="inlineStr">
         <is>
@@ -13323,27 +13323,27 @@
         </is>
       </c>
       <c r="C340" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>OPERACOES DE CREDITO CONTRATUAIS - SWAP</t>
+          <t>RECURSOS ORDINARIOS - OUTROS RECURSOS NAO VINCULADOS</t>
         </is>
       </c>
       <c r="E340" t="n">
-        <v>0</v>
+        <v>4173278940.02</v>
       </c>
       <c r="F340" t="n">
-        <v>0</v>
+        <v>5162369192.63</v>
       </c>
       <c r="G340" t="n">
-        <v>767.25</v>
+        <v>4744544809.01</v>
       </c>
       <c r="H340" t="n">
-        <v>837</v>
+        <v>4081035721</v>
       </c>
       <c r="I340" t="n">
-        <v>666</v>
+        <v>4156764004</v>
       </c>
       <c r="J340" t="inlineStr">
         <is>
@@ -13361,11 +13361,11 @@
         </is>
       </c>
       <c r="C341" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>FUNDO DE MANUTENCAO E DESENVOLVIMENTO DA EDUCACAO BASICA - FUNDEB - REGULARIZACAO DE EXERCICIOS ANTE</t>
+          <t>DEMAIS TRANSFERENCIAS VINCULADAS DA UNIAO</t>
         </is>
       </c>
       <c r="E341" t="n">
@@ -13378,7 +13378,7 @@
         <v>0</v>
       </c>
       <c r="H341" t="n">
-        <v>2100000</v>
+        <v>141847763</v>
       </c>
       <c r="I341" t="n">
         <v>0</v>
@@ -13399,27 +13399,27 @@
         </is>
       </c>
       <c r="C342" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>RECURSOS ORDINARIOS - OUTROS RECURSOS NAO VINCULADOS</t>
+          <t>TRANSFERENCIAS DESTINADAS AO SETOR CULTURAL - LC 195/2022 - ART 5O - AUDIOVISUAL</t>
         </is>
       </c>
       <c r="E342" t="n">
-        <v>4173278940.02</v>
+        <v>0</v>
       </c>
       <c r="F342" t="n">
-        <v>5162369192.63</v>
+        <v>0</v>
       </c>
       <c r="G342" t="n">
-        <v>4744544809.01</v>
+        <v>0</v>
       </c>
       <c r="H342" t="n">
-        <v>4081035721</v>
+        <v>6710501</v>
       </c>
       <c r="I342" t="n">
-        <v>4156693997</v>
+        <v>0</v>
       </c>
       <c r="J342" t="inlineStr">
         <is>
@@ -13437,31 +13437,31 @@
         </is>
       </c>
       <c r="C343" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>DEMAIS TRANSFERENCIAS VINCULADAS DA UNIAO</t>
+          <t>RECURSOS NAO VINCULADOS DA COMPENSACAO DE IMPOSTOS</t>
         </is>
       </c>
       <c r="E343" t="n">
-        <v>0</v>
+        <v>106497629.98</v>
       </c>
       <c r="F343" t="n">
         <v>0</v>
       </c>
       <c r="G343" t="n">
-        <v>0</v>
+        <v>504269510.01</v>
       </c>
       <c r="H343" t="n">
-        <v>141847763</v>
+        <v>504269510</v>
       </c>
       <c r="I343" t="n">
         <v>0</v>
       </c>
       <c r="J343" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>ATENCAO</t>
         </is>
       </c>
     </row>
@@ -13475,24 +13475,24 @@
         </is>
       </c>
       <c r="C344" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>TRANSFERENCIAS DESTINADAS AO SETOR CULTURAL - LC 195/2022 - ART 5O - AUDIOVISUAL</t>
+          <t>RECURSOS CONSTITUC.VINCULADOS AOS MUNICIPIOS</t>
         </is>
       </c>
       <c r="E344" t="n">
         <v>0</v>
       </c>
       <c r="F344" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G344" t="n">
-        <v>0</v>
+        <v>-53.37</v>
       </c>
       <c r="H344" t="n">
-        <v>6710501</v>
+        <v>0</v>
       </c>
       <c r="I344" t="n">
         <v>0</v>
@@ -13513,31 +13513,31 @@
         </is>
       </c>
       <c r="C345" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>RECURSOS NAO VINCULADOS DA COMPENSACAO DE IMPOSTOS</t>
+          <t>COTA ESTADUAL DO SALARIO EDUCACAO - QESE</t>
         </is>
       </c>
       <c r="E345" t="n">
-        <v>106497629.98</v>
+        <v>0</v>
       </c>
       <c r="F345" t="n">
         <v>0</v>
       </c>
       <c r="G345" t="n">
-        <v>504269510.01</v>
+        <v>0</v>
       </c>
       <c r="H345" t="n">
-        <v>504269510</v>
+        <v>861500000</v>
       </c>
       <c r="I345" t="n">
         <v>0</v>
       </c>
       <c r="J345" t="inlineStr">
         <is>
-          <t>ATENCAO</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -13551,11 +13551,11 @@
         </is>
       </c>
       <c r="C346" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>RECURSOS CONSTITUC.VINCULADOS AOS MUNICIPIOS</t>
+          <t>FUNDO DE MANUTENCAO E DESENVOLVIMENTO DA EDUCACAO BASICA - FUNDEB</t>
         </is>
       </c>
       <c r="E346" t="n">
@@ -13565,10 +13565,10 @@
         <v>-0</v>
       </c>
       <c r="G346" t="n">
-        <v>-53.37</v>
+        <v>-0</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>12996682660</v>
       </c>
       <c r="I346" t="n">
         <v>0</v>
@@ -13589,15 +13589,15 @@
         </is>
       </c>
       <c r="C347" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>COTA ESTADUAL DO SALARIO EDUCACAO - QESE</t>
+          <t>CONVENIOS COM A UNIAO E SUAS ENTIDADES - EXCETO EMENDAS INDIVIDUAIS E DE BANCADA</t>
         </is>
       </c>
       <c r="E347" t="n">
-        <v>0</v>
+        <v>24.05</v>
       </c>
       <c r="F347" t="n">
         <v>0</v>
@@ -13606,7 +13606,7 @@
         <v>0</v>
       </c>
       <c r="H347" t="n">
-        <v>861500000</v>
+        <v>2147382750</v>
       </c>
       <c r="I347" t="n">
         <v>0</v>
@@ -13627,27 +13627,27 @@
         </is>
       </c>
       <c r="C348" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>FUNDO DE MANUTENCAO E DESENVOLVIMENTO DA EDUCACAO BASICA - FUNDEB</t>
+          <t>OPERACOES DE CREDITO CONTRATUAIS</t>
         </is>
       </c>
       <c r="E348" t="n">
-        <v>0</v>
+        <v>35298548.43</v>
       </c>
       <c r="F348" t="n">
-        <v>-0</v>
+        <v>34917792.85</v>
       </c>
       <c r="G348" t="n">
-        <v>-0</v>
+        <v>32587260</v>
       </c>
       <c r="H348" t="n">
-        <v>12996682660</v>
+        <v>32587260</v>
       </c>
       <c r="I348" t="n">
-        <v>0</v>
+        <v>20353834</v>
       </c>
       <c r="J348" t="inlineStr">
         <is>
@@ -13665,15 +13665,15 @@
         </is>
       </c>
       <c r="C349" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>CONVENIOS COM A UNIAO E SUAS ENTIDADES - EXCETO EMENDAS INDIVIDUAIS E DE BANCADA</t>
+          <t>TAXA FLORESTAL - ADMINISTRACAO INDIRETA</t>
         </is>
       </c>
       <c r="E349" t="n">
-        <v>24.05</v>
+        <v>0</v>
       </c>
       <c r="F349" t="n">
         <v>0</v>
@@ -13682,7 +13682,7 @@
         <v>0</v>
       </c>
       <c r="H349" t="n">
-        <v>2147382750</v>
+        <v>0</v>
       </c>
       <c r="I349" t="n">
         <v>0</v>
@@ -13703,27 +13703,27 @@
         </is>
       </c>
       <c r="C350" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>OPERACOES DE CREDITO CONTRATUAIS</t>
+          <t>TAXA DE SEGURANCA PUBLICA</t>
         </is>
       </c>
       <c r="E350" t="n">
-        <v>35298548.43</v>
+        <v>1380665251.27</v>
       </c>
       <c r="F350" t="n">
-        <v>34917792.85</v>
+        <v>1185095350.43</v>
       </c>
       <c r="G350" t="n">
-        <v>32587260</v>
+        <v>1247789925.65</v>
       </c>
       <c r="H350" t="n">
-        <v>32587260</v>
+        <v>1322391859</v>
       </c>
       <c r="I350" t="n">
-        <v>20353834</v>
+        <v>1369556515</v>
       </c>
       <c r="J350" t="inlineStr">
         <is>
@@ -13741,27 +13741,27 @@
         </is>
       </c>
       <c r="C351" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>TAXA FLORESTAL - ADMINISTRACAO INDIRETA</t>
+          <t>TAXA DE EXPEDIENTE - ADMINISTRACAO DIRETA</t>
         </is>
       </c>
       <c r="E351" t="n">
-        <v>0</v>
+        <v>45711754.29</v>
       </c>
       <c r="F351" t="n">
-        <v>0</v>
+        <v>25963270.97</v>
       </c>
       <c r="G351" t="n">
-        <v>0</v>
+        <v>28990886.21</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>28981843</v>
       </c>
       <c r="I351" t="n">
-        <v>0</v>
+        <v>28333649</v>
       </c>
       <c r="J351" t="inlineStr">
         <is>
@@ -13779,31 +13779,31 @@
         </is>
       </c>
       <c r="C352" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>TAXA DE SEGURANCA PUBLICA</t>
+          <t>CONTRIBUICAO A APOSENTADORIA</t>
         </is>
       </c>
       <c r="E352" t="n">
-        <v>1380665251.27</v>
+        <v>0</v>
       </c>
       <c r="F352" t="n">
-        <v>1185095350.43</v>
+        <v>21820387.29</v>
       </c>
       <c r="G352" t="n">
-        <v>1247789925.65</v>
+        <v>11672445.79</v>
       </c>
       <c r="H352" t="n">
-        <v>1322391859</v>
+        <v>186552041</v>
       </c>
       <c r="I352" t="n">
-        <v>1369556515</v>
+        <v>0</v>
       </c>
       <c r="J352" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>ATENCAO</t>
         </is>
       </c>
     </row>
@@ -13817,27 +13817,27 @@
         </is>
       </c>
       <c r="C353" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>TAXA DE EXPEDIENTE - ADMINISTRACAO DIRETA</t>
+          <t>UTILIZACAO DE RECURSOS HIDRICOS</t>
         </is>
       </c>
       <c r="E353" t="n">
-        <v>45711754.29</v>
+        <v>70450093.03</v>
       </c>
       <c r="F353" t="n">
-        <v>25963270.97</v>
+        <v>78756531.09</v>
       </c>
       <c r="G353" t="n">
-        <v>28990886.21</v>
+        <v>71648785.67</v>
       </c>
       <c r="H353" t="n">
-        <v>28981843</v>
+        <v>71657243</v>
       </c>
       <c r="I353" t="n">
-        <v>28333649</v>
+        <v>81421770</v>
       </c>
       <c r="J353" t="inlineStr">
         <is>
@@ -13855,31 +13855,31 @@
         </is>
       </c>
       <c r="C354" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO A APOSENTADORIA</t>
+          <t>EXPLORACAO DE RECURSOS MINERAIS</t>
         </is>
       </c>
       <c r="E354" t="n">
-        <v>0</v>
+        <v>328619393.12</v>
       </c>
       <c r="F354" t="n">
-        <v>21820387.29</v>
+        <v>351848681.18</v>
       </c>
       <c r="G354" t="n">
-        <v>11672445.79</v>
+        <v>375829398</v>
       </c>
       <c r="H354" t="n">
-        <v>186552041</v>
+        <v>375829398</v>
       </c>
       <c r="I354" t="n">
-        <v>0</v>
+        <v>393403638</v>
       </c>
       <c r="J354" t="inlineStr">
         <is>
-          <t>ATENCAO</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -13893,27 +13893,27 @@
         </is>
       </c>
       <c r="C355" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>UTILIZACAO DE RECURSOS HIDRICOS</t>
+          <t>EXPLORACAO E PRODUCAO DE PETROLEO E GAS NATURAL</t>
         </is>
       </c>
       <c r="E355" t="n">
-        <v>70450093.03</v>
+        <v>31026746.71</v>
       </c>
       <c r="F355" t="n">
-        <v>78756531.09</v>
+        <v>36643305.2</v>
       </c>
       <c r="G355" t="n">
-        <v>71648785.67</v>
+        <v>37947881</v>
       </c>
       <c r="H355" t="n">
-        <v>71657243</v>
+        <v>37947881</v>
       </c>
       <c r="I355" t="n">
-        <v>81421770</v>
+        <v>38666646</v>
       </c>
       <c r="J355" t="inlineStr">
         <is>
@@ -13931,27 +13931,27 @@
         </is>
       </c>
       <c r="C356" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>EXPLORACAO DE RECURSOS MINERAIS</t>
+          <t>TRANSFERENCIAS DO FNDE VINCULADAS A EDUCACAO - EXCETO EMENDAS INDIVIDUAIS E DE BANCADA</t>
         </is>
       </c>
       <c r="E356" t="n">
-        <v>328619393.12</v>
+        <v>0</v>
       </c>
       <c r="F356" t="n">
-        <v>351848681.18</v>
+        <v>0</v>
       </c>
       <c r="G356" t="n">
-        <v>375829398</v>
+        <v>0</v>
       </c>
       <c r="H356" t="n">
-        <v>375829398</v>
+        <v>461105173</v>
       </c>
       <c r="I356" t="n">
-        <v>393403638</v>
+        <v>0</v>
       </c>
       <c r="J356" t="inlineStr">
         <is>
@@ -13969,27 +13969,27 @@
         </is>
       </c>
       <c r="C357" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>EXPLORACAO E PRODUCAO DE PETROLEO E GAS NATURAL</t>
+          <t>TRANSFERENCIAS DA UNIAO VINCULADAS AO ESPORTE</t>
         </is>
       </c>
       <c r="E357" t="n">
-        <v>31026746.71</v>
+        <v>0</v>
       </c>
       <c r="F357" t="n">
-        <v>36643305.2</v>
+        <v>0</v>
       </c>
       <c r="G357" t="n">
-        <v>37947881</v>
+        <v>0</v>
       </c>
       <c r="H357" t="n">
-        <v>37947881</v>
+        <v>27477117</v>
       </c>
       <c r="I357" t="n">
-        <v>38666646</v>
+        <v>0</v>
       </c>
       <c r="J357" t="inlineStr">
         <is>
@@ -14007,27 +14007,27 @@
         </is>
       </c>
       <c r="C358" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>TRANSFERENCIAS DO FNDE VINCULADAS A EDUCACAO - EXCETO EMENDAS INDIVIDUAIS E DE BANCADA</t>
+          <t>RECURSOS FUNDOS EXTINTOS-LEI NO 13.848/2001</t>
         </is>
       </c>
       <c r="E358" t="n">
         <v>0</v>
       </c>
       <c r="F358" t="n">
-        <v>0</v>
+        <v>508498.37</v>
       </c>
       <c r="G358" t="n">
-        <v>0</v>
+        <v>3116.66</v>
       </c>
       <c r="H358" t="n">
-        <v>461105173</v>
+        <v>3400</v>
       </c>
       <c r="I358" t="n">
-        <v>0</v>
+        <v>462290</v>
       </c>
       <c r="J358" t="inlineStr">
         <is>
@@ -14045,11 +14045,11 @@
         </is>
       </c>
       <c r="C359" t="n">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>TRANSFERENCIAS DA UNIAO VINCULADAS AO ESPORTE</t>
+          <t>DOACOES DE PESSOAS, DE INSTITUICOES PRIVADAS OU DO EXTERIOR A ORGAO E ENTIDADES DO ESTADO</t>
         </is>
       </c>
       <c r="E359" t="n">
@@ -14062,7 +14062,7 @@
         <v>0</v>
       </c>
       <c r="H359" t="n">
-        <v>27477117</v>
+        <v>156004</v>
       </c>
       <c r="I359" t="n">
         <v>0</v>
@@ -14083,27 +14083,27 @@
         </is>
       </c>
       <c r="C360" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>RECURSOS FUNDOS EXTINTOS-LEI NO 13.848/2001</t>
+          <t>DOACOES DE PESSOAS, DE INSTITUICOES PRIVADAS OU DO EXTERIOR AO TESOURO ESTADUAL</t>
         </is>
       </c>
       <c r="E360" t="n">
-        <v>0</v>
+        <v>10518.65</v>
       </c>
       <c r="F360" t="n">
-        <v>508498.37</v>
+        <v>5391.86</v>
       </c>
       <c r="G360" t="n">
-        <v>3116.66</v>
+        <v>1235.15</v>
       </c>
       <c r="H360" t="n">
-        <v>3400</v>
+        <v>1071</v>
       </c>
       <c r="I360" t="n">
-        <v>462290</v>
+        <v>1567</v>
       </c>
       <c r="J360" t="inlineStr">
         <is>
@@ -14121,15 +14121,15 @@
         </is>
       </c>
       <c r="C361" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>DOACOES DE PESSOAS, DE INSTITUICOES PRIVADAS OU DO EXTERIOR A ORGAO E ENTIDADES DO ESTADO</t>
+          <t>ALIENACAO DE BENS DE ENTIDADES ESTADUAIS</t>
         </is>
       </c>
       <c r="E361" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F361" t="n">
         <v>0</v>
@@ -14138,7 +14138,7 @@
         <v>0</v>
       </c>
       <c r="H361" t="n">
-        <v>156004</v>
+        <v>6250000</v>
       </c>
       <c r="I361" t="n">
         <v>0</v>
@@ -14159,27 +14159,27 @@
         </is>
       </c>
       <c r="C362" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>DOACOES DE PESSOAS, DE INSTITUICOES PRIVADAS OU DO EXTERIOR AO TESOURO ESTADUAL</t>
+          <t>ALIENACAO DE BENS DO TESOURO ESTADUAL</t>
         </is>
       </c>
       <c r="E362" t="n">
-        <v>10518.65</v>
+        <v>38769944.15</v>
       </c>
       <c r="F362" t="n">
-        <v>5391.86</v>
+        <v>4852234.21</v>
       </c>
       <c r="G362" t="n">
-        <v>1235.15</v>
+        <v>21049396.76</v>
       </c>
       <c r="H362" t="n">
-        <v>1071</v>
+        <v>21883351</v>
       </c>
       <c r="I362" t="n">
-        <v>1567</v>
+        <v>18467174</v>
       </c>
       <c r="J362" t="inlineStr">
         <is>
@@ -14197,27 +14197,27 @@
         </is>
       </c>
       <c r="C363" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>ALIENACAO DE BENS DE ENTIDADES ESTADUAIS</t>
+          <t>CONTRIBUICAO DE INTERVENCAO NO DOMINIO ECONOMICO/COMBUSTIVEIS-CIDE</t>
         </is>
       </c>
       <c r="E363" t="n">
-        <v>30</v>
+        <v>11254836.05</v>
       </c>
       <c r="F363" t="n">
-        <v>0</v>
+        <v>79061277.77</v>
       </c>
       <c r="G363" t="n">
-        <v>0</v>
+        <v>91535021.01000001</v>
       </c>
       <c r="H363" t="n">
-        <v>6250000</v>
+        <v>75072675</v>
       </c>
       <c r="I363" t="n">
-        <v>0</v>
+        <v>94738747</v>
       </c>
       <c r="J363" t="inlineStr">
         <is>
@@ -14235,31 +14235,31 @@
         </is>
       </c>
       <c r="C364" t="n">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>ALIENACAO DE BENS DO TESOURO ESTADUAL</t>
+          <t>TAXA DE INCENDIO</t>
         </is>
       </c>
       <c r="E364" t="n">
-        <v>38769944.15</v>
+        <v>1153742.33</v>
       </c>
       <c r="F364" t="n">
-        <v>4852234.21</v>
+        <v>8319.77</v>
       </c>
       <c r="G364" t="n">
-        <v>21049396.76</v>
+        <v>2939.75</v>
       </c>
       <c r="H364" t="n">
-        <v>21883351</v>
+        <v>3207</v>
       </c>
       <c r="I364" t="n">
-        <v>18467174</v>
+        <v>2470</v>
       </c>
       <c r="J364" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>VALOR DISCREPANTE</t>
         </is>
       </c>
     </row>
@@ -14273,31 +14273,31 @@
         </is>
       </c>
       <c r="C365" t="n">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO DE INTERVENCAO NO DOMINIO ECONOMICO/COMBUSTIVEIS-CIDE</t>
+          <t>TRANSFERENCIAS DA UNIAO POR MEIO DE PORTARIA - EXCETO EMENDAS INDIVIDUAIS E DE BANCADA</t>
         </is>
       </c>
       <c r="E365" t="n">
-        <v>11254836.05</v>
+        <v>0</v>
       </c>
       <c r="F365" t="n">
-        <v>79061277.77</v>
+        <v>7.2</v>
       </c>
       <c r="G365" t="n">
-        <v>91535021.01000001</v>
+        <v>0</v>
       </c>
       <c r="H365" t="n">
-        <v>75072675</v>
+        <v>12502000</v>
       </c>
       <c r="I365" t="n">
-        <v>94738747</v>
+        <v>0</v>
       </c>
       <c r="J365" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>ATENCAO</t>
         </is>
       </c>
     </row>
@@ -14311,31 +14311,31 @@
         </is>
       </c>
       <c r="C366" t="n">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>TAXA DE INCENDIO</t>
+          <t>OUTROS RECURSOS VINCULADOS</t>
         </is>
       </c>
       <c r="E366" t="n">
-        <v>1153742.33</v>
+        <v>0</v>
       </c>
       <c r="F366" t="n">
-        <v>8319.77</v>
+        <v>0</v>
       </c>
       <c r="G366" t="n">
-        <v>2939.75</v>
+        <v>0</v>
       </c>
       <c r="H366" t="n">
-        <v>3207</v>
+        <v>14594825</v>
       </c>
       <c r="I366" t="n">
-        <v>2470</v>
+        <v>0</v>
       </c>
       <c r="J366" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -14349,24 +14349,24 @@
         </is>
       </c>
       <c r="C367" t="n">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>TRANSFERENCIAS DA UNIAO POR MEIO DE PORTARIA - EXCETO EMENDAS INDIVIDUAIS E DE BANCADA</t>
+          <t>RECURSOS DIRETAMENTE ARRECADADOS</t>
         </is>
       </c>
       <c r="E367" t="n">
-        <v>0</v>
+        <v>110644.86</v>
       </c>
       <c r="F367" t="n">
-        <v>7.2</v>
+        <v>1495.96</v>
       </c>
       <c r="G367" t="n">
         <v>0</v>
       </c>
       <c r="H367" t="n">
-        <v>12502000</v>
+        <v>288206811</v>
       </c>
       <c r="I367" t="n">
         <v>0</v>
@@ -14387,11 +14387,11 @@
         </is>
       </c>
       <c r="C368" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>OUTROS RECURSOS VINCULADOS</t>
+          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
         </is>
       </c>
       <c r="E368" t="n">
@@ -14404,7 +14404,7 @@
         <v>0</v>
       </c>
       <c r="H368" t="n">
-        <v>14594825</v>
+        <v>98740</v>
       </c>
       <c r="I368" t="n">
         <v>0</v>
@@ -14425,31 +14425,31 @@
         </is>
       </c>
       <c r="C369" t="n">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
-          <t>RECURSOS DIRETAMENTE ARRECADADOS</t>
+          <t>ACORDOS E AJUSTES DE COOPERACAO MUTUA COM OS ESTADOS E O DISTRITO FEDERAL</t>
         </is>
       </c>
       <c r="E369" t="n">
-        <v>110644.86</v>
+        <v>0</v>
       </c>
       <c r="F369" t="n">
-        <v>1495.96</v>
+        <v>0</v>
       </c>
       <c r="G369" t="n">
         <v>0</v>
       </c>
       <c r="H369" t="n">
-        <v>288206811</v>
+        <v>761995</v>
       </c>
       <c r="I369" t="n">
         <v>0</v>
       </c>
       <c r="J369" t="inlineStr">
         <is>
-          <t>ATENCAO</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -14463,11 +14463,11 @@
         </is>
       </c>
       <c r="C370" t="n">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
-          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
+          <t>CONVENIOS COM AS INSTITUICOES PRIVADAS E OS ORGANISMOS DO EXTERIOR</t>
         </is>
       </c>
       <c r="E370" t="n">
@@ -14480,7 +14480,7 @@
         <v>0</v>
       </c>
       <c r="H370" t="n">
-        <v>98740</v>
+        <v>1502000</v>
       </c>
       <c r="I370" t="n">
         <v>0</v>
@@ -14501,11 +14501,11 @@
         </is>
       </c>
       <c r="C371" t="n">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t>ACORDOS E AJUSTES DE COOPERACAO MUTUA COM OS ESTADOS E O DISTRITO FEDERAL</t>
+          <t>CONVENIOS COM OS ESTADOS E O DISTRITO FEDERAL</t>
         </is>
       </c>
       <c r="E371" t="n">
@@ -14518,7 +14518,7 @@
         <v>0</v>
       </c>
       <c r="H371" t="n">
-        <v>761995</v>
+        <v>27253000</v>
       </c>
       <c r="I371" t="n">
         <v>0</v>
@@ -14539,11 +14539,11 @@
         </is>
       </c>
       <c r="C372" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
-          <t>CONVENIOS COM AS INSTITUICOES PRIVADAS E OS ORGANISMOS DO EXTERIOR</t>
+          <t>CONVENIOS COM OS MUNICIPIOS</t>
         </is>
       </c>
       <c r="E372" t="n">
@@ -14556,7 +14556,7 @@
         <v>0</v>
       </c>
       <c r="H372" t="n">
-        <v>1502000</v>
+        <v>50348302</v>
       </c>
       <c r="I372" t="n">
         <v>0</v>
@@ -14577,27 +14577,27 @@
         </is>
       </c>
       <c r="C373" t="n">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>CONVENIOS COM OS ESTADOS E O DISTRITO FEDERAL</t>
+          <t>RECURSOS DO FUNDO ESTADUAL DE ERRADICACAO DA MISERIA</t>
         </is>
       </c>
       <c r="E373" t="n">
-        <v>0</v>
+        <v>88815732.95999999</v>
       </c>
       <c r="F373" t="n">
-        <v>0</v>
+        <v>776258168.76</v>
       </c>
       <c r="G373" t="n">
-        <v>0</v>
+        <v>792598408.45</v>
       </c>
       <c r="H373" t="n">
-        <v>27253000</v>
+        <v>545685054</v>
       </c>
       <c r="I373" t="n">
-        <v>0</v>
+        <v>831114740</v>
       </c>
       <c r="J373" t="inlineStr">
         <is>
@@ -14615,27 +14615,27 @@
         </is>
       </c>
       <c r="C374" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
-          <t>CONVENIOS COM OS MUNICIPIOS</t>
+          <t>TAXA DE FISCALIZACAO DE RECURSOS MINERARIOS</t>
         </is>
       </c>
       <c r="E374" t="n">
-        <v>0</v>
+        <v>374951627.24</v>
       </c>
       <c r="F374" t="n">
-        <v>0</v>
+        <v>407148083.68</v>
       </c>
       <c r="G374" t="n">
-        <v>0</v>
+        <v>424679277.42</v>
       </c>
       <c r="H374" t="n">
-        <v>50348302</v>
+        <v>380355187</v>
       </c>
       <c r="I374" t="n">
-        <v>0</v>
+        <v>436811287</v>
       </c>
       <c r="J374" t="inlineStr">
         <is>
@@ -14653,27 +14653,27 @@
         </is>
       </c>
       <c r="C375" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>RECURSOS DO FUNDO ESTADUAL DE ERRADICACAO DA MISERIA</t>
+          <t>ACORDOS, AJUSTES E DEMAIS INSTRUMENTOS DE COOPERACAO MUTUA COM A UNIAO E SUAS ENTIDADES</t>
         </is>
       </c>
       <c r="E375" t="n">
-        <v>88815732.95999999</v>
+        <v>0</v>
       </c>
       <c r="F375" t="n">
-        <v>776258168.76</v>
+        <v>0</v>
       </c>
       <c r="G375" t="n">
-        <v>792598408.45</v>
+        <v>0</v>
       </c>
       <c r="H375" t="n">
-        <v>545685054</v>
+        <v>76832000</v>
       </c>
       <c r="I375" t="n">
-        <v>831114740</v>
+        <v>0</v>
       </c>
       <c r="J375" t="inlineStr">
         <is>
@@ -14691,27 +14691,27 @@
         </is>
       </c>
       <c r="C376" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
-          <t>TAXA DE FISCALIZACAO DE RECURSOS MINERARIOS</t>
+          <t>ACORDOS E AJUSTES DE COOPERACAO MUTUA COM AS INSTITUICOES PRIVADAS E OS ORGANISMOS DO EXTERIOR</t>
         </is>
       </c>
       <c r="E376" t="n">
-        <v>374951627.24</v>
+        <v>0</v>
       </c>
       <c r="F376" t="n">
-        <v>407148083.68</v>
+        <v>0</v>
       </c>
       <c r="G376" t="n">
-        <v>424679277.42</v>
+        <v>0</v>
       </c>
       <c r="H376" t="n">
-        <v>380355187</v>
+        <v>25772605</v>
       </c>
       <c r="I376" t="n">
-        <v>436811287</v>
+        <v>0</v>
       </c>
       <c r="J376" t="inlineStr">
         <is>
@@ -14729,31 +14729,31 @@
         </is>
       </c>
       <c r="C377" t="n">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
-          <t>ACORDOS, AJUSTES E DEMAIS INSTRUMENTOS DE COOPERACAO MUTUA COM A UNIAO E SUAS ENTIDADES</t>
+          <t>CONTRIBUICAO PATRONAL PARA CUSTEIO DOS PROVENTOS DOS MILITARES</t>
         </is>
       </c>
       <c r="E377" t="n">
         <v>0</v>
       </c>
       <c r="F377" t="n">
-        <v>0</v>
+        <v>84705643.87</v>
       </c>
       <c r="G377" t="n">
-        <v>0</v>
+        <v>42028879.08</v>
       </c>
       <c r="H377" t="n">
-        <v>76832000</v>
+        <v>545754463</v>
       </c>
       <c r="I377" t="n">
         <v>0</v>
       </c>
       <c r="J377" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>ATENCAO</t>
         </is>
       </c>
     </row>
@@ -14767,31 +14767,31 @@
         </is>
       </c>
       <c r="C378" t="n">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
-          <t>ACORDOS E AJUSTES DE COOPERACAO MUTUA COM AS INSTITUICOES PRIVADAS E OS ORGANISMOS DO EXTERIOR</t>
+          <t>CONTRIBUICAO MILITAR PARA CUSTEIO DO SISTEMA DE PROTECAO SOCIAL DOS MILITARES</t>
         </is>
       </c>
       <c r="E378" t="n">
-        <v>0</v>
+        <v>1532354109.02</v>
       </c>
       <c r="F378" t="n">
-        <v>0</v>
+        <v>1320239537.36</v>
       </c>
       <c r="G378" t="n">
         <v>0</v>
       </c>
       <c r="H378" t="n">
-        <v>25772605</v>
+        <v>0</v>
       </c>
       <c r="I378" t="n">
         <v>0</v>
       </c>
       <c r="J378" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>ATENCAO</t>
         </is>
       </c>
     </row>
@@ -14805,31 +14805,31 @@
         </is>
       </c>
       <c r="C379" t="n">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO PATRONAL PARA CUSTEIO DOS PROVENTOS DOS MILITARES</t>
+          <t>CONTRIBUICAO PATRONAL PARA O FUNPREV</t>
         </is>
       </c>
       <c r="E379" t="n">
         <v>0</v>
       </c>
       <c r="F379" t="n">
-        <v>84705643.87</v>
+        <v>0</v>
       </c>
       <c r="G379" t="n">
-        <v>42028879.08</v>
+        <v>0</v>
       </c>
       <c r="H379" t="n">
-        <v>545754463</v>
+        <v>0</v>
       </c>
       <c r="I379" t="n">
         <v>0</v>
       </c>
       <c r="J379" t="inlineStr">
         <is>
-          <t>ATENCAO</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -14843,31 +14843,31 @@
         </is>
       </c>
       <c r="C380" t="n">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO MILITAR PARA CUSTEIO DO SISTEMA DE PROTECAO SOCIAL DOS MILITARES</t>
+          <t>RECURSOS DO ACORDO DE REPACTUACAO DO RIO DOCE</t>
         </is>
       </c>
       <c r="E380" t="n">
-        <v>1532354109.02</v>
+        <v>0</v>
       </c>
       <c r="F380" t="n">
-        <v>1320239537.36</v>
+        <v>744936050.24</v>
       </c>
       <c r="G380" t="n">
-        <v>0</v>
+        <v>816925213.46</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>809526379</v>
       </c>
       <c r="I380" t="n">
-        <v>0</v>
+        <v>1224979677</v>
       </c>
       <c r="J380" t="inlineStr">
         <is>
-          <t>ATENCAO</t>
+          <t>VALOR DISCREPANTE</t>
         </is>
       </c>
     </row>
@@ -14881,27 +14881,27 @@
         </is>
       </c>
       <c r="C381" t="n">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO PATRONAL PARA O FUNPREV</t>
+          <t>NOTIFICACAO DE INFRACAO DE TRANSITO ESTADO</t>
         </is>
       </c>
       <c r="E381" t="n">
-        <v>0</v>
+        <v>142343203.39</v>
       </c>
       <c r="F381" t="n">
-        <v>0</v>
+        <v>115478246.12</v>
       </c>
       <c r="G381" t="n">
-        <v>0</v>
+        <v>137459096</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>137459096</v>
       </c>
       <c r="I381" t="n">
-        <v>0</v>
+        <v>145826918</v>
       </c>
       <c r="J381" t="inlineStr">
         <is>
@@ -14919,31 +14919,31 @@
         </is>
       </c>
       <c r="C382" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
-          <t>RECURSOS DO ACORDO DE REPACTUACAO DO RIO DOCE</t>
+          <t>TRANSFERENCIAS DO FUNDEB - COMPLEMENTACAO DA UNIAO - VAAR</t>
         </is>
       </c>
       <c r="E382" t="n">
         <v>0</v>
       </c>
       <c r="F382" t="n">
-        <v>744936050.24</v>
+        <v>0</v>
       </c>
       <c r="G382" t="n">
-        <v>816925213.46</v>
+        <v>0</v>
       </c>
       <c r="H382" t="n">
-        <v>809526379</v>
+        <v>0</v>
       </c>
       <c r="I382" t="n">
-        <v>1224979677</v>
+        <v>0</v>
       </c>
       <c r="J382" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -14957,27 +14957,27 @@
         </is>
       </c>
       <c r="C383" t="n">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>NOTIFICACAO DE INFRACAO DE TRANSITO ESTADO</t>
+          <t>TAXA FLORESTAL - ADMINISTRACAO DIRETA</t>
         </is>
       </c>
       <c r="E383" t="n">
-        <v>142343203.39</v>
+        <v>12564417.01</v>
       </c>
       <c r="F383" t="n">
-        <v>115478246.12</v>
+        <v>9420778.390000001</v>
       </c>
       <c r="G383" t="n">
-        <v>137459096</v>
+        <v>9844803</v>
       </c>
       <c r="H383" t="n">
-        <v>137459096</v>
+        <v>9844803</v>
       </c>
       <c r="I383" t="n">
-        <v>145826918</v>
+        <v>9153576</v>
       </c>
       <c r="J383" t="inlineStr">
         <is>
@@ -14995,27 +14995,27 @@
         </is>
       </c>
       <c r="C384" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>TRANSFERENCIAS DO FUNDEB - COMPLEMENTACAO DA UNIAO - VAAR</t>
+          <t>RECURSOS RECEBIDOS POR DANOS ADVINDOS DE DESASTRES SOCIOAMBIENTAIS</t>
         </is>
       </c>
       <c r="E384" t="n">
-        <v>0</v>
+        <v>3477781128.36</v>
       </c>
       <c r="F384" t="n">
-        <v>0</v>
+        <v>3149510852.67</v>
       </c>
       <c r="G384" t="n">
-        <v>0</v>
+        <v>1594250717.24</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
+        <v>1036541750</v>
       </c>
       <c r="I384" t="n">
-        <v>0</v>
+        <v>1606243280</v>
       </c>
       <c r="J384" t="inlineStr">
         <is>
@@ -15033,27 +15033,27 @@
         </is>
       </c>
       <c r="C385" t="n">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>TAXA FLORESTAL - ADMINISTRACAO DIRETA</t>
+          <t>TRANSFERENCIAS ESPECIAIS DE RECURSOS DA UNIAO - RECURSOS RECEBIDOS ATE 2023</t>
         </is>
       </c>
       <c r="E385" t="n">
-        <v>12564417.01</v>
+        <v>45083429.54</v>
       </c>
       <c r="F385" t="n">
-        <v>9420778.390000001</v>
+        <v>5162256.36</v>
       </c>
       <c r="G385" t="n">
-        <v>9844803</v>
+        <v>97738342.31</v>
       </c>
       <c r="H385" t="n">
-        <v>9844803</v>
+        <v>100000000</v>
       </c>
       <c r="I385" t="n">
-        <v>9153576</v>
+        <v>100525328</v>
       </c>
       <c r="J385" t="inlineStr">
         <is>
@@ -15071,105 +15071,29 @@
         </is>
       </c>
       <c r="C386" t="n">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t>RECURSOS RECEBIDOS POR DANOS ADVINDOS DE DESASTRES SOCIOAMBIENTAIS</t>
+          <t>TRANSFERENCIAS ESPECIAIS DE RECURSOS DA UNIAO</t>
         </is>
       </c>
       <c r="E386" t="n">
-        <v>3477781128.36</v>
+        <v>0</v>
       </c>
       <c r="F386" t="n">
-        <v>3149510852.67</v>
+        <v>0</v>
       </c>
       <c r="G386" t="n">
-        <v>1594250717.24</v>
+        <v>0</v>
       </c>
       <c r="H386" t="n">
-        <v>1036541750</v>
+        <v>0</v>
       </c>
       <c r="I386" t="n">
-        <v>1606243280</v>
+        <v>0</v>
       </c>
       <c r="J386" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-    </row>
-    <row r="387">
-      <c r="A387" t="n">
-        <v>9901</v>
-      </c>
-      <c r="B387" t="inlineStr">
-        <is>
-          <t>RGE</t>
-        </is>
-      </c>
-      <c r="C387" t="n">
-        <v>97</v>
-      </c>
-      <c r="D387" t="inlineStr">
-        <is>
-          <t>TRANSFERENCIAS ESPECIAIS DE RECURSOS DA UNIAO - RECURSOS RECEBIDOS ATE 2023</t>
-        </is>
-      </c>
-      <c r="E387" t="n">
-        <v>45083429.54</v>
-      </c>
-      <c r="F387" t="n">
-        <v>5162256.36</v>
-      </c>
-      <c r="G387" t="n">
-        <v>97738342.31</v>
-      </c>
-      <c r="H387" t="n">
-        <v>100000000</v>
-      </c>
-      <c r="I387" t="n">
-        <v>100525328</v>
-      </c>
-      <c r="J387" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-    </row>
-    <row r="388">
-      <c r="A388" t="n">
-        <v>9901</v>
-      </c>
-      <c r="B388" t="inlineStr">
-        <is>
-          <t>RGE</t>
-        </is>
-      </c>
-      <c r="C388" t="n">
-        <v>98</v>
-      </c>
-      <c r="D388" t="inlineStr">
-        <is>
-          <t>TRANSFERENCIAS ESPECIAIS DE RECURSOS DA UNIAO</t>
-        </is>
-      </c>
-      <c r="E388" t="n">
-        <v>0</v>
-      </c>
-      <c r="F388" t="n">
-        <v>0</v>
-      </c>
-      <c r="G388" t="n">
-        <v>0</v>
-      </c>
-      <c r="H388" t="n">
-        <v>0</v>
-      </c>
-      <c r="I388" t="n">
-        <v>0</v>
-      </c>
-      <c r="J388" t="inlineStr">
         <is>
           <t>OK</t>
         </is>

--- a/data/fonte_analise.xlsx
+++ b/data/fonte_analise.xlsx
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>298662</v>
+        <v>311326</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -1579,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>7182058</v>
+        <v>7183124</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -2853,11 +2853,7 @@
       <c r="C64" t="n">
         <v>79</v>
       </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>CONTRIBUICAO PATRONAL PARA O FUNPREV</t>
-        </is>
-      </c>
+      <c r="D64" t="inlineStr"/>
       <c r="E64" t="n">
         <v>0</v>
       </c>
@@ -5741,11 +5737,7 @@
       <c r="C140" t="n">
         <v>79</v>
       </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>CONTRIBUICAO PATRONAL PARA O FUNPREV</t>
-        </is>
-      </c>
+      <c r="D140" t="inlineStr"/>
       <c r="E140" t="n">
         <v>0</v>
       </c>
@@ -6235,11 +6227,7 @@
       <c r="C153" t="n">
         <v>79</v>
       </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>CONTRIBUICAO PATRONAL PARA O FUNPREV</t>
-        </is>
-      </c>
+      <c r="D153" t="inlineStr"/>
       <c r="E153" t="n">
         <v>0</v>
       </c>
@@ -7527,11 +7515,7 @@
       <c r="C187" t="n">
         <v>79</v>
       </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>CONTRIBUICAO PATRONAL PARA O FUNPREV</t>
-        </is>
-      </c>
+      <c r="D187" t="inlineStr"/>
       <c r="E187" t="n">
         <v>0</v>
       </c>
@@ -10789,7 +10773,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>FUNDALEMG</t>
+          <t>FUNDHAB</t>
         </is>
       </c>
       <c r="C273" t="n">
@@ -14807,11 +14791,7 @@
       <c r="C379" t="n">
         <v>79</v>
       </c>
-      <c r="D379" t="inlineStr">
-        <is>
-          <t>CONTRIBUICAO PATRONAL PARA O FUNPREV</t>
-        </is>
-      </c>
+      <c r="D379" t="inlineStr"/>
       <c r="E379" t="n">
         <v>0</v>
       </c>

--- a/data/fonte_analise.xlsx
+++ b/data/fonte_analise.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J386"/>
+  <dimension ref="A1:J409"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1921,7 +1921,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>13507784810</v>
+        <v>13622387274</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -2453,11 +2453,11 @@
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>7150000</v>
+        <v>0</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -2491,11 +2491,11 @@
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>ATENCAO</t>
         </is>
       </c>
     </row>
@@ -2567,11 +2567,11 @@
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>1385000</v>
+        <v>0</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -2605,11 +2605,11 @@
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>517000</v>
+        <v>0</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -2643,11 +2643,11 @@
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>1200000</v>
+        <v>0</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -4311,11 +4311,11 @@
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>4000000</v>
+        <v>0</v>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>ATENCAO</t>
         </is>
       </c>
     </row>
@@ -7681,11 +7681,11 @@
         <v>610830540</v>
       </c>
       <c r="I191" t="n">
-        <v>0</v>
+        <v>676000</v>
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>VALOR DISCREPANTE</t>
         </is>
       </c>
     </row>
@@ -7719,11 +7719,11 @@
         <v>4031000</v>
       </c>
       <c r="I192" t="n">
-        <v>4003371</v>
+        <v>0</v>
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>RECEITA NAO ESTIMADA</t>
         </is>
       </c>
     </row>
@@ -8935,7 +8935,7 @@
         <v>392902891</v>
       </c>
       <c r="I224" t="n">
-        <v>853223</v>
+        <v>633223</v>
       </c>
       <c r="J224" t="inlineStr">
         <is>
@@ -9847,11 +9847,11 @@
         <v>44173673</v>
       </c>
       <c r="I248" t="n">
-        <v>0</v>
+        <v>45888052</v>
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -10341,11 +10341,11 @@
         <v>1200000</v>
       </c>
       <c r="I261" t="n">
-        <v>153600000</v>
+        <v>1536000</v>
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -11633,11 +11633,11 @@
         <v>1500000</v>
       </c>
       <c r="I295" t="n">
-        <v>0</v>
+        <v>400000</v>
       </c>
       <c r="J295" t="inlineStr">
         <is>
-          <t>RECEITA NAO ESTIMADA</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -11709,11 +11709,11 @@
         <v>154145937</v>
       </c>
       <c r="I297" t="n">
-        <v>139846409</v>
+        <v>298664878</v>
       </c>
       <c r="J297" t="inlineStr">
         <is>
-          <t>VALOR DISCREPANTE</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -11747,7 +11747,7 @@
         <v>196165506</v>
       </c>
       <c r="I298" t="n">
-        <v>220409702</v>
+        <v>220417899</v>
       </c>
       <c r="J298" t="inlineStr">
         <is>
@@ -12501,7 +12501,7 @@
         <v>0</v>
       </c>
       <c r="G318" t="n">
-        <v>139037773.94</v>
+        <v>11511560.94</v>
       </c>
       <c r="H318" t="n">
         <v>0</v>
@@ -12805,7 +12805,7 @@
         <v>0</v>
       </c>
       <c r="G326" t="n">
-        <v>504457766.15</v>
+        <v>1.15</v>
       </c>
       <c r="H326" t="n">
         <v>0</v>
@@ -13777,7 +13777,7 @@
         <v>21820387.29</v>
       </c>
       <c r="G352" t="n">
-        <v>11672445.79</v>
+        <v>139198658.79</v>
       </c>
       <c r="H352" t="n">
         <v>186552041</v>
@@ -14727,7 +14727,7 @@
         <v>84705643.87</v>
       </c>
       <c r="G377" t="n">
-        <v>42028879.08</v>
+        <v>44178438.08</v>
       </c>
       <c r="H377" t="n">
         <v>545754463</v>
@@ -15033,11 +15033,11 @@
         <v>100000000</v>
       </c>
       <c r="I385" t="n">
-        <v>100525328</v>
+        <v>4364772</v>
       </c>
       <c r="J385" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>VALOR DISCREPANTE</t>
         </is>
       </c>
     </row>
@@ -15076,6 +15076,788 @@
       <c r="J386" t="inlineStr">
         <is>
           <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="n">
+        <v>9902</v>
+      </c>
+      <c r="B387" t="inlineStr"/>
+      <c r="C387" t="n">
+        <v>75</v>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>CONTRIBUICAO PATRONAL PARA CUSTEIO DOS PROVENTOS DOS MILITARES</t>
+        </is>
+      </c>
+      <c r="E387" t="n">
+        <v>0</v>
+      </c>
+      <c r="F387" t="n">
+        <v>0</v>
+      </c>
+      <c r="G387" t="n">
+        <v>2155013</v>
+      </c>
+      <c r="H387" t="n">
+        <v>0</v>
+      </c>
+      <c r="I387" t="n">
+        <v>0</v>
+      </c>
+      <c r="J387" t="inlineStr">
+        <is>
+          <t>ATENCAO</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="n">
+        <v>9903</v>
+      </c>
+      <c r="B388" t="inlineStr"/>
+      <c r="C388" t="n">
+        <v>75</v>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>CONTRIBUICAO PATRONAL PARA CUSTEIO DOS PROVENTOS DOS MILITARES</t>
+        </is>
+      </c>
+      <c r="E388" t="n">
+        <v>0</v>
+      </c>
+      <c r="F388" t="n">
+        <v>0</v>
+      </c>
+      <c r="G388" t="n">
+        <v>15494717</v>
+      </c>
+      <c r="H388" t="n">
+        <v>0</v>
+      </c>
+      <c r="I388" t="n">
+        <v>0</v>
+      </c>
+      <c r="J388" t="inlineStr">
+        <is>
+          <t>ATENCAO</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="n">
+        <v>9904</v>
+      </c>
+      <c r="B389" t="inlineStr"/>
+      <c r="C389" t="n">
+        <v>75</v>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>CONTRIBUICAO PATRONAL PARA CUSTEIO DOS PROVENTOS DOS MILITARES</t>
+        </is>
+      </c>
+      <c r="E389" t="n">
+        <v>0</v>
+      </c>
+      <c r="F389" t="n">
+        <v>0</v>
+      </c>
+      <c r="G389" t="n">
+        <v>26645379</v>
+      </c>
+      <c r="H389" t="n">
+        <v>0</v>
+      </c>
+      <c r="I389" t="n">
+        <v>0</v>
+      </c>
+      <c r="J389" t="inlineStr">
+        <is>
+          <t>ATENCAO</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="n">
+        <v>9905</v>
+      </c>
+      <c r="B390" t="inlineStr"/>
+      <c r="C390" t="n">
+        <v>75</v>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>CONTRIBUICAO PATRONAL PARA CUSTEIO DOS PROVENTOS DOS MILITARES</t>
+        </is>
+      </c>
+      <c r="E390" t="n">
+        <v>0</v>
+      </c>
+      <c r="F390" t="n">
+        <v>0</v>
+      </c>
+      <c r="G390" t="n">
+        <v>15475759</v>
+      </c>
+      <c r="H390" t="n">
+        <v>0</v>
+      </c>
+      <c r="I390" t="n">
+        <v>0</v>
+      </c>
+      <c r="J390" t="inlineStr">
+        <is>
+          <t>ATENCAO</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="n">
+        <v>9906</v>
+      </c>
+      <c r="B391" t="inlineStr"/>
+      <c r="C391" t="n">
+        <v>75</v>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>CONTRIBUICAO PATRONAL PARA CUSTEIO DOS PROVENTOS DOS MILITARES</t>
+        </is>
+      </c>
+      <c r="E391" t="n">
+        <v>0</v>
+      </c>
+      <c r="F391" t="n">
+        <v>0</v>
+      </c>
+      <c r="G391" t="n">
+        <v>26553120</v>
+      </c>
+      <c r="H391" t="n">
+        <v>0</v>
+      </c>
+      <c r="I391" t="n">
+        <v>0</v>
+      </c>
+      <c r="J391" t="inlineStr">
+        <is>
+          <t>ATENCAO</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="n">
+        <v>9907</v>
+      </c>
+      <c r="B392" t="inlineStr"/>
+      <c r="C392" t="n">
+        <v>75</v>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>CONTRIBUICAO PATRONAL PARA CUSTEIO DOS PROVENTOS DOS MILITARES</t>
+        </is>
+      </c>
+      <c r="E392" t="n">
+        <v>0</v>
+      </c>
+      <c r="F392" t="n">
+        <v>0</v>
+      </c>
+      <c r="G392" t="n">
+        <v>15475759</v>
+      </c>
+      <c r="H392" t="n">
+        <v>0</v>
+      </c>
+      <c r="I392" t="n">
+        <v>0</v>
+      </c>
+      <c r="J392" t="inlineStr">
+        <is>
+          <t>ATENCAO</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="n">
+        <v>9908</v>
+      </c>
+      <c r="B393" t="inlineStr"/>
+      <c r="C393" t="n">
+        <v>75</v>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>CONTRIBUICAO PATRONAL PARA CUSTEIO DOS PROVENTOS DOS MILITARES</t>
+        </is>
+      </c>
+      <c r="E393" t="n">
+        <v>0</v>
+      </c>
+      <c r="F393" t="n">
+        <v>0</v>
+      </c>
+      <c r="G393" t="n">
+        <v>26553120</v>
+      </c>
+      <c r="H393" t="n">
+        <v>0</v>
+      </c>
+      <c r="I393" t="n">
+        <v>0</v>
+      </c>
+      <c r="J393" t="inlineStr">
+        <is>
+          <t>ATENCAO</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="n">
+        <v>9909</v>
+      </c>
+      <c r="B394" t="inlineStr"/>
+      <c r="C394" t="n">
+        <v>75</v>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>CONTRIBUICAO PATRONAL PARA CUSTEIO DOS PROVENTOS DOS MILITARES</t>
+        </is>
+      </c>
+      <c r="E394" t="n">
+        <v>0</v>
+      </c>
+      <c r="F394" t="n">
+        <v>0</v>
+      </c>
+      <c r="G394" t="n">
+        <v>15475759</v>
+      </c>
+      <c r="H394" t="n">
+        <v>0</v>
+      </c>
+      <c r="I394" t="n">
+        <v>0</v>
+      </c>
+      <c r="J394" t="inlineStr">
+        <is>
+          <t>ATENCAO</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="n">
+        <v>9910</v>
+      </c>
+      <c r="B395" t="inlineStr"/>
+      <c r="C395" t="n">
+        <v>75</v>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>CONTRIBUICAO PATRONAL PARA CUSTEIO DOS PROVENTOS DOS MILITARES</t>
+        </is>
+      </c>
+      <c r="E395" t="n">
+        <v>0</v>
+      </c>
+      <c r="F395" t="n">
+        <v>0</v>
+      </c>
+      <c r="G395" t="n">
+        <v>26553120</v>
+      </c>
+      <c r="H395" t="n">
+        <v>0</v>
+      </c>
+      <c r="I395" t="n">
+        <v>0</v>
+      </c>
+      <c r="J395" t="inlineStr">
+        <is>
+          <t>ATENCAO</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="n">
+        <v>9911</v>
+      </c>
+      <c r="B396" t="inlineStr"/>
+      <c r="C396" t="n">
+        <v>75</v>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>CONTRIBUICAO PATRONAL PARA CUSTEIO DOS PROVENTOS DOS MILITARES</t>
+        </is>
+      </c>
+      <c r="E396" t="n">
+        <v>0</v>
+      </c>
+      <c r="F396" t="n">
+        <v>0</v>
+      </c>
+      <c r="G396" t="n">
+        <v>15475759</v>
+      </c>
+      <c r="H396" t="n">
+        <v>0</v>
+      </c>
+      <c r="I396" t="n">
+        <v>0</v>
+      </c>
+      <c r="J396" t="inlineStr">
+        <is>
+          <t>ATENCAO</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="n">
+        <v>9912</v>
+      </c>
+      <c r="B397" t="inlineStr"/>
+      <c r="C397" t="n">
+        <v>75</v>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>CONTRIBUICAO PATRONAL PARA CUSTEIO DOS PROVENTOS DOS MILITARES</t>
+        </is>
+      </c>
+      <c r="E397" t="n">
+        <v>0</v>
+      </c>
+      <c r="F397" t="n">
+        <v>0</v>
+      </c>
+      <c r="G397" t="n">
+        <v>26553120</v>
+      </c>
+      <c r="H397" t="n">
+        <v>0</v>
+      </c>
+      <c r="I397" t="n">
+        <v>0</v>
+      </c>
+      <c r="J397" t="inlineStr">
+        <is>
+          <t>ATENCAO</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="n">
+        <v>9913</v>
+      </c>
+      <c r="B398" t="inlineStr"/>
+      <c r="C398" t="n">
+        <v>75</v>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>CONTRIBUICAO PATRONAL PARA CUSTEIO DOS PROVENTOS DOS MILITARES</t>
+        </is>
+      </c>
+      <c r="E398" t="n">
+        <v>0</v>
+      </c>
+      <c r="F398" t="n">
+        <v>0</v>
+      </c>
+      <c r="G398" t="n">
+        <v>15475759</v>
+      </c>
+      <c r="H398" t="n">
+        <v>0</v>
+      </c>
+      <c r="I398" t="n">
+        <v>0</v>
+      </c>
+      <c r="J398" t="inlineStr">
+        <is>
+          <t>ATENCAO</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="n">
+        <v>9914</v>
+      </c>
+      <c r="B399" t="inlineStr"/>
+      <c r="C399" t="n">
+        <v>75</v>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>CONTRIBUICAO PATRONAL PARA CUSTEIO DOS PROVENTOS DOS MILITARES</t>
+        </is>
+      </c>
+      <c r="E399" t="n">
+        <v>0</v>
+      </c>
+      <c r="F399" t="n">
+        <v>0</v>
+      </c>
+      <c r="G399" t="n">
+        <v>26553120</v>
+      </c>
+      <c r="H399" t="n">
+        <v>0</v>
+      </c>
+      <c r="I399" t="n">
+        <v>0</v>
+      </c>
+      <c r="J399" t="inlineStr">
+        <is>
+          <t>ATENCAO</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="n">
+        <v>9915</v>
+      </c>
+      <c r="B400" t="inlineStr"/>
+      <c r="C400" t="n">
+        <v>75</v>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>CONTRIBUICAO PATRONAL PARA CUSTEIO DOS PROVENTOS DOS MILITARES</t>
+        </is>
+      </c>
+      <c r="E400" t="n">
+        <v>0</v>
+      </c>
+      <c r="F400" t="n">
+        <v>0</v>
+      </c>
+      <c r="G400" t="n">
+        <v>15475759</v>
+      </c>
+      <c r="H400" t="n">
+        <v>0</v>
+      </c>
+      <c r="I400" t="n">
+        <v>0</v>
+      </c>
+      <c r="J400" t="inlineStr">
+        <is>
+          <t>ATENCAO</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="n">
+        <v>9916</v>
+      </c>
+      <c r="B401" t="inlineStr"/>
+      <c r="C401" t="n">
+        <v>75</v>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>CONTRIBUICAO PATRONAL PARA CUSTEIO DOS PROVENTOS DOS MILITARES</t>
+        </is>
+      </c>
+      <c r="E401" t="n">
+        <v>0</v>
+      </c>
+      <c r="F401" t="n">
+        <v>0</v>
+      </c>
+      <c r="G401" t="n">
+        <v>26553120</v>
+      </c>
+      <c r="H401" t="n">
+        <v>0</v>
+      </c>
+      <c r="I401" t="n">
+        <v>0</v>
+      </c>
+      <c r="J401" t="inlineStr">
+        <is>
+          <t>ATENCAO</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="n">
+        <v>9917</v>
+      </c>
+      <c r="B402" t="inlineStr"/>
+      <c r="C402" t="n">
+        <v>75</v>
+      </c>
+      <c r="D402" t="inlineStr">
+        <is>
+          <t>CONTRIBUICAO PATRONAL PARA CUSTEIO DOS PROVENTOS DOS MILITARES</t>
+        </is>
+      </c>
+      <c r="E402" t="n">
+        <v>0</v>
+      </c>
+      <c r="F402" t="n">
+        <v>0</v>
+      </c>
+      <c r="G402" t="n">
+        <v>15475759</v>
+      </c>
+      <c r="H402" t="n">
+        <v>0</v>
+      </c>
+      <c r="I402" t="n">
+        <v>0</v>
+      </c>
+      <c r="J402" t="inlineStr">
+        <is>
+          <t>ATENCAO</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="n">
+        <v>9918</v>
+      </c>
+      <c r="B403" t="inlineStr"/>
+      <c r="C403" t="n">
+        <v>75</v>
+      </c>
+      <c r="D403" t="inlineStr">
+        <is>
+          <t>CONTRIBUICAO PATRONAL PARA CUSTEIO DOS PROVENTOS DOS MILITARES</t>
+        </is>
+      </c>
+      <c r="E403" t="n">
+        <v>0</v>
+      </c>
+      <c r="F403" t="n">
+        <v>0</v>
+      </c>
+      <c r="G403" t="n">
+        <v>26553120</v>
+      </c>
+      <c r="H403" t="n">
+        <v>0</v>
+      </c>
+      <c r="I403" t="n">
+        <v>0</v>
+      </c>
+      <c r="J403" t="inlineStr">
+        <is>
+          <t>ATENCAO</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="n">
+        <v>9919</v>
+      </c>
+      <c r="B404" t="inlineStr"/>
+      <c r="C404" t="n">
+        <v>75</v>
+      </c>
+      <c r="D404" t="inlineStr">
+        <is>
+          <t>CONTRIBUICAO PATRONAL PARA CUSTEIO DOS PROVENTOS DOS MILITARES</t>
+        </is>
+      </c>
+      <c r="E404" t="n">
+        <v>0</v>
+      </c>
+      <c r="F404" t="n">
+        <v>0</v>
+      </c>
+      <c r="G404" t="n">
+        <v>15475759</v>
+      </c>
+      <c r="H404" t="n">
+        <v>0</v>
+      </c>
+      <c r="I404" t="n">
+        <v>0</v>
+      </c>
+      <c r="J404" t="inlineStr">
+        <is>
+          <t>ATENCAO</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="n">
+        <v>9920</v>
+      </c>
+      <c r="B405" t="inlineStr"/>
+      <c r="C405" t="n">
+        <v>75</v>
+      </c>
+      <c r="D405" t="inlineStr">
+        <is>
+          <t>CONTRIBUICAO PATRONAL PARA CUSTEIO DOS PROVENTOS DOS MILITARES</t>
+        </is>
+      </c>
+      <c r="E405" t="n">
+        <v>0</v>
+      </c>
+      <c r="F405" t="n">
+        <v>0</v>
+      </c>
+      <c r="G405" t="n">
+        <v>26553120</v>
+      </c>
+      <c r="H405" t="n">
+        <v>0</v>
+      </c>
+      <c r="I405" t="n">
+        <v>0</v>
+      </c>
+      <c r="J405" t="inlineStr">
+        <is>
+          <t>ATENCAO</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="n">
+        <v>9921</v>
+      </c>
+      <c r="B406" t="inlineStr"/>
+      <c r="C406" t="n">
+        <v>75</v>
+      </c>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>CONTRIBUICAO PATRONAL PARA CUSTEIO DOS PROVENTOS DOS MILITARES</t>
+        </is>
+      </c>
+      <c r="E406" t="n">
+        <v>0</v>
+      </c>
+      <c r="F406" t="n">
+        <v>0</v>
+      </c>
+      <c r="G406" t="n">
+        <v>30951518</v>
+      </c>
+      <c r="H406" t="n">
+        <v>0</v>
+      </c>
+      <c r="I406" t="n">
+        <v>0</v>
+      </c>
+      <c r="J406" t="inlineStr">
+        <is>
+          <t>ATENCAO</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="n">
+        <v>9922</v>
+      </c>
+      <c r="B407" t="inlineStr"/>
+      <c r="C407" t="n">
+        <v>75</v>
+      </c>
+      <c r="D407" t="inlineStr">
+        <is>
+          <t>CONTRIBUICAO PATRONAL PARA CUSTEIO DOS PROVENTOS DOS MILITARES</t>
+        </is>
+      </c>
+      <c r="E407" t="n">
+        <v>0</v>
+      </c>
+      <c r="F407" t="n">
+        <v>0</v>
+      </c>
+      <c r="G407" t="n">
+        <v>53106240</v>
+      </c>
+      <c r="H407" t="n">
+        <v>0</v>
+      </c>
+      <c r="I407" t="n">
+        <v>0</v>
+      </c>
+      <c r="J407" t="inlineStr">
+        <is>
+          <t>ATENCAO</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="n">
+        <v>9923</v>
+      </c>
+      <c r="B408" t="inlineStr"/>
+      <c r="C408" t="n">
+        <v>75</v>
+      </c>
+      <c r="D408" t="inlineStr">
+        <is>
+          <t>CONTRIBUICAO PATRONAL PARA CUSTEIO DOS PROVENTOS DOS MILITARES</t>
+        </is>
+      </c>
+      <c r="E408" t="n">
+        <v>0</v>
+      </c>
+      <c r="F408" t="n">
+        <v>0</v>
+      </c>
+      <c r="G408" t="n">
+        <v>13326200</v>
+      </c>
+      <c r="H408" t="n">
+        <v>0</v>
+      </c>
+      <c r="I408" t="n">
+        <v>0</v>
+      </c>
+      <c r="J408" t="inlineStr">
+        <is>
+          <t>ATENCAO</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="n">
+        <v>9924</v>
+      </c>
+      <c r="B409" t="inlineStr"/>
+      <c r="C409" t="n">
+        <v>75</v>
+      </c>
+      <c r="D409" t="inlineStr">
+        <is>
+          <t>CONTRIBUICAO PATRONAL PARA CUSTEIO DOS PROVENTOS DOS MILITARES</t>
+        </is>
+      </c>
+      <c r="E409" t="n">
+        <v>0</v>
+      </c>
+      <c r="F409" t="n">
+        <v>0</v>
+      </c>
+      <c r="G409" t="n">
+        <v>24398107</v>
+      </c>
+      <c r="H409" t="n">
+        <v>0</v>
+      </c>
+      <c r="I409" t="n">
+        <v>0</v>
+      </c>
+      <c r="J409" t="inlineStr">
+        <is>
+          <t>ATENCAO</t>
         </is>
       </c>
     </row>
